--- a/docs/Error_summary.xlsx
+++ b/docs/Error_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="163">
   <si>
     <t>bud_big</t>
   </si>
@@ -362,7 +362,157 @@
     <t>PILI</t>
   </si>
   <si>
-    <t>Haven't yet looked at</t>
+    <t>petals = calyx</t>
+  </si>
+  <si>
+    <t>petals = stigma + all derived parts</t>
+  </si>
+  <si>
+    <t>infl stalk = bract</t>
+  </si>
+  <si>
+    <t>flower_petals_small</t>
+  </si>
+  <si>
+    <t>PHPH</t>
+  </si>
+  <si>
+    <t>flower_aborted_without_petals</t>
+  </si>
+  <si>
+    <t>petals = bract = calyx</t>
+  </si>
+  <si>
+    <t>I know these don't match in spreadsheet; to discuss with Daniel</t>
+  </si>
+  <si>
+    <t>fruit_large_immature_02</t>
+  </si>
+  <si>
+    <t>fruit_large_immature_03</t>
+  </si>
+  <si>
+    <t>fruit_large_immature_04</t>
+  </si>
+  <si>
+    <t>fruit_large_immature_05</t>
+  </si>
+  <si>
+    <t>fruit_large_immature_06</t>
+  </si>
+  <si>
+    <t>PELA</t>
+  </si>
+  <si>
+    <t>flower petals = pedicel</t>
+  </si>
+  <si>
+    <t>petals = stigma + derived parts, adding in seeds+aborted seeds</t>
+  </si>
+  <si>
+    <t>petals = stigma + derived parts, adding in seed pods instead</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>See also notes in word doc. I think this is because the plant map is following backwards from the seed/aborted seed, rather than the seed pod. Since seed pods have variable seed number, but map assumes there are always 2, it makes the assumption that there are some fruit_young and fruit_large_immature that have been "lost" when in reality they have turned into empty seed pods. However, if you consider "seed pod" the end of the developmental trajectory, then the numbers should add up. I'm guessing this is a change to the plant map.</t>
+  </si>
+  <si>
+    <t>pedicel = stigma + all derived parts</t>
+  </si>
+  <si>
+    <t>correct; diff in raw #s bc some start with ped on plant, but no petals</t>
+  </si>
+  <si>
+    <t>Note: "Lost" has little meaning, since lots of parts on plants at harvest that are "FinDev" but not "Lost"</t>
+  </si>
+  <si>
+    <t>PEPU</t>
+  </si>
+  <si>
+    <t>fruit_empty</t>
+  </si>
+  <si>
+    <t>cone_just_starting_01</t>
+  </si>
+  <si>
+    <t>cone_just_starting_02</t>
+  </si>
+  <si>
+    <t>cone_just_starting_03</t>
+  </si>
+  <si>
+    <t>cone_just_starting_04</t>
+  </si>
+  <si>
+    <t>cone_just_starting_05</t>
+  </si>
+  <si>
+    <t>seed_immature</t>
+  </si>
+  <si>
+    <t>HATE</t>
+  </si>
+  <si>
+    <t>inflorescence_bud_small</t>
+  </si>
+  <si>
+    <t>inflorescence_bud_big_flowers</t>
+  </si>
+  <si>
+    <t>inflorescence_bud_big_bracts</t>
+  </si>
+  <si>
+    <t>petals = flower_stigma + all derived parts</t>
+  </si>
+  <si>
+    <t>seed + seed_aborted +seed_imm = seed pod</t>
+  </si>
+  <si>
+    <t>HEPU</t>
+  </si>
+  <si>
+    <t>HEPU 002, HEPU 003; there are pre-existing calyx_fruit at start of experiment that are not being counted as errors</t>
+  </si>
+  <si>
+    <t>HEPU 004, there are 2 pre-existing bud_small at start of experiment that are not being counted as part of error</t>
+  </si>
+  <si>
+    <t>HEPU 001, there are 9 flower_petals amd HEPU 002, there are 1 flower petals at start of experiement that have not been included in "Error"</t>
+  </si>
+  <si>
+    <t>HEPU 001, there are 9 flower_calyx and HEPU 002, there are 1 flower_calyx at start of experiement that have not been included in "Error"</t>
+  </si>
+  <si>
+    <t>HEPU 002, there are 3 fruit_young, HEPU_003 there is 1 fruit_young  at start of experiment that are not being counted as errors</t>
+  </si>
+  <si>
+    <t>flower petals = flower calyx + all derived parts</t>
+  </si>
+  <si>
+    <t>calyx fruit = fruit young + all derived parts</t>
+  </si>
+  <si>
+    <t>flower petals = flower stigma + all derived parts</t>
+  </si>
+  <si>
+    <t>pedicel = fruit large imm + seed + seed aborted</t>
+  </si>
+  <si>
+    <t>seed pod = seed_aborted + seed</t>
+  </si>
+  <si>
+    <t>This difference is due to an error in seed number at start of exp; look tomorrow</t>
+  </si>
+  <si>
+    <t>Haven't started tracing this error</t>
+  </si>
+  <si>
+    <t>GRSP</t>
+  </si>
+  <si>
+    <t>TO DO</t>
   </si>
 </sst>
 </file>
@@ -378,7 +528,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -388,6 +538,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,7 +560,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -418,6 +574,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,16 +855,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O190"/>
+  <dimension ref="A1:O329"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J162" sqref="J162"/>
+    <sheetView tabSelected="1" topLeftCell="A290" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E313" sqref="E313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="24.85546875" customWidth="1"/>
@@ -761,7 +918,7 @@
         <v>4448</v>
       </c>
       <c r="I3">
-        <f>E3-F3+H3-D3</f>
+        <f t="shared" ref="I3:I32" si="0">E3-F3+H3-D3</f>
         <v>0</v>
       </c>
     </row>
@@ -782,7 +939,7 @@
         <v>5286</v>
       </c>
       <c r="I4">
-        <f>E4-F4+H4-D4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N4" s="2"/>
@@ -802,7 +959,7 @@
         <v>17152</v>
       </c>
       <c r="I5">
-        <f>E5-F5+H5-D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N5" s="2"/>
@@ -825,7 +982,7 @@
         <v>18404</v>
       </c>
       <c r="I6">
-        <f>E6-F6+H6-D6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N6" s="2"/>
@@ -845,7 +1002,7 @@
         <v>12578</v>
       </c>
       <c r="I7">
-        <f>E7-F7+H7-D7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N7" s="2"/>
@@ -865,7 +1022,7 @@
         <v>10</v>
       </c>
       <c r="I8">
-        <f>E8-F8+H8-D8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N8" s="2"/>
@@ -885,7 +1042,7 @@
         <v>20</v>
       </c>
       <c r="I9">
-        <f>E9-F9+H9-D9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9" s="2"/>
@@ -911,7 +1068,7 @@
         <v>19</v>
       </c>
       <c r="I10">
-        <f>E10-F10+H10-D10</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="J10" t="s">
@@ -943,7 +1100,7 @@
         <v>17</v>
       </c>
       <c r="I11">
-        <f>E11-F11+H11-D11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N11" s="2"/>
@@ -966,7 +1123,7 @@
         <v>7</v>
       </c>
       <c r="I12">
-        <f>E12-F12+H12-D12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N12" s="2"/>
@@ -986,7 +1143,7 @@
         <v>7</v>
       </c>
       <c r="I13">
-        <f>E13-F13+H13-D13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N13" s="2"/>
@@ -1006,7 +1163,7 @@
         <v>8</v>
       </c>
       <c r="I14">
-        <f>E14-F14+H14-D14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N14" s="2"/>
@@ -1026,7 +1183,7 @@
         <v>12</v>
       </c>
       <c r="I15">
-        <f>E15-F15+H15-D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N15" s="2"/>
@@ -1052,7 +1209,7 @@
         <v>19</v>
       </c>
       <c r="I16">
-        <f>E16-F16+H16-D16</f>
+        <f t="shared" si="0"/>
         <v>-1</v>
       </c>
       <c r="J16" t="s">
@@ -1084,7 +1241,7 @@
         <v>23</v>
       </c>
       <c r="I17">
-        <f>E17-F17+H17-D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N17" s="2"/>
@@ -1107,7 +1264,7 @@
         <v>7</v>
       </c>
       <c r="I18">
-        <f>E18-F18+H18-D18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N18" s="2"/>
@@ -1127,7 +1284,7 @@
         <v>7</v>
       </c>
       <c r="I19">
-        <f>E19-F19+H19-D19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N19" s="2"/>
@@ -1147,7 +1304,7 @@
         <v>39</v>
       </c>
       <c r="I20">
-        <f>E20-F20+H20-D20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N20" s="2"/>
@@ -1167,7 +1324,7 @@
         <v>29</v>
       </c>
       <c r="I21">
-        <f>E21-F21+H21-D21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N21" s="2"/>
@@ -1187,7 +1344,7 @@
         <v>12</v>
       </c>
       <c r="I22">
-        <f>E22-F22+H22-D22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N22" s="2"/>
@@ -1207,7 +1364,7 @@
         <v>3</v>
       </c>
       <c r="I23">
-        <f>E23-F23+H23-D23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N23" s="2"/>
@@ -1233,7 +1390,7 @@
         <v>21700</v>
       </c>
       <c r="I24">
-        <f>E24-F24+H24-D24</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="J24" t="s">
@@ -1259,7 +1416,7 @@
         <v>21522</v>
       </c>
       <c r="I25">
-        <f>E25-F25+H25-D25</f>
+        <f t="shared" si="0"/>
         <v>-982</v>
       </c>
       <c r="J25" t="s">
@@ -1294,7 +1451,7 @@
         <v>21522</v>
       </c>
       <c r="I26">
-        <f>E26-F26+H26-D26</f>
+        <f t="shared" si="0"/>
         <v>-982</v>
       </c>
       <c r="J26" t="s">
@@ -1323,7 +1480,7 @@
         <v>21522</v>
       </c>
       <c r="I27">
-        <f>E27-F27+H27-D27</f>
+        <f t="shared" si="0"/>
         <v>-982</v>
       </c>
       <c r="J27" t="s">
@@ -1349,7 +1506,7 @@
         <v>388</v>
       </c>
       <c r="I28">
-        <f>E28-F28+H28-D28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N28" s="2"/>
@@ -1372,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="I29">
-        <f>E29-F29+H29-D29</f>
+        <f t="shared" si="0"/>
         <v>386</v>
       </c>
       <c r="J29" t="s">
@@ -1395,7 +1552,7 @@
         <v>380</v>
       </c>
       <c r="I30">
-        <f>E30-F30+H30-D30</f>
+        <f t="shared" si="0"/>
         <v>-380</v>
       </c>
       <c r="J30" t="s">
@@ -1418,7 +1575,7 @@
         <v>8</v>
       </c>
       <c r="I31">
-        <f>E31-F31+H31-D31</f>
+        <f t="shared" si="0"/>
         <v>-8</v>
       </c>
       <c r="J31" t="s">
@@ -1439,7 +1596,7 @@
         <v>388</v>
       </c>
       <c r="I32">
-        <f>E32-F32+H32-D32</f>
+        <f t="shared" si="0"/>
         <v>-388</v>
       </c>
       <c r="J32" t="s">
@@ -1541,7 +1698,7 @@
         <v>580</v>
       </c>
       <c r="I41">
-        <f>E41-F41+H41-D41</f>
+        <f t="shared" ref="I41:I55" si="1">E41-F41+H41-D41</f>
         <v>0</v>
       </c>
       <c r="J41" s="2"/>
@@ -1576,7 +1733,7 @@
         <v>100</v>
       </c>
       <c r="I42">
-        <f>E42-F42+H42-D42</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J42" s="2"/>
@@ -1608,7 +1765,7 @@
         <v>628</v>
       </c>
       <c r="I43">
-        <f>E43-F43+H43-D43</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J43" s="2"/>
@@ -1643,7 +1800,7 @@
         <v>16</v>
       </c>
       <c r="I44">
-        <f>E44-F44+H44-D44</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J44" s="2"/>
@@ -1675,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <f>E45-F45+H45-D45</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J45" s="2"/>
@@ -1707,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <f>E46-F46+H46-D46</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J46" s="2"/>
@@ -1739,7 +1896,7 @@
         <v>1044</v>
       </c>
       <c r="I47">
-        <f>E47-F47+H47-D47</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J47" s="2"/>
@@ -1771,7 +1928,7 @@
         <v>2912</v>
       </c>
       <c r="I48">
-        <f>E48-F48+H48-D48</f>
+        <f t="shared" si="1"/>
         <v>-2044</v>
       </c>
       <c r="J48" s="2" t="s">
@@ -1807,7 +1964,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <f>E49-F49+H49-D49</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J49" s="2"/>
@@ -1839,7 +1996,7 @@
         <v>1740</v>
       </c>
       <c r="I50">
-        <f>E50-F50+H50-D50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J50" s="2"/>
@@ -1871,7 +2028,7 @@
         <v>3</v>
       </c>
       <c r="I51">
-        <f>E51-F51+H51-D51</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J51" s="2"/>
@@ -1903,7 +2060,7 @@
         <v>78</v>
       </c>
       <c r="I52">
-        <f>E52-F52+H52-D52</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J52" s="2"/>
@@ -1935,7 +2092,7 @@
         <v>21</v>
       </c>
       <c r="I53">
-        <f>E53-F53+H53-D53</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J53" s="2"/>
@@ -1967,7 +2124,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <f>E54-F54+H54-D54</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J54" s="2"/>
@@ -1999,7 +2156,7 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <f>E55-F55+H55-D55</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J55" s="2"/>
@@ -2140,7 +2297,7 @@
         <v>24</v>
       </c>
       <c r="I65">
-        <f>E65-F65+H65-D65</f>
+        <f t="shared" ref="I65:I79" si="2">E65-F65+H65-D65</f>
         <v>0</v>
       </c>
       <c r="J65" s="2"/>
@@ -2172,7 +2329,7 @@
         <v>6</v>
       </c>
       <c r="I66">
-        <f>E66-F66+H66-D66</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J66" s="2"/>
@@ -2201,7 +2358,7 @@
         <v>38</v>
       </c>
       <c r="I67">
-        <f>E67-F67+H67-D67</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J67" s="2"/>
@@ -2224,7 +2381,7 @@
         <v>95</v>
       </c>
       <c r="I68">
-        <f>E68-F68+H68-D68</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J68" s="2"/>
@@ -2247,7 +2404,7 @@
         <v>6</v>
       </c>
       <c r="I69">
-        <f>E69-F69+H69-D69</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J69" s="2"/>
@@ -2270,7 +2427,7 @@
         <v>4</v>
       </c>
       <c r="I70">
-        <f>E70-F70+H70-D70</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J70" s="2"/>
@@ -2299,7 +2456,7 @@
         <v>52</v>
       </c>
       <c r="I71">
-        <f>E71-F71+H71-D71</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J71" s="2"/>
@@ -2322,7 +2479,7 @@
         <v>2100</v>
       </c>
       <c r="I72">
-        <f>E72-F72+H72-D72</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J72" s="2"/>
@@ -2351,7 +2508,7 @@
         <v>525</v>
       </c>
       <c r="I73">
-        <f>E73-F73+H73-D73</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J73" s="2"/>
@@ -2380,7 +2537,7 @@
         <v>1209</v>
       </c>
       <c r="I74">
-        <f>E74-F74+H74-D74</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J74" s="2"/>
@@ -2403,7 +2560,7 @@
         <v>210</v>
       </c>
       <c r="I75">
-        <f>E75-F75+H75-D75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J75" s="2"/>
@@ -2426,7 +2583,7 @@
         <v>355</v>
       </c>
       <c r="I76">
-        <f>E76-F76+H76-D76</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J76" s="2"/>
@@ -2449,7 +2606,7 @@
         <v>329</v>
       </c>
       <c r="I77">
-        <f>E77-F77+H77-D77</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J77" s="2"/>
@@ -2472,7 +2629,7 @@
         <v>346</v>
       </c>
       <c r="I78">
-        <f>E78-F78+H78-D78</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J78" s="2"/>
@@ -2495,7 +2652,7 @@
         <v>355</v>
       </c>
       <c r="I79">
-        <f>E79-F79+H79-D79</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J79" s="2"/>
@@ -2579,7 +2736,7 @@
         <v>7955</v>
       </c>
       <c r="I85">
-        <f>E85-F85+H85-D85</f>
+        <f t="shared" ref="I85:I93" si="3">E85-F85+H85-D85</f>
         <v>0</v>
       </c>
       <c r="J85" s="2"/>
@@ -2612,7 +2769,7 @@
         <v>40</v>
       </c>
       <c r="I86">
-        <f>E86-F86+H86-D86</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J86" s="2"/>
@@ -2642,7 +2799,7 @@
         <v>1861</v>
       </c>
       <c r="I87">
-        <f>E87-F87+H87-D87</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J87" s="2"/>
@@ -2666,7 +2823,7 @@
         <v>4525</v>
       </c>
       <c r="I88">
-        <f>E88-F88+H88-D88</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J88" s="2"/>
@@ -2696,7 +2853,7 @@
         <v>446</v>
       </c>
       <c r="I89">
-        <f>E89-F89+H89-D89</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J89" s="2"/>
@@ -2726,7 +2883,7 @@
         <v>1494</v>
       </c>
       <c r="I90">
-        <f>E90-F90+H90-D90</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J90" s="2"/>
@@ -2756,7 +2913,7 @@
         <v>593</v>
       </c>
       <c r="I91">
-        <f>E91-F91+H91-D91</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J91" s="2"/>
@@ -2786,7 +2943,7 @@
         <v>329</v>
       </c>
       <c r="I92">
-        <f>E92-F92+H92-D92</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J92" s="2"/>
@@ -2810,7 +2967,7 @@
         <v>1663</v>
       </c>
       <c r="I93">
-        <f>E93-F93+H93-D93</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J93" s="2"/>
@@ -2832,7 +2989,9 @@
       <c r="E95">
         <v>4525</v>
       </c>
-      <c r="J95" s="2"/>
+      <c r="J95" t="s">
+        <v>64</v>
+      </c>
       <c r="K95" s="1"/>
       <c r="L95" s="5"/>
     </row>
@@ -2886,7 +3045,7 @@
         <v>32</v>
       </c>
       <c r="I100">
-        <f>E100-F100+H100-D100</f>
+        <f t="shared" ref="I100:I112" si="4">E100-F100+H100-D100</f>
         <v>0</v>
       </c>
       <c r="J100" s="2"/>
@@ -2916,7 +3075,7 @@
         <v>4</v>
       </c>
       <c r="I101">
-        <f>E101-F101+H101-D101</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J101" s="2"/>
@@ -2946,7 +3105,7 @@
         <v>74</v>
       </c>
       <c r="I102">
-        <f>E102-F102+H102-D102</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J102" s="2"/>
@@ -2970,7 +3129,7 @@
         <v>319</v>
       </c>
       <c r="I103">
-        <f>E103-F103+H103-D103</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J103" s="2"/>
@@ -2994,7 +3153,7 @@
         <v>4071</v>
       </c>
       <c r="I104">
-        <f>E104-F104+H104-D104</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J104" s="2"/>
@@ -3018,7 +3177,7 @@
         <v>2997</v>
       </c>
       <c r="I105">
-        <f>E105-F105+H105-D105</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J105" s="2"/>
@@ -3048,7 +3207,7 @@
         <v>195</v>
       </c>
       <c r="I106">
-        <f>E106-F106+H106-D106</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J106" s="2"/>
@@ -3078,7 +3237,7 @@
         <v>261</v>
       </c>
       <c r="I107">
-        <f>E107-F107+H107-D107</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J107" s="2"/>
@@ -3108,7 +3267,7 @@
         <v>47</v>
       </c>
       <c r="I108">
-        <f>E108-F108+H108-D108</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J108" s="2"/>
@@ -3135,7 +3294,7 @@
         <v>1617</v>
       </c>
       <c r="I109">
-        <f>E109-F109+H109-D109</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J109" s="2"/>
@@ -3165,7 +3324,7 @@
         <v>408</v>
       </c>
       <c r="I110">
-        <f>E110-F110+H110-D110</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J110" s="2"/>
@@ -3189,7 +3348,7 @@
         <v>1323</v>
       </c>
       <c r="I111">
-        <f>E111-F111+H111-D111</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J111" s="2"/>
@@ -3216,7 +3375,7 @@
         <v>572</v>
       </c>
       <c r="I112">
-        <f>E112-F112+H112-D112</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J112" s="2"/>
@@ -3276,987 +3435,4042 @@
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B118" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="D118" s="1">
-        <v>18</v>
+        <v>56</v>
       </c>
       <c r="E118" s="1">
-        <v>18</v>
+        <v>675</v>
+      </c>
+      <c r="F118" s="1">
+        <v>620</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1</v>
+      </c>
+      <c r="H118" s="1">
+        <v>1</v>
       </c>
       <c r="I118">
-        <f t="shared" ref="I118:I129" si="0">E118-F118+H118-D118</f>
-        <v>0</v>
-      </c>
+        <f>E118-F118+H118-D118</f>
+        <v>0</v>
+      </c>
+      <c r="J118" s="2"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
+        <v>2</v>
+      </c>
+      <c r="B119" t="s">
+        <v>125</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B119" t="s">
-        <v>84</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>0</v>
+      <c r="D119" s="1">
+        <v>182</v>
       </c>
       <c r="E119" s="1">
-        <v>834</v>
+        <v>935</v>
       </c>
       <c r="F119" s="1">
-        <v>834</v>
-      </c>
+        <v>753</v>
+      </c>
+      <c r="G119" s="1">
+        <v>73</v>
+      </c>
+      <c r="H119" s="1"/>
       <c r="I119">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <f>E119-F119+H119-D119</f>
+        <v>0</v>
+      </c>
+      <c r="J119" s="2"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B120" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D120" s="1">
-        <v>3756</v>
+        <v>155</v>
       </c>
       <c r="E120" s="1">
-        <v>3756</v>
+        <v>1046</v>
+      </c>
+      <c r="F120" s="1">
+        <v>891</v>
+      </c>
+      <c r="G120" s="1">
+        <v>106</v>
       </c>
       <c r="I120">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <f>E120-F120+H120-D120</f>
+        <v>0</v>
+      </c>
+      <c r="J120" s="2"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B121" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D121" s="1">
-        <v>3756</v>
+        <v>1013</v>
       </c>
       <c r="E121" s="1">
-        <v>3756</v>
+        <v>1013</v>
       </c>
       <c r="I121">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <f>E121-F121+H121-D121</f>
+        <v>0</v>
+      </c>
+      <c r="J121" s="2"/>
+      <c r="K121" s="1"/>
+      <c r="L121" s="1"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>85</v>
+        <v>17</v>
       </c>
       <c r="D122" s="1">
-        <v>3756</v>
+        <v>1343</v>
       </c>
       <c r="E122" s="1">
-        <v>3756</v>
+        <v>1013</v>
+      </c>
+      <c r="H122" s="1">
+        <v>330</v>
       </c>
       <c r="I122">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <f>E122-F122+H122-D122</f>
+        <v>0</v>
+      </c>
+      <c r="J122" s="2"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B123" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>24</v>
       </c>
       <c r="D123" s="1">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="E123" s="1">
-        <v>1424</v>
+        <v>554</v>
       </c>
       <c r="F123" s="1">
-        <v>1416</v>
+        <v>351</v>
       </c>
       <c r="G123" s="1">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="I123">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <f>E123-F123+H123-D123</f>
+        <v>0</v>
+      </c>
+      <c r="J123" s="2"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B124" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="D124" s="1">
-        <v>32</v>
+        <v>264</v>
       </c>
       <c r="E124" s="1">
-        <v>32</v>
+        <v>592</v>
+      </c>
+      <c r="F124" s="1">
+        <v>328</v>
+      </c>
+      <c r="G124" s="1">
+        <v>172</v>
       </c>
       <c r="I124">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <f>E124-F124+H124-D124</f>
+        <v>0</v>
+      </c>
+      <c r="J124" s="2"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B125" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D125" s="1">
-        <v>2970</v>
+        <v>399</v>
       </c>
       <c r="E125" s="1">
-        <v>3644</v>
+        <v>523</v>
       </c>
       <c r="F125" s="1">
-        <v>814</v>
+        <v>172</v>
       </c>
       <c r="G125" s="1">
-        <v>2539</v>
+        <v>25</v>
       </c>
       <c r="H125" s="1">
-        <v>140</v>
+        <v>48</v>
       </c>
       <c r="I125">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J125" t="s">
-        <v>110</v>
-      </c>
-      <c r="K125" s="4" t="s">
-        <v>73</v>
-      </c>
+        <f>E125-F125+H125-D125</f>
+        <v>0</v>
+      </c>
+      <c r="J125" s="2"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="1"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
+        <v>9</v>
+      </c>
+      <c r="B126" t="s">
+        <v>125</v>
+      </c>
+      <c r="C126" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B126" t="s">
-        <v>84</v>
-      </c>
-      <c r="C126" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="D126" s="1">
-        <v>393</v>
+        <v>278</v>
       </c>
       <c r="E126" s="1">
-        <v>822</v>
+        <v>186</v>
       </c>
       <c r="F126" s="1">
-        <v>429</v>
+        <v>190</v>
+      </c>
+      <c r="G126" s="1">
+        <v>106</v>
+      </c>
+      <c r="H126" s="1">
+        <v>282</v>
       </c>
       <c r="I126">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <f>E126-F126+H126-D126</f>
+        <v>0</v>
+      </c>
+      <c r="J126" s="2"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B127" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D127" s="1">
-        <v>201</v>
+        <v>21</v>
       </c>
       <c r="E127" s="1">
-        <v>201</v>
+        <v>198</v>
+      </c>
+      <c r="F127" s="1">
+        <v>177</v>
+      </c>
+      <c r="G127" s="1">
+        <v>21</v>
       </c>
       <c r="I127">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <f>E127-F127+H127-D127</f>
+        <v>0</v>
+      </c>
+      <c r="J127" s="2"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="1"/>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B128" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>38</v>
+        <v>120</v>
       </c>
       <c r="D128" s="1">
-        <v>292</v>
+        <v>35</v>
       </c>
       <c r="E128" s="1">
-        <v>292</v>
+        <v>178</v>
+      </c>
+      <c r="F128" s="1">
+        <v>143</v>
+      </c>
+      <c r="G128" s="1">
+        <v>35</v>
       </c>
       <c r="I128">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+        <f>E128-F128+H128-D128</f>
+        <v>0</v>
+      </c>
+      <c r="J128" s="2"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="1"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B129" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="C129" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D129" s="1">
+        <v>6</v>
+      </c>
+      <c r="E129" s="1">
+        <v>114</v>
+      </c>
+      <c r="F129" s="1">
+        <v>108</v>
+      </c>
+      <c r="G129" s="1">
+        <v>6</v>
+      </c>
+      <c r="I129">
+        <f>E129-F129+H129-D129</f>
+        <v>0</v>
+      </c>
+      <c r="J129" s="2"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="1"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>13</v>
+      </c>
+      <c r="B130" t="s">
+        <v>125</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D130" s="1">
+        <v>1</v>
+      </c>
+      <c r="E130" s="1">
+        <v>110</v>
+      </c>
+      <c r="F130" s="1">
+        <v>109</v>
+      </c>
+      <c r="G130" s="1">
+        <v>1</v>
+      </c>
+      <c r="I130">
+        <f>E130-F130+H130-D130</f>
+        <v>0</v>
+      </c>
+      <c r="J130" s="2"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="1"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>14</v>
+      </c>
+      <c r="B131" t="s">
+        <v>125</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="D131" s="1">
+        <v>2</v>
+      </c>
+      <c r="E131" s="1">
+        <v>122</v>
+      </c>
+      <c r="F131" s="1">
+        <v>120</v>
+      </c>
+      <c r="G131" s="1">
+        <v>2</v>
+      </c>
+      <c r="I131">
+        <f>E131-F131+H131-D131</f>
+        <v>0</v>
+      </c>
+      <c r="J131" s="2"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="1"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>15</v>
+      </c>
+      <c r="B132" t="s">
+        <v>125</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D132" s="1">
+        <v>1</v>
+      </c>
+      <c r="E132" s="1">
+        <v>4</v>
+      </c>
+      <c r="F132" s="1">
+        <v>3</v>
+      </c>
+      <c r="G132" s="1">
+        <v>1</v>
+      </c>
+      <c r="I132">
+        <f>E132-F132+H132-D132</f>
+        <v>0</v>
+      </c>
+      <c r="J132" s="2"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="1"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>16</v>
+      </c>
+      <c r="B133" t="s">
+        <v>125</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" s="1">
+        <v>133</v>
+      </c>
+      <c r="E133" s="1">
+        <v>133</v>
+      </c>
+      <c r="I133">
+        <f>E133-F133+H133-D133</f>
+        <v>0</v>
+      </c>
+      <c r="J133" s="2"/>
+      <c r="K133" s="1"/>
+      <c r="L133" s="1"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>17</v>
+      </c>
+      <c r="B134" t="s">
+        <v>125</v>
+      </c>
+      <c r="C134" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D129" s="1">
-        <v>940</v>
-      </c>
-      <c r="E129" s="1">
-        <v>940</v>
-      </c>
-      <c r="I129">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C131" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D131" s="1">
-        <v>3756</v>
-      </c>
-      <c r="E131" s="1">
-        <v>3756</v>
-      </c>
-      <c r="I131" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C132" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D132" s="1">
-        <v>940</v>
-      </c>
-      <c r="E132" s="1">
-        <v>493</v>
-      </c>
-      <c r="J132" t="s">
-        <v>89</v>
-      </c>
-      <c r="L132" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C133" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D133" s="1">
-        <v>3756</v>
-      </c>
-      <c r="E133" s="1">
-        <v>3896</v>
-      </c>
-      <c r="J133" t="s">
-        <v>106</v>
-      </c>
-      <c r="K133" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="D134" s="1">
+        <v>133</v>
+      </c>
+      <c r="E134" s="1">
+        <v>133</v>
+      </c>
+      <c r="I134">
+        <f>E134-F134+H134-D134</f>
+        <v>0</v>
+      </c>
+      <c r="J134" s="2"/>
+      <c r="K134" s="1"/>
+      <c r="L134" s="1"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C135" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D135" t="s">
-        <v>103</v>
-      </c>
-      <c r="E135" t="s">
-        <v>104</v>
-      </c>
-      <c r="F135" t="s">
-        <v>105</v>
-      </c>
+      <c r="J135" s="2"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="1"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C136" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D136" s="1">
-        <v>186</v>
-      </c>
-      <c r="E136" s="1">
-        <v>236</v>
-      </c>
-      <c r="F136">
-        <f>D136-E136</f>
-        <v>-50</v>
-      </c>
-      <c r="I136" s="4"/>
-      <c r="J136" s="4"/>
-      <c r="K136"/>
-      <c r="L136"/>
+        <v>21</v>
+      </c>
+      <c r="D136">
+        <v>133</v>
+      </c>
+      <c r="E136">
+        <v>133</v>
+      </c>
+      <c r="I136" t="s">
+        <v>64</v>
+      </c>
+      <c r="J136" s="2"/>
+      <c r="K136" s="1"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C137" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D137" s="1">
-        <v>136</v>
-      </c>
-      <c r="E137" s="1">
-        <v>168</v>
-      </c>
-      <c r="F137">
-        <f>D137-E137</f>
-        <v>-32</v>
-      </c>
-      <c r="I137" s="4"/>
-      <c r="J137" s="4"/>
-      <c r="K137"/>
-      <c r="L137"/>
+        <v>126</v>
+      </c>
+      <c r="D137">
+        <v>1343</v>
+      </c>
+      <c r="E137">
+        <v>1343</v>
+      </c>
+      <c r="I137" t="s">
+        <v>64</v>
+      </c>
+      <c r="J137" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C138" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D138" s="1">
-        <v>238</v>
-      </c>
-      <c r="E138" s="1">
-        <v>264</v>
-      </c>
-      <c r="F138">
-        <f>D138-E138</f>
-        <v>-26</v>
-      </c>
-      <c r="I138" s="4"/>
-      <c r="J138" s="4"/>
-      <c r="K138"/>
-      <c r="L138"/>
-    </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C139" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D139" s="6">
-        <v>106</v>
-      </c>
-      <c r="E139" s="1">
-        <v>116</v>
-      </c>
-      <c r="F139">
-        <f>D139-E139</f>
-        <v>-10</v>
-      </c>
-      <c r="H139">
-        <f>E139/2</f>
-        <v>58</v>
-      </c>
-      <c r="I139" s="4"/>
-      <c r="J139" s="4"/>
-      <c r="K139"/>
-      <c r="L139"/>
+        <v>131</v>
+      </c>
+      <c r="D138">
+        <v>1343</v>
+      </c>
+      <c r="E138">
+        <v>1343</v>
+      </c>
+      <c r="I138" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C140" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D140" s="1"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C141" s="2"/>
+      <c r="D141" s="1"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D142" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" t="s">
+        <v>62</v>
+      </c>
+      <c r="F142" t="s">
+        <v>63</v>
+      </c>
+      <c r="G142" t="s">
+        <v>10</v>
+      </c>
+      <c r="H142" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>1</v>
+      </c>
+      <c r="B143" t="s">
+        <v>134</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E143" s="1">
+        <v>17</v>
+      </c>
+      <c r="F143" s="1">
+        <v>17</v>
+      </c>
+      <c r="I143">
+        <f t="shared" ref="I143:I163" si="5">E143-F143+H143-D143</f>
+        <v>0</v>
+      </c>
+      <c r="J143" s="2"/>
+      <c r="K143" s="1"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2</v>
+      </c>
+      <c r="B144" t="s">
+        <v>134</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E144" s="1">
+        <v>14</v>
+      </c>
+      <c r="F144" s="1">
+        <v>14</v>
+      </c>
+      <c r="I144">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J144" s="2"/>
+      <c r="K144" s="1"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>3</v>
+      </c>
+      <c r="B145" t="s">
+        <v>134</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E145" s="1">
+        <v>11</v>
+      </c>
+      <c r="F145" s="1">
+        <v>11</v>
+      </c>
+      <c r="I145">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J145" s="2"/>
+      <c r="K145" s="1"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>4</v>
+      </c>
+      <c r="B146" t="s">
+        <v>134</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E146" s="1">
+        <v>5</v>
+      </c>
+      <c r="F146" s="1">
+        <v>5</v>
+      </c>
+      <c r="I146">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J146" s="2"/>
+      <c r="K146" s="1"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>134</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E147" s="1">
+        <v>1</v>
+      </c>
+      <c r="F147" s="1">
+        <v>1</v>
+      </c>
+      <c r="I147">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J147" s="2"/>
+      <c r="K147" s="1"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>6</v>
+      </c>
+      <c r="B148" t="s">
+        <v>134</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E148" s="1">
+        <v>11</v>
+      </c>
+      <c r="F148" s="1">
+        <v>11</v>
+      </c>
+      <c r="I148">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J148" s="2"/>
+      <c r="K148" s="1"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>7</v>
+      </c>
+      <c r="B149" t="s">
+        <v>134</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E149" s="1">
+        <v>11</v>
+      </c>
+      <c r="F149" s="1">
+        <v>11</v>
+      </c>
+      <c r="I149">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J149" s="2"/>
+      <c r="K149" s="1"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>8</v>
+      </c>
+      <c r="B150" t="s">
+        <v>134</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E150" s="1">
+        <v>9</v>
+      </c>
+      <c r="F150" s="1">
+        <v>9</v>
+      </c>
+      <c r="I150">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J150" s="2"/>
+      <c r="K150" s="1"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>9</v>
+      </c>
+      <c r="B151" t="s">
+        <v>134</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D151" s="1">
+        <v>12</v>
+      </c>
+      <c r="E151" s="1">
+        <v>12</v>
+      </c>
+      <c r="I151">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J151" s="2"/>
+      <c r="K151" s="1"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>10</v>
+      </c>
+      <c r="B152" t="s">
+        <v>134</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D152" s="1">
+        <v>5</v>
+      </c>
+      <c r="E152" s="1">
+        <v>5</v>
+      </c>
+      <c r="I152">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J152" s="2"/>
+      <c r="K152" s="1"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>11</v>
+      </c>
+      <c r="B153" t="s">
+        <v>134</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D153">
+        <v>11</v>
+      </c>
+      <c r="E153" s="1">
+        <v>608</v>
+      </c>
+      <c r="F153" s="1">
+        <v>597</v>
+      </c>
+      <c r="G153" s="1">
+        <v>11</v>
+      </c>
+      <c r="I153">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J153" s="2"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>12</v>
+      </c>
+      <c r="B154" t="s">
+        <v>134</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D154" s="1">
+        <v>9</v>
+      </c>
+      <c r="E154" s="1">
+        <v>865</v>
+      </c>
+      <c r="F154" s="1">
+        <v>856</v>
+      </c>
+      <c r="G154" s="1">
+        <v>9</v>
+      </c>
+      <c r="I154">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J154" s="2"/>
+      <c r="K154" s="1"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>13</v>
+      </c>
+      <c r="B155" t="s">
+        <v>134</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D155" s="1">
+        <v>916</v>
+      </c>
+      <c r="E155" s="1">
+        <v>916</v>
+      </c>
+      <c r="I155">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J155" s="2"/>
+      <c r="K155" s="1"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>14</v>
+      </c>
+      <c r="B156" t="s">
+        <v>134</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D156" s="1">
+        <v>916</v>
+      </c>
+      <c r="E156" s="1">
+        <v>916</v>
+      </c>
+      <c r="I156">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J156" s="2"/>
+      <c r="K156" s="1"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>15</v>
+      </c>
+      <c r="B157" t="s">
+        <v>134</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D157" s="1">
+        <v>74</v>
+      </c>
+      <c r="E157" s="1">
+        <v>862</v>
+      </c>
+      <c r="F157" s="1">
+        <v>788</v>
+      </c>
+      <c r="G157" s="1">
+        <v>74</v>
+      </c>
+      <c r="I157">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J157" s="2"/>
+      <c r="K157" s="1"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>16</v>
+      </c>
+      <c r="B158" t="s">
+        <v>134</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D158" s="1">
+        <v>16</v>
+      </c>
+      <c r="E158" s="1">
+        <v>663</v>
+      </c>
+      <c r="F158" s="1">
+        <v>647</v>
+      </c>
+      <c r="G158" s="1">
+        <v>16</v>
+      </c>
+      <c r="I158">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J158" s="2"/>
+      <c r="K158" s="1"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>17</v>
+      </c>
+      <c r="B159" t="s">
+        <v>134</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E159" s="1">
+        <v>660</v>
+      </c>
+      <c r="F159" s="1">
+        <v>660</v>
+      </c>
+      <c r="I159">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J159" s="2"/>
+      <c r="K159" s="1"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>18</v>
+      </c>
+      <c r="B160" t="s">
+        <v>134</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D160" s="1">
+        <v>140</v>
+      </c>
+      <c r="E160" s="1">
+        <v>140</v>
+      </c>
+      <c r="I160">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J160" s="2"/>
+      <c r="K160" s="1"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>19</v>
+      </c>
+      <c r="B161" t="s">
+        <v>134</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D161" s="1">
+        <v>17</v>
+      </c>
+      <c r="E161" s="1">
+        <v>686</v>
+      </c>
+      <c r="F161" s="1">
+        <v>669</v>
+      </c>
+      <c r="G161" s="1">
+        <v>17</v>
+      </c>
+      <c r="I161">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J161" s="2"/>
+      <c r="K161" s="1"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>20</v>
+      </c>
+      <c r="B162" t="s">
+        <v>134</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D162" s="1">
+        <v>409</v>
+      </c>
+      <c r="E162" s="1">
+        <v>409</v>
+      </c>
+      <c r="I162">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J162" s="2"/>
+      <c r="K162" s="1"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>21</v>
+      </c>
+      <c r="B163" t="s">
+        <v>134</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D163" s="1">
+        <v>260</v>
+      </c>
+      <c r="E163" s="1">
+        <v>260</v>
+      </c>
+      <c r="I163">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J163" s="2"/>
+      <c r="K163" s="1"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C164" s="2"/>
+      <c r="J164" s="2"/>
+      <c r="K164" s="1"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C165" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D165">
+        <v>916</v>
+      </c>
+      <c r="E165">
+        <v>916</v>
+      </c>
+      <c r="I165" t="s">
+        <v>64</v>
+      </c>
+      <c r="J165" s="2"/>
+      <c r="K165" s="1"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C166" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D166">
+        <v>916</v>
+      </c>
+      <c r="E166">
+        <v>916</v>
+      </c>
+      <c r="I166" t="s">
+        <v>64</v>
+      </c>
+      <c r="J166" s="2"/>
+      <c r="K166" s="1"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C167" s="2"/>
+      <c r="F167" s="4"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" t="s">
+        <v>62</v>
+      </c>
+      <c r="F168" t="s">
+        <v>63</v>
+      </c>
+      <c r="G168" t="s">
+        <v>10</v>
+      </c>
+      <c r="H168" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169" t="s">
+        <v>116</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D169" s="1">
+        <v>312</v>
+      </c>
+      <c r="E169" s="1">
+        <v>312</v>
+      </c>
+      <c r="I169">
+        <f>E169-F169+H169-D169</f>
+        <v>0</v>
+      </c>
+      <c r="J169" s="2"/>
+      <c r="K169" s="2"/>
+      <c r="L169" s="1"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2</v>
+      </c>
+      <c r="B170" t="s">
+        <v>116</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D170" s="1"/>
+      <c r="E170" s="1">
+        <v>3528</v>
+      </c>
+      <c r="F170" s="1">
+        <v>3528</v>
+      </c>
+      <c r="G170" s="1"/>
+      <c r="I170">
+        <f>E170-F170+H170-D170</f>
+        <v>0</v>
+      </c>
+      <c r="J170" s="2"/>
+      <c r="K170" s="2"/>
+      <c r="L170" s="1"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>3</v>
+      </c>
+      <c r="B171" t="s">
+        <v>116</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E171" s="1">
+        <v>974</v>
+      </c>
+      <c r="F171" s="1">
+        <v>974</v>
+      </c>
+      <c r="I171">
+        <f>E171-F171+H171-D171</f>
+        <v>0</v>
+      </c>
+      <c r="K171" s="2"/>
+      <c r="L171" s="1"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>4</v>
+      </c>
+      <c r="B172" t="s">
+        <v>116</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D172" s="1">
+        <v>72</v>
+      </c>
+      <c r="E172" s="1">
+        <v>72</v>
+      </c>
+      <c r="I172">
+        <f>E172-F172+H172-D172</f>
+        <v>0</v>
+      </c>
+      <c r="J172" s="2"/>
+      <c r="K172" s="2"/>
+      <c r="L172" s="1"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>5</v>
+      </c>
+      <c r="B173" t="s">
+        <v>116</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D173" s="1">
+        <v>4748</v>
+      </c>
+      <c r="E173" s="1">
+        <v>4748</v>
+      </c>
+      <c r="I173">
+        <f>E173-F173+H173-D173</f>
+        <v>0</v>
+      </c>
+      <c r="J173" s="2"/>
+      <c r="K173" s="2"/>
+      <c r="L173" s="1"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>6</v>
+      </c>
+      <c r="B174" t="s">
+        <v>116</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D174" s="1">
+        <v>470</v>
+      </c>
+      <c r="E174" s="1">
+        <v>470</v>
+      </c>
+      <c r="G174" s="1">
+        <v>470</v>
+      </c>
+      <c r="I174">
+        <f>E174-F174+H174-D174</f>
+        <v>0</v>
+      </c>
+      <c r="J174" s="2"/>
+      <c r="K174" s="2"/>
+      <c r="L174" s="1"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" t="s">
+        <v>116</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D175" s="1">
+        <v>5218</v>
+      </c>
+      <c r="E175" s="1">
+        <v>5218</v>
+      </c>
+      <c r="I175">
+        <f>E175-F175+H175-D175</f>
+        <v>0</v>
+      </c>
+      <c r="K175" s="2"/>
+      <c r="L175" s="1"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>8</v>
+      </c>
+      <c r="B176" t="s">
+        <v>116</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D176">
+        <v>5218</v>
+      </c>
+      <c r="E176">
+        <v>5218</v>
+      </c>
+      <c r="I176">
+        <f>E176-F176+H176-D176</f>
+        <v>0</v>
+      </c>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="1"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>9</v>
+      </c>
+      <c r="B177" t="s">
+        <v>116</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D177" s="1">
+        <v>812</v>
+      </c>
+      <c r="E177" s="1">
+        <v>4926</v>
+      </c>
+      <c r="F177" s="1">
+        <v>4114</v>
+      </c>
+      <c r="G177" s="1">
+        <v>812</v>
+      </c>
+      <c r="I177">
+        <f>E177-F177+H177-D177</f>
+        <v>0</v>
+      </c>
+      <c r="K177" s="2"/>
+      <c r="L177" s="1"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>10</v>
+      </c>
+      <c r="B178" t="s">
+        <v>116</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" s="1">
+        <v>3410</v>
+      </c>
+      <c r="E178" s="1">
+        <v>3838</v>
+      </c>
+      <c r="F178" s="1">
+        <v>428</v>
+      </c>
+      <c r="G178" s="1">
+        <v>3410</v>
+      </c>
+      <c r="I178">
+        <f>E178-F178+H178-D178</f>
+        <v>0</v>
+      </c>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+      <c r="L178" s="1"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>11</v>
+      </c>
+      <c r="B179" t="s">
+        <v>116</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D179" s="1">
+        <v>401</v>
+      </c>
+      <c r="E179" s="1">
+        <v>890</v>
+      </c>
+      <c r="F179" s="1">
+        <v>489</v>
+      </c>
+      <c r="G179" s="1">
+        <v>401</v>
+      </c>
+      <c r="I179">
+        <f>E179-F179+H179-D179</f>
+        <v>0</v>
+      </c>
+      <c r="K179" s="2"/>
+      <c r="L179" s="1"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>12</v>
+      </c>
+      <c r="B180" t="s">
+        <v>116</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D180" s="1">
+        <v>167</v>
+      </c>
+      <c r="E180" s="1">
+        <v>240</v>
+      </c>
+      <c r="F180" s="1">
+        <v>73</v>
+      </c>
+      <c r="G180" s="1">
+        <v>167</v>
+      </c>
+      <c r="I180">
+        <f>E180-F180+H180-D180</f>
+        <v>0</v>
+      </c>
+      <c r="K180" s="2"/>
+      <c r="L180" s="1"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>13</v>
+      </c>
+      <c r="B181" t="s">
+        <v>116</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D181" s="1">
+        <v>60</v>
+      </c>
+      <c r="E181" s="1">
+        <v>108</v>
+      </c>
+      <c r="F181" s="1">
+        <v>48</v>
+      </c>
+      <c r="G181" s="1">
+        <v>60</v>
+      </c>
+      <c r="I181">
+        <f>E181-F181+H181-D181</f>
+        <v>0</v>
+      </c>
+      <c r="K181" s="2"/>
+      <c r="L181" s="1"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>14</v>
+      </c>
+      <c r="B182" t="s">
+        <v>116</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D182" s="1">
+        <v>122</v>
+      </c>
+      <c r="E182" s="1">
+        <v>122</v>
+      </c>
+      <c r="I182">
+        <f>E182-F182+H182-D182</f>
+        <v>0</v>
+      </c>
+      <c r="K182" s="2"/>
+      <c r="L182" s="1"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>15</v>
+      </c>
+      <c r="B183" t="s">
+        <v>116</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D183" s="1">
+        <v>72</v>
+      </c>
+      <c r="E183" s="1">
+        <v>72</v>
+      </c>
+      <c r="I183">
+        <f>E183-F183+H183-D183</f>
+        <v>0</v>
+      </c>
+      <c r="K183" s="2"/>
+      <c r="L183" s="1"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>16</v>
+      </c>
+      <c r="B184" t="s">
+        <v>116</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D184" s="1">
+        <v>174</v>
+      </c>
+      <c r="E184" s="1">
+        <v>174</v>
+      </c>
+      <c r="I184">
+        <f>E184-F184+H184-D184</f>
+        <v>0</v>
+      </c>
+      <c r="K184" s="2"/>
+      <c r="L184" s="1"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>17</v>
+      </c>
+      <c r="B185" t="s">
+        <v>116</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D185" s="1">
+        <v>584</v>
+      </c>
+      <c r="E185" s="1">
+        <v>584</v>
+      </c>
+      <c r="I185">
+        <f>E185-F185+H185-D185</f>
+        <v>0</v>
+      </c>
+      <c r="K185" s="2"/>
+      <c r="L185" s="1"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C186" s="2"/>
+      <c r="K186" s="2"/>
+      <c r="L186" s="1"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C187" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D187" s="1">
+        <v>246</v>
+      </c>
+      <c r="E187">
+        <v>584</v>
+      </c>
+      <c r="J187" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C188" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D188">
+        <v>5218</v>
+      </c>
+      <c r="E188">
+        <v>5218</v>
+      </c>
+      <c r="F188">
+        <v>5218</v>
+      </c>
+      <c r="J188" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C189" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D189">
+        <v>5218</v>
+      </c>
+      <c r="E189">
+        <v>5218</v>
+      </c>
+      <c r="J189" t="s">
+        <v>130</v>
+      </c>
+      <c r="K189" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C190" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D190">
+        <v>5218</v>
+      </c>
+      <c r="E190">
+        <v>5556</v>
+      </c>
+      <c r="K190" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C191" s="2"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D192" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" t="s">
+        <v>62</v>
+      </c>
+      <c r="F192" t="s">
+        <v>63</v>
+      </c>
+      <c r="G192" t="s">
+        <v>10</v>
+      </c>
+      <c r="H192" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193" t="s">
+        <v>111</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D193" s="1">
+        <v>4</v>
+      </c>
+      <c r="E193" s="1">
+        <v>40</v>
+      </c>
+      <c r="F193" s="1">
+        <v>36</v>
+      </c>
+      <c r="G193" s="1">
+        <v>4</v>
+      </c>
+      <c r="I193">
+        <f>E193-F193+H193-D193</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2</v>
+      </c>
+      <c r="B194" t="s">
+        <v>111</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D194" s="1">
+        <v>45</v>
+      </c>
+      <c r="E194" s="1">
+        <v>44</v>
+      </c>
+      <c r="F194" s="1"/>
+      <c r="H194" s="1">
+        <v>1</v>
+      </c>
+      <c r="I194">
+        <f>E194-F194+H194-D194</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>3</v>
+      </c>
+      <c r="B195" t="s">
+        <v>111</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D195" s="1">
+        <v>45</v>
+      </c>
+      <c r="E195" s="1">
+        <v>44</v>
+      </c>
+      <c r="H195" s="1">
+        <v>1</v>
+      </c>
+      <c r="I195">
+        <f>E195-F195+H195-D195</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>4</v>
+      </c>
+      <c r="B196" t="s">
+        <v>111</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D196" s="1">
+        <v>23</v>
+      </c>
+      <c r="E196" s="1">
+        <v>73</v>
+      </c>
+      <c r="F196" s="1">
+        <v>50</v>
+      </c>
+      <c r="G196" s="1">
+        <v>23</v>
+      </c>
+      <c r="I196">
+        <f>E196-F196+H196-D196</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>5</v>
+      </c>
+      <c r="B197" t="s">
+        <v>111</v>
+      </c>
+      <c r="C197" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D197" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E197" s="1">
+        <v>1005</v>
+      </c>
+      <c r="H197" s="1">
+        <v>5</v>
+      </c>
+      <c r="I197">
+        <f>E197-F197+H197-D197</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>6</v>
+      </c>
+      <c r="B198" t="s">
+        <v>111</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D198" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E198" s="1">
+        <v>1005</v>
+      </c>
+      <c r="H198" s="1">
+        <v>5</v>
+      </c>
+      <c r="I198">
+        <f>E198-F198+H198-D198</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>7</v>
+      </c>
+      <c r="B199" t="s">
+        <v>111</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D199" s="1">
+        <v>553</v>
+      </c>
+      <c r="E199" s="1">
+        <v>949</v>
+      </c>
+      <c r="F199" s="1">
+        <v>401</v>
+      </c>
+      <c r="G199" s="1">
+        <v>553</v>
+      </c>
+      <c r="H199" s="1">
+        <v>5</v>
+      </c>
+      <c r="I199">
+        <f>E199-F199+H199-D199</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>8</v>
+      </c>
+      <c r="B200" t="s">
+        <v>111</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D200" s="1">
+        <v>10</v>
+      </c>
+      <c r="E200" s="1">
+        <v>91</v>
+      </c>
+      <c r="F200" s="1">
+        <v>81</v>
+      </c>
+      <c r="G200" s="1">
+        <v>10</v>
+      </c>
+      <c r="H200" s="1"/>
+      <c r="I200">
+        <f>E200-F200+H200-D200</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>9</v>
+      </c>
+      <c r="B201" t="s">
+        <v>111</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D201" s="1">
+        <v>3</v>
+      </c>
+      <c r="E201" s="1">
+        <v>256</v>
+      </c>
+      <c r="F201" s="1">
+        <v>253</v>
+      </c>
+      <c r="G201" s="1">
+        <v>3</v>
+      </c>
+      <c r="H201" s="1"/>
+      <c r="I201">
+        <f>E201-F201+H201-D201</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>10</v>
+      </c>
+      <c r="B202" t="s">
+        <v>111</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D202" s="1">
+        <v>191</v>
+      </c>
+      <c r="E202" s="1">
+        <v>191</v>
+      </c>
+      <c r="H202" s="1"/>
+      <c r="I202">
+        <f>E202-F202+H202-D202</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>11</v>
+      </c>
+      <c r="B203" t="s">
+        <v>111</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D203" s="1">
+        <v>253</v>
+      </c>
+      <c r="E203" s="1">
+        <v>253</v>
+      </c>
+      <c r="I203">
+        <f>E203-F203+H203-D203</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>12</v>
+      </c>
+      <c r="B204" t="s">
+        <v>111</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D204" s="1">
+        <v>253</v>
+      </c>
+      <c r="E204" s="1">
+        <v>253</v>
+      </c>
+      <c r="I204">
+        <f>E204-F204+H204-D204</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C205" s="2"/>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C206" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="D206">
+        <v>1010</v>
+      </c>
+      <c r="E206">
+        <v>1010</v>
+      </c>
+      <c r="I206" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C207" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D207" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E207" s="1">
+        <v>1010</v>
+      </c>
+      <c r="I207" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C208" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="D208" s="1">
+        <v>45</v>
+      </c>
+      <c r="E208">
+        <v>45</v>
+      </c>
+      <c r="I208" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C209" s="2"/>
+      <c r="D209" s="1"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D210" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" t="s">
+        <v>62</v>
+      </c>
+      <c r="F210" t="s">
+        <v>63</v>
+      </c>
+      <c r="G210" t="s">
+        <v>10</v>
+      </c>
+      <c r="H210" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>0</v>
+      </c>
+      <c r="B211" t="s">
+        <v>84</v>
+      </c>
+      <c r="C211" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D211" s="1">
+        <v>18</v>
+      </c>
+      <c r="E211" s="1">
+        <v>18</v>
+      </c>
+      <c r="I211">
+        <f t="shared" ref="I211:I222" si="6">E211-F211+H211-D211</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212" t="s">
+        <v>84</v>
+      </c>
+      <c r="C212" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E212" s="1">
+        <v>834</v>
+      </c>
+      <c r="F212" s="1">
+        <v>834</v>
+      </c>
+      <c r="I212">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2</v>
+      </c>
+      <c r="B213" t="s">
+        <v>84</v>
+      </c>
+      <c r="C213" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D213" s="1">
+        <v>3756</v>
+      </c>
+      <c r="E213" s="1">
+        <v>3756</v>
+      </c>
+      <c r="I213">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>3</v>
+      </c>
+      <c r="B214" t="s">
+        <v>84</v>
+      </c>
+      <c r="C214" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D214" s="1">
+        <v>3756</v>
+      </c>
+      <c r="E214" s="1">
+        <v>3756</v>
+      </c>
+      <c r="I214">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>4</v>
+      </c>
+      <c r="B215" t="s">
+        <v>84</v>
+      </c>
+      <c r="C215" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D215" s="1">
+        <v>3756</v>
+      </c>
+      <c r="E215" s="1">
+        <v>3756</v>
+      </c>
+      <c r="I215">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>5</v>
+      </c>
+      <c r="B216" t="s">
+        <v>84</v>
+      </c>
+      <c r="C216" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D216" s="1">
+        <v>8</v>
+      </c>
+      <c r="E216" s="1">
+        <v>1424</v>
+      </c>
+      <c r="F216" s="1">
+        <v>1416</v>
+      </c>
+      <c r="G216" s="1">
+        <v>6</v>
+      </c>
+      <c r="I216">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>6</v>
+      </c>
+      <c r="B217" t="s">
+        <v>84</v>
+      </c>
+      <c r="C217" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D217" s="1">
+        <v>32</v>
+      </c>
+      <c r="E217" s="1">
+        <v>32</v>
+      </c>
+      <c r="I217">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>7</v>
+      </c>
+      <c r="B218" t="s">
+        <v>84</v>
+      </c>
+      <c r="C218" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" s="1">
+        <v>2970</v>
+      </c>
+      <c r="E218" s="1">
+        <v>3644</v>
+      </c>
+      <c r="F218" s="1">
+        <v>814</v>
+      </c>
+      <c r="G218" s="1">
+        <v>2539</v>
+      </c>
+      <c r="H218" s="1">
+        <v>140</v>
+      </c>
+      <c r="I218">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J218" t="s">
+        <v>110</v>
+      </c>
+      <c r="K218" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>8</v>
+      </c>
+      <c r="B219" t="s">
+        <v>84</v>
+      </c>
+      <c r="C219" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D219" s="1">
+        <v>393</v>
+      </c>
+      <c r="E219" s="1">
+        <v>822</v>
+      </c>
+      <c r="F219" s="1">
+        <v>429</v>
+      </c>
+      <c r="I219">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>9</v>
+      </c>
+      <c r="B220" t="s">
+        <v>84</v>
+      </c>
+      <c r="C220" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D220" s="1">
+        <v>201</v>
+      </c>
+      <c r="E220" s="1">
+        <v>201</v>
+      </c>
+      <c r="I220">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>10</v>
+      </c>
+      <c r="B221" t="s">
+        <v>84</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D221" s="1">
+        <v>292</v>
+      </c>
+      <c r="E221" s="1">
+        <v>292</v>
+      </c>
+      <c r="I221">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>11</v>
+      </c>
+      <c r="B222" t="s">
+        <v>84</v>
+      </c>
+      <c r="C222" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D222" s="1">
+        <v>940</v>
+      </c>
+      <c r="E222" s="1">
+        <v>940</v>
+      </c>
+      <c r="I222">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C224" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D224" s="1">
+        <v>3756</v>
+      </c>
+      <c r="E224" s="1">
+        <v>3756</v>
+      </c>
+      <c r="I224" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="225" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C225" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="D225" s="1">
+        <v>940</v>
+      </c>
+      <c r="E225" s="1">
+        <v>493</v>
+      </c>
+      <c r="J225" t="s">
+        <v>89</v>
+      </c>
+      <c r="L225" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="226" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C226" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="D226" s="1">
+        <v>3756</v>
+      </c>
+      <c r="E226" s="1">
+        <v>3896</v>
+      </c>
+      <c r="J226" t="s">
+        <v>106</v>
+      </c>
+      <c r="K226" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="228" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C228" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D228" t="s">
+        <v>103</v>
+      </c>
+      <c r="E228" t="s">
+        <v>104</v>
+      </c>
+      <c r="F228" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="229" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C229" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D229" s="1">
+        <v>186</v>
+      </c>
+      <c r="E229" s="1">
+        <v>236</v>
+      </c>
+      <c r="F229">
+        <f t="shared" ref="F229:F239" si="7">D229-E229</f>
+        <v>-50</v>
+      </c>
+      <c r="I229" s="4"/>
+      <c r="J229" s="4"/>
+      <c r="K229"/>
+      <c r="L229"/>
+    </row>
+    <row r="230" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C230" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D230" s="1">
+        <v>136</v>
+      </c>
+      <c r="E230" s="1">
+        <v>168</v>
+      </c>
+      <c r="F230">
+        <f t="shared" si="7"/>
+        <v>-32</v>
+      </c>
+      <c r="I230" s="4"/>
+      <c r="J230" s="4"/>
+      <c r="K230"/>
+      <c r="L230"/>
+    </row>
+    <row r="231" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C231" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D231" s="1">
+        <v>238</v>
+      </c>
+      <c r="E231" s="1">
+        <v>264</v>
+      </c>
+      <c r="F231">
+        <f t="shared" si="7"/>
+        <v>-26</v>
+      </c>
+      <c r="I231" s="4"/>
+      <c r="J231" s="4"/>
+      <c r="K231"/>
+      <c r="L231"/>
+    </row>
+    <row r="232" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C232" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D232" s="6">
+        <v>106</v>
+      </c>
+      <c r="E232" s="1">
+        <v>116</v>
+      </c>
+      <c r="F232">
+        <f t="shared" si="7"/>
+        <v>-10</v>
+      </c>
+      <c r="H232">
+        <f>E232/2</f>
+        <v>58</v>
+      </c>
+      <c r="I232" s="4"/>
+      <c r="J232" s="4"/>
+      <c r="K232"/>
+      <c r="L232"/>
+    </row>
+    <row r="233" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C233" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D140" s="1">
+      <c r="D233" s="1">
         <v>40</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E233" s="1">
         <v>46</v>
       </c>
-      <c r="F140">
-        <f>D140-E140</f>
+      <c r="F233">
+        <f t="shared" si="7"/>
         <v>-6</v>
       </c>
-      <c r="I140" s="4"/>
-      <c r="J140" s="4"/>
-      <c r="K140"/>
-      <c r="L140"/>
-    </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C141" s="2" t="s">
+      <c r="I233" s="4"/>
+      <c r="J233" s="4"/>
+      <c r="K233"/>
+      <c r="L233"/>
+    </row>
+    <row r="234" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C234" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D141" s="1">
+      <c r="D234" s="1">
         <v>296</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E234" s="1">
         <v>300</v>
       </c>
-      <c r="F141">
-        <f>D141-E141</f>
+      <c r="F234">
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
-      <c r="I141" s="4"/>
-      <c r="J141" s="4"/>
-      <c r="K141"/>
-      <c r="L141"/>
-    </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C142" s="2" t="s">
+      <c r="I234" s="4"/>
+      <c r="J234" s="4"/>
+      <c r="K234"/>
+      <c r="L234"/>
+    </row>
+    <row r="235" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C235" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D142" s="1">
+      <c r="D235" s="1">
         <v>166</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E235" s="1">
         <v>170</v>
       </c>
-      <c r="F142">
-        <f>D142-E142</f>
+      <c r="F235">
+        <f t="shared" si="7"/>
         <v>-4</v>
       </c>
-      <c r="I142" s="4"/>
-      <c r="J142" s="4"/>
-      <c r="K142"/>
-      <c r="L142"/>
-    </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C143" s="2" t="s">
+      <c r="I235" s="4"/>
+      <c r="J235" s="4"/>
+      <c r="K235"/>
+      <c r="L235"/>
+    </row>
+    <row r="236" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C236" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D143" s="1">
+      <c r="D236" s="1">
         <v>94</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E236" s="1">
         <v>96</v>
       </c>
-      <c r="F143">
-        <f>D143-E143</f>
+      <c r="F236">
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="I143" s="4"/>
-      <c r="J143" s="4"/>
-      <c r="K143"/>
-      <c r="L143"/>
-    </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C144" s="2" t="s">
+      <c r="I236" s="4"/>
+      <c r="J236" s="4"/>
+      <c r="K236"/>
+      <c r="L236"/>
+    </row>
+    <row r="237" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C237" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D144" s="1">
+      <c r="D237" s="1">
         <v>186</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E237" s="1">
         <v>188</v>
       </c>
-      <c r="F144">
-        <f>D144-E144</f>
+      <c r="F237">
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="I144" s="4"/>
-      <c r="J144" s="4"/>
-      <c r="K144"/>
-      <c r="L144"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C145" s="2" t="s">
+      <c r="I237" s="4"/>
+      <c r="J237" s="4"/>
+      <c r="K237"/>
+      <c r="L237"/>
+    </row>
+    <row r="238" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C238" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D145" s="1">
+      <c r="D238" s="1">
         <v>30</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E238" s="1">
         <v>32</v>
       </c>
-      <c r="F145">
-        <f>D145-E145</f>
+      <c r="F238">
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="I145" s="4"/>
-      <c r="J145" s="4"/>
-      <c r="K145"/>
-      <c r="L145"/>
-    </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C146" s="2" t="s">
+      <c r="I238" s="4"/>
+      <c r="J238" s="4"/>
+      <c r="K238"/>
+      <c r="L238"/>
+    </row>
+    <row r="239" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C239" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D146" s="1">
+      <c r="D239" s="1">
         <v>86</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E239" s="1">
         <v>88</v>
       </c>
-      <c r="F146">
-        <f>D146-E146</f>
+      <c r="F239">
+        <f t="shared" si="7"/>
         <v>-2</v>
       </c>
-      <c r="I146" s="4"/>
-      <c r="J146" s="4"/>
-      <c r="K146"/>
-      <c r="L146"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D149" t="s">
+      <c r="I239" s="4"/>
+      <c r="J239" s="4"/>
+      <c r="K239"/>
+      <c r="L239"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D241" t="s">
         <v>9</v>
       </c>
-      <c r="E149" t="s">
+      <c r="E241" t="s">
         <v>62</v>
       </c>
-      <c r="F149" t="s">
+      <c r="F241" t="s">
         <v>63</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G241" t="s">
         <v>10</v>
       </c>
-      <c r="H149" t="s">
+      <c r="H241" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="J241" s="2"/>
+      <c r="K241" s="1"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A242">
         <v>1</v>
       </c>
-      <c r="B150" t="s">
-        <v>111</v>
-      </c>
-      <c r="C150" s="2" t="s">
+      <c r="B242" t="s">
+        <v>142</v>
+      </c>
+      <c r="C242" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D242" s="1">
+        <v>3862</v>
+      </c>
+      <c r="E242" s="1">
+        <v>204414</v>
+      </c>
+      <c r="F242" s="1">
+        <v>200552</v>
+      </c>
+      <c r="G242" s="1">
+        <v>2676</v>
+      </c>
+      <c r="I242">
+        <f>E242-F242+H242-D242</f>
+        <v>0</v>
+      </c>
+      <c r="J242" s="2"/>
+      <c r="K242" s="1"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>2</v>
+      </c>
+      <c r="B243" t="s">
+        <v>142</v>
+      </c>
+      <c r="C243" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D243" s="1">
+        <v>2902</v>
+      </c>
+      <c r="E243" s="1">
+        <v>200552</v>
+      </c>
+      <c r="F243" s="1">
+        <v>197650</v>
+      </c>
+      <c r="G243" s="1">
+        <v>2902</v>
+      </c>
+      <c r="I243">
+        <f>E243-F243+H243-D243</f>
+        <v>0</v>
+      </c>
+      <c r="J243" s="2"/>
+      <c r="K243" s="1"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>3</v>
+      </c>
+      <c r="B244" t="s">
+        <v>142</v>
+      </c>
+      <c r="C244" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D150" s="1">
+      <c r="D244" s="1">
+        <v>80024</v>
+      </c>
+      <c r="E244" s="1">
+        <v>193788</v>
+      </c>
+      <c r="F244" s="1">
+        <v>113764</v>
+      </c>
+      <c r="G244" s="1">
+        <v>80024</v>
+      </c>
+      <c r="I244">
+        <f>E244-F244+H244-D244</f>
+        <v>0</v>
+      </c>
+      <c r="J244" s="2"/>
+      <c r="K244" s="1"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245">
         <v>4</v>
       </c>
-      <c r="E150" s="1">
-        <v>40</v>
-      </c>
-      <c r="F150" s="1">
-        <v>72</v>
-      </c>
-      <c r="G150" s="1">
+      <c r="B245" t="s">
+        <v>142</v>
+      </c>
+      <c r="C245" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D245" s="1">
+        <v>190594</v>
+      </c>
+      <c r="E245" s="1">
+        <v>190594</v>
+      </c>
+      <c r="I245">
+        <f>E245-F245+H245-D245</f>
+        <v>0</v>
+      </c>
+      <c r="J245" s="2"/>
+      <c r="K245" s="1"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>5</v>
+      </c>
+      <c r="B246" t="s">
+        <v>142</v>
+      </c>
+      <c r="C246" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D246" s="1">
+        <v>85694</v>
+      </c>
+      <c r="E246" s="1">
+        <v>102630</v>
+      </c>
+      <c r="F246" s="1">
+        <v>16936</v>
+      </c>
+      <c r="G246" s="1">
+        <v>85694</v>
+      </c>
+      <c r="I246">
+        <f>E246-F246+H246-D246</f>
+        <v>0</v>
+      </c>
+      <c r="J246" s="2"/>
+      <c r="K246" s="1"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>6</v>
+      </c>
+      <c r="B247" t="s">
+        <v>142</v>
+      </c>
+      <c r="C247" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D247" s="1">
+        <v>31930</v>
+      </c>
+      <c r="E247" s="1">
+        <v>31930</v>
+      </c>
+      <c r="I247">
+        <f>E247-F247+H247-D247</f>
+        <v>0</v>
+      </c>
+      <c r="J247" s="2"/>
+      <c r="K247" s="1"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>7</v>
+      </c>
+      <c r="B248" t="s">
+        <v>142</v>
+      </c>
+      <c r="C248" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D248" s="1">
+        <v>31726</v>
+      </c>
+      <c r="E248" s="1">
+        <v>31728</v>
+      </c>
+      <c r="F248" s="1">
+        <v>2</v>
+      </c>
+      <c r="G248" s="1">
+        <v>31726</v>
+      </c>
+      <c r="I248">
+        <f>E248-F248+H248-D248</f>
+        <v>0</v>
+      </c>
+      <c r="J248" s="2"/>
+      <c r="K248" s="1"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>8</v>
+      </c>
+      <c r="B249" t="s">
+        <v>142</v>
+      </c>
+      <c r="C249" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D249" s="1">
+        <v>12</v>
+      </c>
+      <c r="E249" s="1">
+        <v>206</v>
+      </c>
+      <c r="F249" s="1">
+        <v>194</v>
+      </c>
+      <c r="G249" s="1">
+        <v>12</v>
+      </c>
+      <c r="I249">
+        <f>E249-F249+H249-D249</f>
+        <v>0</v>
+      </c>
+      <c r="J249" s="2"/>
+      <c r="K249" s="1"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>9</v>
+      </c>
+      <c r="B250" t="s">
+        <v>142</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D250" s="1"/>
+      <c r="E250" s="1">
+        <v>174</v>
+      </c>
+      <c r="F250" s="1">
+        <v>174</v>
+      </c>
+      <c r="I250">
+        <f>E250-F250+H250-D250</f>
+        <v>0</v>
+      </c>
+      <c r="J250" s="2"/>
+      <c r="K250" s="1"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>10</v>
+      </c>
+      <c r="B251" t="s">
+        <v>142</v>
+      </c>
+      <c r="C251" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D251" s="1"/>
+      <c r="E251" s="1">
+        <v>188</v>
+      </c>
+      <c r="F251" s="1">
+        <v>188</v>
+      </c>
+      <c r="I251">
+        <f>E251-F251+H251-D251</f>
+        <v>0</v>
+      </c>
+      <c r="J251" s="2"/>
+      <c r="K251" s="1"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>11</v>
+      </c>
+      <c r="B252" t="s">
+        <v>142</v>
+      </c>
+      <c r="C252" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" s="1">
+        <v>20</v>
+      </c>
+      <c r="E252" s="1">
+        <v>168</v>
+      </c>
+      <c r="F252" s="1">
+        <v>148</v>
+      </c>
+      <c r="G252" s="1">
+        <v>6</v>
+      </c>
+      <c r="I252">
+        <f>E252-F252+H252-D252</f>
+        <v>0</v>
+      </c>
+      <c r="J252" s="2"/>
+      <c r="K252" s="1"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>12</v>
+      </c>
+      <c r="B253" t="s">
+        <v>142</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D253" s="1">
+        <v>26</v>
+      </c>
+      <c r="E253" s="1">
+        <v>26</v>
+      </c>
+      <c r="I253">
+        <f>E253-F253+H253-D253</f>
+        <v>0</v>
+      </c>
+      <c r="J253" s="2"/>
+      <c r="K253" s="1"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>13</v>
+      </c>
+      <c r="B254" t="s">
+        <v>142</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D254" s="1">
+        <v>380</v>
+      </c>
+      <c r="E254" s="1">
+        <v>148</v>
+      </c>
+      <c r="H254" s="1">
+        <v>232</v>
+      </c>
+      <c r="I254">
+        <f>E254-F254+H254-D254</f>
+        <v>0</v>
+      </c>
+      <c r="J254" s="2"/>
+      <c r="K254" s="1"/>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>14</v>
+      </c>
+      <c r="B255" t="s">
+        <v>142</v>
+      </c>
+      <c r="C255" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D255" s="1">
+        <v>148</v>
+      </c>
+      <c r="E255" s="1">
+        <v>148</v>
+      </c>
+      <c r="F255">
+        <v>98</v>
+      </c>
+      <c r="H255" s="1">
+        <v>98</v>
+      </c>
+      <c r="I255">
+        <f>E255-F255+H255-D255</f>
+        <v>0</v>
+      </c>
+      <c r="J255" s="2"/>
+      <c r="K255" s="1"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>15</v>
+      </c>
+      <c r="B256" t="s">
+        <v>142</v>
+      </c>
+      <c r="C256" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D256" s="1">
+        <v>130</v>
+      </c>
+      <c r="H256" s="1">
+        <v>130</v>
+      </c>
+      <c r="I256">
+        <f>E256-F256+H256-D256</f>
+        <v>0</v>
+      </c>
+      <c r="J256" s="2"/>
+      <c r="K256" s="1"/>
+    </row>
+    <row r="257" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>16</v>
+      </c>
+      <c r="B257" t="s">
+        <v>142</v>
+      </c>
+      <c r="C257" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D257" s="1">
+        <v>98</v>
+      </c>
+      <c r="E257" s="1">
+        <v>98</v>
+      </c>
+      <c r="F257" s="1"/>
+      <c r="I257">
+        <f>E257-F257+H257-D257</f>
+        <v>0</v>
+      </c>
+      <c r="J257" s="2"/>
+    </row>
+    <row r="258" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C258" s="2"/>
+    </row>
+    <row r="259" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C259" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D259">
+        <v>376</v>
+      </c>
+      <c r="E259">
+        <v>380</v>
+      </c>
+      <c r="I259" s="7" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="260" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C260" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D260" s="1">
+        <v>31930</v>
+      </c>
+      <c r="E260">
+        <v>32157</v>
+      </c>
+      <c r="I260" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="261" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C261" s="2"/>
+    </row>
+    <row r="262" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D262" t="s">
+        <v>9</v>
+      </c>
+      <c r="E262" t="s">
+        <v>62</v>
+      </c>
+      <c r="F262" t="s">
+        <v>63</v>
+      </c>
+      <c r="G262" t="s">
+        <v>10</v>
+      </c>
+      <c r="H262" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="263" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>1</v>
+      </c>
+      <c r="B263" t="s">
+        <v>148</v>
+      </c>
+      <c r="C263" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D263" s="1">
+        <v>140</v>
+      </c>
+      <c r="E263" s="1">
+        <v>319</v>
+      </c>
+      <c r="F263" s="1">
+        <v>194</v>
+      </c>
+      <c r="G263" s="1">
+        <v>132</v>
+      </c>
+      <c r="H263" s="1">
+        <v>13</v>
+      </c>
+      <c r="I263">
+        <f>E263-F263+H263-D263</f>
+        <v>-2</v>
+      </c>
+      <c r="J263" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="264" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>2</v>
+      </c>
+      <c r="B264" t="s">
+        <v>148</v>
+      </c>
+      <c r="C264" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D264" s="1">
+        <v>8</v>
+      </c>
+      <c r="E264">
+        <v>16</v>
+      </c>
+      <c r="F264">
+        <v>8</v>
+      </c>
+      <c r="G264">
+        <v>6</v>
+      </c>
+      <c r="I264">
+        <f>E264-F264+H264-D264</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>3</v>
+      </c>
+      <c r="B265" t="s">
+        <v>148</v>
+      </c>
+      <c r="C265" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D265" s="1">
+        <v>557</v>
+      </c>
+      <c r="E265" s="1">
+        <v>475</v>
+      </c>
+      <c r="H265" s="1">
+        <v>73</v>
+      </c>
+      <c r="I265">
+        <f>E265-F265+H265-D265</f>
+        <v>-9</v>
+      </c>
+      <c r="J265" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="266" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A266">
         <v>4</v>
       </c>
-      <c r="I150">
-        <f t="shared" ref="I150:I161" si="1">E150-F150+H150-D150</f>
-        <v>-36</v>
-      </c>
-      <c r="J150" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="B266" t="s">
+        <v>148</v>
+      </c>
+      <c r="C266" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D266" s="1">
+        <v>58</v>
+      </c>
+      <c r="E266" s="1">
+        <v>100</v>
+      </c>
+      <c r="F266" s="1">
+        <v>64</v>
+      </c>
+      <c r="G266" s="1">
+        <v>53</v>
+      </c>
+      <c r="H266" s="1">
+        <v>13</v>
+      </c>
+      <c r="I266">
+        <f>E266-F266+H266-D266</f>
+        <v>-9</v>
+      </c>
+      <c r="J266" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="267" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>5</v>
+      </c>
+      <c r="B267" t="s">
+        <v>148</v>
+      </c>
+      <c r="C267" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D267" s="1">
+        <v>12</v>
+      </c>
+      <c r="E267" s="1">
+        <v>12</v>
+      </c>
+      <c r="I267">
+        <f>E267-F267+H267-D267</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>6</v>
+      </c>
+      <c r="B268" t="s">
+        <v>148</v>
+      </c>
+      <c r="C268" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D268" s="1">
+        <v>151</v>
+      </c>
+      <c r="E268" s="1">
+        <v>240</v>
+      </c>
+      <c r="F268" s="1">
+        <v>95</v>
+      </c>
+      <c r="G268" s="1">
+        <v>145</v>
+      </c>
+      <c r="H268" s="1">
+        <v>6</v>
+      </c>
+      <c r="I268">
+        <f>E268-F268+H268-D268</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>7</v>
+      </c>
+      <c r="B269" t="s">
+        <v>148</v>
+      </c>
+      <c r="C269" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D269" s="1">
+        <v>366</v>
+      </c>
+      <c r="E269" s="1">
+        <v>305</v>
+      </c>
+      <c r="H269" s="1">
+        <v>56</v>
+      </c>
+      <c r="I269">
+        <f>E269-F269+H269-D269</f>
+        <v>-5</v>
+      </c>
+      <c r="J269" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="270" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>8</v>
+      </c>
+      <c r="B270" t="s">
+        <v>148</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" s="1">
+        <v>137</v>
+      </c>
+      <c r="E270" s="1">
+        <v>231</v>
+      </c>
+      <c r="F270" s="1">
+        <v>148</v>
+      </c>
+      <c r="G270" s="1">
+        <v>121</v>
+      </c>
+      <c r="H270" s="1">
+        <v>50</v>
+      </c>
+      <c r="I270">
+        <f>E270-F270+H270-D270</f>
+        <v>-4</v>
+      </c>
+      <c r="J270" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="271" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>9</v>
+      </c>
+      <c r="B271" t="s">
+        <v>148</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271" s="1">
+        <v>83</v>
+      </c>
+      <c r="E271" s="1">
+        <v>155</v>
+      </c>
+      <c r="F271" s="1">
+        <v>84</v>
+      </c>
+      <c r="G271" s="1">
+        <v>68</v>
+      </c>
+      <c r="H271" s="1">
+        <v>12</v>
+      </c>
+      <c r="I271">
+        <f>E271-F271+H271-D271</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>10</v>
+      </c>
+      <c r="B272" t="s">
+        <v>148</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D272" s="1">
+        <v>152</v>
+      </c>
+      <c r="E272" s="1">
+        <v>149</v>
+      </c>
+      <c r="H272" s="1">
+        <v>3</v>
+      </c>
+      <c r="I272">
+        <f>E272-F272+H272-D272</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C273" s="2"/>
+      <c r="H273" s="1"/>
+    </row>
+    <row r="274" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C274" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D274" s="1">
+        <v>557</v>
+      </c>
+      <c r="E274">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="275" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C275" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D275" s="1">
+        <v>366</v>
+      </c>
+      <c r="E275" s="1">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="276" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C276" s="2"/>
+      <c r="G276" s="1"/>
+    </row>
+    <row r="277" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C277" s="2"/>
+      <c r="F277" s="1"/>
+    </row>
+    <row r="278" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D278" t="s">
+        <v>9</v>
+      </c>
+      <c r="E278" t="s">
+        <v>62</v>
+      </c>
+      <c r="F278" t="s">
+        <v>63</v>
+      </c>
+      <c r="G278" t="s">
+        <v>10</v>
+      </c>
+      <c r="H278" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="279" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B279" t="s">
+        <v>161</v>
+      </c>
+      <c r="C279" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D279" s="1">
+        <v>484</v>
+      </c>
+      <c r="E279" s="1">
+        <v>1254</v>
+      </c>
+      <c r="F279" s="1">
+        <v>770</v>
+      </c>
+      <c r="G279" s="1">
+        <v>470</v>
+      </c>
+      <c r="I279">
+        <f t="shared" ref="I279:I299" si="8">E279-F279+H279-D279</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B280" t="s">
+        <v>161</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D280" s="1">
+        <v>122</v>
+      </c>
+      <c r="E280" s="1">
+        <v>250</v>
+      </c>
+      <c r="F280" s="1">
+        <v>128</v>
+      </c>
+      <c r="G280" s="1">
+        <v>80</v>
+      </c>
+      <c r="I280">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J280" s="2"/>
+    </row>
+    <row r="281" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B281" t="s">
+        <v>161</v>
+      </c>
+      <c r="C281" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D281" s="1">
+        <v>3438</v>
+      </c>
+      <c r="E281" s="1">
+        <v>5538</v>
+      </c>
+      <c r="F281" s="1">
+        <v>2100</v>
+      </c>
+      <c r="G281" s="1">
+        <v>3056</v>
+      </c>
+      <c r="I281">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J281" s="2"/>
+      <c r="K281" s="1"/>
+    </row>
+    <row r="282" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B282" t="s">
+        <v>161</v>
+      </c>
+      <c r="C282" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D282" s="1">
+        <v>1440</v>
+      </c>
+      <c r="E282" s="1">
+        <v>1476</v>
+      </c>
+      <c r="F282" s="1">
+        <v>36</v>
+      </c>
+      <c r="G282" s="1">
+        <v>194</v>
+      </c>
+      <c r="I282">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J282" s="2"/>
+      <c r="K282" s="1"/>
+    </row>
+    <row r="283" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B283" t="s">
+        <v>161</v>
+      </c>
+      <c r="C283" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B151" t="s">
-        <v>111</v>
-      </c>
-      <c r="C151" s="2" t="s">
+      <c r="D283" s="1">
+        <v>2074</v>
+      </c>
+      <c r="E283" s="1">
+        <v>2362</v>
+      </c>
+      <c r="F283" s="1">
+        <v>288</v>
+      </c>
+      <c r="G283" s="1">
+        <v>462</v>
+      </c>
+      <c r="I283">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J283" s="2"/>
+      <c r="K283" s="1"/>
+    </row>
+    <row r="284" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B284" t="s">
+        <v>161</v>
+      </c>
+      <c r="C284" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D284" s="1">
+        <v>178</v>
+      </c>
+      <c r="E284" s="1">
+        <v>212</v>
+      </c>
+      <c r="F284" s="1">
+        <v>34</v>
+      </c>
+      <c r="G284" s="1">
+        <v>134</v>
+      </c>
+      <c r="I284">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J284" s="2"/>
+      <c r="K284" s="1"/>
+    </row>
+    <row r="285" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B285" t="s">
+        <v>161</v>
+      </c>
+      <c r="C285" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D285" s="1">
+        <v>2410</v>
+      </c>
+      <c r="E285" s="1">
+        <v>2410</v>
+      </c>
+      <c r="I285">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J285" s="2"/>
+      <c r="K285" s="1"/>
+    </row>
+    <row r="286" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B286" t="s">
+        <v>161</v>
+      </c>
+      <c r="C286" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D286" s="1">
+        <v>1946</v>
+      </c>
+      <c r="E286" s="1">
+        <v>2266</v>
+      </c>
+      <c r="F286" s="1">
+        <v>320</v>
+      </c>
+      <c r="G286" s="1">
+        <v>1902</v>
+      </c>
+      <c r="I286">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J286" s="2"/>
+      <c r="K286" s="1"/>
+    </row>
+    <row r="287" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B287" t="s">
+        <v>161</v>
+      </c>
+      <c r="C287" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E287" s="1">
+        <v>28</v>
+      </c>
+      <c r="F287" s="1">
+        <v>28</v>
+      </c>
+      <c r="I287">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J287" s="2"/>
+      <c r="K287" s="1"/>
+    </row>
+    <row r="288" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B288" t="s">
+        <v>161</v>
+      </c>
+      <c r="C288" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" s="1">
+        <v>42</v>
+      </c>
+      <c r="E288" s="1">
+        <v>176</v>
+      </c>
+      <c r="F288" s="1">
+        <v>134</v>
+      </c>
+      <c r="G288" s="1">
+        <v>42</v>
+      </c>
+      <c r="I288">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J288" s="2"/>
+      <c r="K288" s="1"/>
+    </row>
+    <row r="289" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B289" t="s">
+        <v>161</v>
+      </c>
+      <c r="C289" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D289" s="1">
+        <v>44</v>
+      </c>
+      <c r="E289" s="1">
+        <v>134</v>
+      </c>
+      <c r="F289" s="1">
+        <v>90</v>
+      </c>
+      <c r="G289" s="1">
+        <v>44</v>
+      </c>
+      <c r="I289">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J289" s="2"/>
+      <c r="K289" s="1"/>
+    </row>
+    <row r="290" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B290" t="s">
+        <v>161</v>
+      </c>
+      <c r="C290" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="E290" s="1">
+        <v>20</v>
+      </c>
+      <c r="F290" s="1">
+        <v>20</v>
+      </c>
+      <c r="I290">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J290" s="2"/>
+      <c r="K290" s="1"/>
+    </row>
+    <row r="291" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B291" t="s">
+        <v>161</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E291" s="1">
+        <v>4</v>
+      </c>
+      <c r="F291" s="1">
+        <v>4</v>
+      </c>
+      <c r="I291">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J291" s="2"/>
+      <c r="K291" s="1"/>
+    </row>
+    <row r="292" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B292" t="s">
+        <v>161</v>
+      </c>
+      <c r="C292" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D292" s="1">
+        <v>26</v>
+      </c>
+      <c r="E292" s="1">
+        <v>94</v>
+      </c>
+      <c r="F292" s="1">
+        <v>68</v>
+      </c>
+      <c r="G292" s="1">
+        <v>26</v>
+      </c>
+      <c r="I292">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J292" s="2"/>
+      <c r="K292" s="1"/>
+    </row>
+    <row r="293" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B293" t="s">
+        <v>161</v>
+      </c>
+      <c r="C293" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D293" s="1">
+        <v>188</v>
+      </c>
+      <c r="E293" s="1">
+        <v>359</v>
+      </c>
+      <c r="F293" s="1">
+        <v>171</v>
+      </c>
+      <c r="G293" s="1">
+        <v>14</v>
+      </c>
+      <c r="I293">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J293" s="2"/>
+      <c r="K293" s="1"/>
+    </row>
+    <row r="294" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B294" t="s">
+        <v>161</v>
+      </c>
+      <c r="C294" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D151" s="1">
-        <v>45</v>
-      </c>
-      <c r="E151" s="1">
-        <v>41</v>
-      </c>
-      <c r="F151" s="1"/>
-      <c r="H151" s="1">
-        <v>1</v>
-      </c>
-      <c r="I151">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="J151" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152">
-        <v>3</v>
-      </c>
-      <c r="B152" t="s">
-        <v>111</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D152" s="1">
-        <v>45</v>
-      </c>
-      <c r="E152" s="1">
-        <v>41</v>
-      </c>
-      <c r="H152" s="1">
-        <v>1</v>
-      </c>
-      <c r="I152">
-        <f t="shared" si="1"/>
-        <v>-3</v>
-      </c>
-      <c r="J152" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153">
-        <v>4</v>
-      </c>
-      <c r="B153" t="s">
-        <v>111</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D153" s="1">
-        <v>23</v>
-      </c>
-      <c r="E153" s="1">
-        <v>73</v>
-      </c>
-      <c r="G153" s="1">
-        <v>23</v>
-      </c>
-      <c r="I153">
-        <f t="shared" si="1"/>
-        <v>50</v>
-      </c>
-      <c r="J153" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A154">
-        <v>5</v>
-      </c>
-      <c r="B154" t="s">
-        <v>111</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D154" s="1">
-        <v>1010</v>
-      </c>
-      <c r="E154" s="1">
-        <v>974</v>
-      </c>
-      <c r="H154" s="1">
-        <v>5</v>
-      </c>
-      <c r="I154">
-        <f t="shared" si="1"/>
-        <v>-31</v>
-      </c>
-      <c r="J154" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A155">
-        <v>6</v>
-      </c>
-      <c r="B155" t="s">
-        <v>111</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D155" s="1">
-        <v>1010</v>
-      </c>
-      <c r="E155" s="1">
-        <v>974</v>
-      </c>
-      <c r="H155" s="1">
-        <v>5</v>
-      </c>
-      <c r="I155">
-        <f t="shared" si="1"/>
-        <v>-31</v>
-      </c>
-      <c r="J155" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A156">
-        <v>7</v>
-      </c>
-      <c r="B156" t="s">
-        <v>111</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D156" s="1">
-        <v>553</v>
-      </c>
-      <c r="E156" s="1">
-        <v>918</v>
-      </c>
-      <c r="F156" s="1">
-        <v>388</v>
-      </c>
-      <c r="G156" s="1">
-        <v>553</v>
-      </c>
-      <c r="H156" s="1">
-        <v>5</v>
-      </c>
-      <c r="I156">
-        <f t="shared" si="1"/>
-        <v>-18</v>
-      </c>
-      <c r="J156" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A157">
-        <v>8</v>
-      </c>
-      <c r="B157" t="s">
-        <v>111</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D157" s="1">
-        <v>10</v>
-      </c>
-      <c r="E157" s="1">
-        <v>84</v>
-      </c>
-      <c r="F157" s="1">
-        <v>81</v>
-      </c>
-      <c r="G157" s="1">
-        <v>10</v>
-      </c>
-      <c r="H157" s="1">
-        <v>7</v>
-      </c>
-      <c r="I157">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A158">
-        <v>9</v>
-      </c>
-      <c r="B158" t="s">
-        <v>111</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D158" s="1">
-        <v>3</v>
-      </c>
-      <c r="E158" s="1">
-        <v>253</v>
-      </c>
-      <c r="F158" s="1">
-        <v>253</v>
-      </c>
-      <c r="G158" s="1">
-        <v>3</v>
-      </c>
-      <c r="H158" s="1">
-        <v>3</v>
-      </c>
-      <c r="I158">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A159">
-        <v>10</v>
-      </c>
-      <c r="B159" t="s">
-        <v>111</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D159" s="1">
-        <v>191</v>
-      </c>
-      <c r="E159" s="1">
-        <v>185</v>
-      </c>
-      <c r="H159" s="1">
-        <v>6</v>
-      </c>
-      <c r="I159">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A160">
-        <v>11</v>
-      </c>
-      <c r="B160" t="s">
-        <v>111</v>
-      </c>
-      <c r="C160" s="2" t="s">
+      <c r="D294" s="1">
+        <v>269</v>
+      </c>
+      <c r="E294" s="1">
+        <v>330</v>
+      </c>
+      <c r="F294" s="1">
+        <v>61</v>
+      </c>
+      <c r="G294" s="1">
+        <v>160</v>
+      </c>
+      <c r="I294">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J294" s="2"/>
+      <c r="K294" s="1"/>
+    </row>
+    <row r="295" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B295" t="s">
+        <v>161</v>
+      </c>
+      <c r="C295" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D295" s="1">
+        <v>61</v>
+      </c>
+      <c r="E295" s="1">
+        <v>61</v>
+      </c>
+      <c r="I295">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J295" s="2"/>
+      <c r="K295" s="1"/>
+    </row>
+    <row r="296" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B296" t="s">
+        <v>161</v>
+      </c>
+      <c r="C296" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D296" s="1">
+        <v>198</v>
+      </c>
+      <c r="E296" s="1">
+        <v>198</v>
+      </c>
+      <c r="I296">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J296" s="2"/>
+      <c r="K296" s="1"/>
+    </row>
+    <row r="297" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B297" t="s">
+        <v>161</v>
+      </c>
+      <c r="C297" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D160" s="1">
-        <v>256</v>
-      </c>
-      <c r="E160" s="1">
-        <v>256</v>
-      </c>
-      <c r="I160">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A161">
-        <v>12</v>
-      </c>
-      <c r="B161" t="s">
-        <v>111</v>
-      </c>
-      <c r="C161" s="2" t="s">
+      <c r="D297" s="1">
+        <v>79</v>
+      </c>
+      <c r="E297" s="1">
+        <v>79</v>
+      </c>
+      <c r="I297">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J297" s="2"/>
+      <c r="K297" s="1"/>
+    </row>
+    <row r="298" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B298" t="s">
+        <v>161</v>
+      </c>
+      <c r="C298" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D298" s="1">
+        <v>71</v>
+      </c>
+      <c r="E298" s="1">
+        <v>71</v>
+      </c>
+      <c r="I298">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J298" s="2"/>
+      <c r="K298" s="1"/>
+    </row>
+    <row r="299" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B299" t="s">
+        <v>161</v>
+      </c>
+      <c r="C299" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D161" s="1">
-        <v>256</v>
-      </c>
-      <c r="E161" s="1">
-        <v>256</v>
-      </c>
-      <c r="I161">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C162" s="2"/>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C163" s="2"/>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C164" s="2"/>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C165" s="2"/>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C166" s="2"/>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C167" s="2"/>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C168" s="2"/>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C169" s="2"/>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C170" s="2"/>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C171" s="2"/>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C172" s="2"/>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C173" s="2"/>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C174" s="2"/>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C175" s="2"/>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C176" s="2"/>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177" s="2"/>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178" s="2"/>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179" s="2"/>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180" s="2"/>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181" s="2"/>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182" s="2"/>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183" s="2"/>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184" s="2"/>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185" s="2"/>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186" s="2"/>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187" s="2"/>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188" s="2"/>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189" s="2"/>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190" s="2"/>
+      <c r="D299" s="1">
+        <v>150</v>
+      </c>
+      <c r="E299" s="1">
+        <v>150</v>
+      </c>
+      <c r="I299">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="J299" s="2"/>
+      <c r="K299" s="1"/>
+    </row>
+    <row r="300" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C300" s="2"/>
+      <c r="J300" s="2"/>
+      <c r="K300" s="1"/>
+    </row>
+    <row r="301" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C301" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D301">
+        <v>2410</v>
+      </c>
+      <c r="E301">
+        <v>2386</v>
+      </c>
+      <c r="I301" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J301" s="2"/>
+      <c r="K301" s="1"/>
+    </row>
+    <row r="302" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C302" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D302">
+        <v>198</v>
+      </c>
+      <c r="E302">
+        <v>236</v>
+      </c>
+      <c r="I302" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="J302" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="K302" s="1">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="303" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C303" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D303">
+        <v>150</v>
+      </c>
+      <c r="E303">
+        <v>150</v>
+      </c>
+      <c r="I303" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="304" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C304" s="2"/>
+    </row>
+    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C305" s="2"/>
+    </row>
+    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C306" s="2"/>
+    </row>
+    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C307" s="2"/>
+    </row>
+    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C308" s="2"/>
+    </row>
+    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C309" s="2"/>
+    </row>
+    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C310" s="2"/>
+    </row>
+    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C311" s="2"/>
+    </row>
+    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C312" s="2"/>
+    </row>
+    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C313" s="2"/>
+    </row>
+    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C314" s="2"/>
+    </row>
+    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C315" s="2"/>
+    </row>
+    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C316" s="2"/>
+    </row>
+    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C317" s="2"/>
+    </row>
+    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C318" s="2"/>
+    </row>
+    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C319" s="2"/>
+    </row>
+    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C320" s="2"/>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321" s="2"/>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C322" s="2"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C323" s="2"/>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C324" s="2"/>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C325" s="2"/>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C326" s="2"/>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C327" s="2"/>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C328" s="2"/>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C329" s="2"/>
     </row>
   </sheetData>
-  <sortState ref="A150:O161">
-    <sortCondition ref="A150:A161"/>
+  <sortState ref="J282:K296">
+    <sortCondition ref="J282:J296"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Error_summary.xlsx
+++ b/docs/Error_summary.xlsx
@@ -858,7 +858,7 @@
   <dimension ref="A1:O360"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A292" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C321" sqref="C321"/>
+      <selection activeCell="D303" sqref="D303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3630,7 +3630,7 @@
         <v>2676</v>
       </c>
       <c r="I123">
-        <f>E123-F123+H123-D123</f>
+        <f t="shared" ref="I123:I138" si="5">E123-F123+H123-D123</f>
         <v>0</v>
       </c>
       <c r="J123" s="2"/>
@@ -3659,7 +3659,7 @@
         <v>2902</v>
       </c>
       <c r="I124">
-        <f>E124-F124+H124-D124</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J124" s="2"/>
@@ -3688,7 +3688,7 @@
         <v>80024</v>
       </c>
       <c r="I125">
-        <f>E125-F125+H125-D125</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J125" s="2"/>
@@ -3711,7 +3711,7 @@
         <v>190594</v>
       </c>
       <c r="I126">
-        <f>E126-F126+H126-D126</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J126" s="2"/>
@@ -3740,7 +3740,7 @@
         <v>85696</v>
       </c>
       <c r="I127">
-        <f>E127-F127+H127-D127</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J127" s="2"/>
@@ -3763,7 +3763,7 @@
         <v>31930</v>
       </c>
       <c r="I128">
-        <f>E128-F128+H128-D128</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J128" s="2"/>
@@ -3792,7 +3792,7 @@
         <v>31672</v>
       </c>
       <c r="I129">
-        <f>E129-F129+H129-D129</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J129" s="2"/>
@@ -3822,7 +3822,7 @@
         <v>12</v>
       </c>
       <c r="I130">
-        <f>E130-F130+H130-D130</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J130" s="2"/>
@@ -3846,7 +3846,7 @@
         <v>176</v>
       </c>
       <c r="I131">
-        <f>E131-F131+H131-D131</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J131" s="2"/>
@@ -3871,7 +3871,7 @@
         <v>186</v>
       </c>
       <c r="I132">
-        <f>E132-F132+H132-D132</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J132" s="2"/>
@@ -3900,7 +3900,7 @@
         <v>6</v>
       </c>
       <c r="I133">
-        <f>E133-F133+H133-D133</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J133" s="2"/>
@@ -3923,7 +3923,7 @@
         <v>78</v>
       </c>
       <c r="I134">
-        <f>E134-F134+H134-D134</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J134" s="2"/>
@@ -3950,7 +3950,7 @@
         <v>232</v>
       </c>
       <c r="I135">
-        <f>E135-F135+H135-D135</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J135" s="2"/>
@@ -3979,7 +3979,7 @@
         <v>102</v>
       </c>
       <c r="I136">
-        <f>E136-F136+H136-D136</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J136" s="2"/>
@@ -4002,7 +4002,7 @@
         <v>130</v>
       </c>
       <c r="I137">
-        <f>E137-F137+H137-D137</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J137" s="2"/>
@@ -4026,7 +4026,7 @@
       </c>
       <c r="F138" s="1"/>
       <c r="I138">
-        <f>E138-F138+H138-D138</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="J138" s="2"/>
@@ -4109,7 +4109,7 @@
         <v>6</v>
       </c>
       <c r="I144">
-        <f>E144-F144+H144-D144</f>
+        <f t="shared" ref="I144:I153" si="6">E144-F144+H144-D144</f>
         <v>0</v>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
         <v>13</v>
       </c>
       <c r="I145">
-        <f>E145-F145+H145-D145</f>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="J145" t="s">
@@ -4169,7 +4169,7 @@
         <v>65</v>
       </c>
       <c r="I146">
-        <f>E146-F146+H146-D146</f>
+        <f t="shared" si="6"/>
         <v>-5</v>
       </c>
       <c r="J146" t="s">
@@ -4205,7 +4205,7 @@
         <v>6</v>
       </c>
       <c r="I147">
-        <f>E147-F147+H147-D147</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4235,7 +4235,7 @@
         <v>13</v>
       </c>
       <c r="I148">
-        <f>E148-F148+H148-D148</f>
+        <f t="shared" si="6"/>
         <v>-9</v>
       </c>
       <c r="J148" t="s">
@@ -4265,7 +4265,7 @@
         <v>73</v>
       </c>
       <c r="I149">
-        <f>E149-F149+H149-D149</f>
+        <f t="shared" si="6"/>
         <v>-9</v>
       </c>
       <c r="J149" t="s">
@@ -4292,7 +4292,7 @@
         <v>12</v>
       </c>
       <c r="I150">
-        <f>E150-F150+H150-D150</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4322,7 +4322,7 @@
         <v>12</v>
       </c>
       <c r="I151">
-        <f>E151-F151+H151-D151</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4346,7 +4346,7 @@
         <v>3</v>
       </c>
       <c r="I152">
-        <f>E152-F152+H152-D152</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4376,7 +4376,7 @@
         <v>50</v>
       </c>
       <c r="I153">
-        <f>E153-F153+H153-D153</f>
+        <f t="shared" si="6"/>
         <v>-4</v>
       </c>
       <c r="J153" t="s">
@@ -4470,7 +4470,7 @@
         <v>32</v>
       </c>
       <c r="I160">
-        <f t="shared" ref="I160:I172" si="5">E160-F160+H160-D160</f>
+        <f t="shared" ref="I160:I172" si="7">E160-F160+H160-D160</f>
         <v>0</v>
       </c>
       <c r="J160" s="2"/>
@@ -4500,7 +4500,7 @@
         <v>4</v>
       </c>
       <c r="I161">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J161" s="2"/>
@@ -4530,7 +4530,7 @@
         <v>74</v>
       </c>
       <c r="I162">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J162" s="2"/>
@@ -4554,7 +4554,7 @@
         <v>319</v>
       </c>
       <c r="I163">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J163" s="2"/>
@@ -4578,7 +4578,7 @@
         <v>4071</v>
       </c>
       <c r="I164">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J164" s="2"/>
@@ -4602,7 +4602,7 @@
         <v>2997</v>
       </c>
       <c r="I165">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J165" s="2"/>
@@ -4632,7 +4632,7 @@
         <v>195</v>
       </c>
       <c r="I166">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J166" s="2"/>
@@ -4662,7 +4662,7 @@
         <v>261</v>
       </c>
       <c r="I167">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J167" s="2"/>
@@ -4692,7 +4692,7 @@
         <v>47</v>
       </c>
       <c r="I168">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J168" s="2"/>
@@ -4719,7 +4719,7 @@
         <v>1617</v>
       </c>
       <c r="I169">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J169" s="2"/>
@@ -4749,7 +4749,7 @@
         <v>408</v>
       </c>
       <c r="I170">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J170" s="2"/>
@@ -4773,7 +4773,7 @@
         <v>1323</v>
       </c>
       <c r="I171">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J171" s="2"/>
@@ -4800,7 +4800,7 @@
         <v>572</v>
       </c>
       <c r="I172">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J172" s="2"/>
@@ -4884,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="I178">
-        <f t="shared" ref="I178:I194" si="6">E178-F178+H178-D178</f>
+        <f t="shared" ref="I178:I194" si="8">E178-F178+H178-D178</f>
         <v>0</v>
       </c>
       <c r="J178" s="2"/>
@@ -4915,7 +4915,7 @@
       </c>
       <c r="H179" s="1"/>
       <c r="I179">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J179" s="2"/>
@@ -4945,7 +4945,7 @@
         <v>106</v>
       </c>
       <c r="I180">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J180" s="2"/>
@@ -4969,7 +4969,7 @@
         <v>1013</v>
       </c>
       <c r="I181">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J181" s="2"/>
@@ -4996,7 +4996,7 @@
         <v>330</v>
       </c>
       <c r="I182">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J182" s="2"/>
@@ -5026,7 +5026,7 @@
         <v>85</v>
       </c>
       <c r="I183">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J183" s="2"/>
@@ -5056,7 +5056,7 @@
         <v>172</v>
       </c>
       <c r="I184">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J184" s="2"/>
@@ -5089,7 +5089,7 @@
         <v>48</v>
       </c>
       <c r="I185">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J185" s="2"/>
@@ -5122,7 +5122,7 @@
         <v>282</v>
       </c>
       <c r="I186">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J186" s="2"/>
@@ -5152,7 +5152,7 @@
         <v>21</v>
       </c>
       <c r="I187">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J187" s="2"/>
@@ -5182,7 +5182,7 @@
         <v>35</v>
       </c>
       <c r="I188">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J188" s="2"/>
@@ -5212,7 +5212,7 @@
         <v>6</v>
       </c>
       <c r="I189">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J189" s="2"/>
@@ -5242,7 +5242,7 @@
         <v>1</v>
       </c>
       <c r="I190">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J190" s="2"/>
@@ -5272,7 +5272,7 @@
         <v>2</v>
       </c>
       <c r="I191">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J191" s="2"/>
@@ -5302,7 +5302,7 @@
         <v>1</v>
       </c>
       <c r="I192">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J192" s="2"/>
@@ -5326,7 +5326,7 @@
         <v>133</v>
       </c>
       <c r="I193">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J193" s="2"/>
@@ -5350,7 +5350,7 @@
         <v>133</v>
       </c>
       <c r="I194">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="J194" s="2"/>
@@ -5453,7 +5453,7 @@
         <v>17</v>
       </c>
       <c r="I203">
-        <f t="shared" ref="I203:I223" si="7">E203-F203+H203-D203</f>
+        <f t="shared" ref="I203:I223" si="9">E203-F203+H203-D203</f>
         <v>0</v>
       </c>
       <c r="J203" s="2"/>
@@ -5476,7 +5476,7 @@
         <v>14</v>
       </c>
       <c r="I204">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J204" s="2"/>
@@ -5499,7 +5499,7 @@
         <v>11</v>
       </c>
       <c r="I205">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J205" s="2"/>
@@ -5522,7 +5522,7 @@
         <v>5</v>
       </c>
       <c r="I206">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J206" s="2"/>
@@ -5545,7 +5545,7 @@
         <v>1</v>
       </c>
       <c r="I207">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J207" s="2"/>
@@ -5568,7 +5568,7 @@
         <v>11</v>
       </c>
       <c r="I208">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J208" s="2"/>
@@ -5591,7 +5591,7 @@
         <v>11</v>
       </c>
       <c r="I209">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J209" s="2"/>
@@ -5614,7 +5614,7 @@
         <v>9</v>
       </c>
       <c r="I210">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J210" s="2"/>
@@ -5637,7 +5637,7 @@
         <v>12</v>
       </c>
       <c r="I211">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J211" s="2"/>
@@ -5660,7 +5660,7 @@
         <v>5</v>
       </c>
       <c r="I212">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J212" s="2"/>
@@ -5689,7 +5689,7 @@
         <v>11</v>
       </c>
       <c r="I213">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J213" s="2"/>
@@ -5717,7 +5717,7 @@
         <v>9</v>
       </c>
       <c r="I214">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J214" s="2"/>
@@ -5740,7 +5740,7 @@
         <v>916</v>
       </c>
       <c r="I215">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J215" s="2"/>
@@ -5763,7 +5763,7 @@
         <v>916</v>
       </c>
       <c r="I216">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J216" s="2"/>
@@ -5792,7 +5792,7 @@
         <v>74</v>
       </c>
       <c r="I217">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J217" s="2"/>
@@ -5821,7 +5821,7 @@
         <v>16</v>
       </c>
       <c r="I218">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J218" s="2"/>
@@ -5844,7 +5844,7 @@
         <v>660</v>
       </c>
       <c r="I219">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J219" s="2"/>
@@ -5867,7 +5867,7 @@
         <v>140</v>
       </c>
       <c r="I220">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J220" s="2"/>
@@ -5896,7 +5896,7 @@
         <v>17</v>
       </c>
       <c r="I221">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J221" s="2"/>
@@ -5919,7 +5919,7 @@
         <v>409</v>
       </c>
       <c r="I222">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J222" s="2"/>
@@ -5942,7 +5942,7 @@
         <v>260</v>
       </c>
       <c r="I223">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="J223" s="2"/>
@@ -6023,7 +6023,7 @@
         <v>312</v>
       </c>
       <c r="I229">
-        <f t="shared" ref="I229:I245" si="8">E229-F229+H229-D229</f>
+        <f t="shared" ref="I229:I245" si="10">E229-F229+H229-D229</f>
         <v>0</v>
       </c>
       <c r="J229" s="2"/>
@@ -6049,7 +6049,7 @@
       </c>
       <c r="G230" s="1"/>
       <c r="I230">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J230" s="2"/>
@@ -6073,7 +6073,7 @@
         <v>974</v>
       </c>
       <c r="I231">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K231" s="2"/>
@@ -6096,7 +6096,7 @@
         <v>72</v>
       </c>
       <c r="I232">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J232" s="2"/>
@@ -6120,7 +6120,7 @@
         <v>4748</v>
       </c>
       <c r="I233">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J233" s="2"/>
@@ -6147,7 +6147,7 @@
         <v>470</v>
       </c>
       <c r="I234">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J234" s="2"/>
@@ -6171,7 +6171,7 @@
         <v>5218</v>
       </c>
       <c r="I235">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K235" s="2"/>
@@ -6194,7 +6194,7 @@
         <v>5218</v>
       </c>
       <c r="I236">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J236" s="2"/>
@@ -6224,7 +6224,7 @@
         <v>812</v>
       </c>
       <c r="I237">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K237" s="2"/>
@@ -6253,7 +6253,7 @@
         <v>3410</v>
       </c>
       <c r="I238">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="J238" s="2"/>
@@ -6283,7 +6283,7 @@
         <v>401</v>
       </c>
       <c r="I239">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K239" s="2"/>
@@ -6312,7 +6312,7 @@
         <v>167</v>
       </c>
       <c r="I240">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K240" s="2"/>
@@ -6341,7 +6341,7 @@
         <v>60</v>
       </c>
       <c r="I241">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K241" s="2"/>
@@ -6364,7 +6364,7 @@
         <v>122</v>
       </c>
       <c r="I242">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K242" s="2"/>
@@ -6387,7 +6387,7 @@
         <v>72</v>
       </c>
       <c r="I243">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K243" s="2"/>
@@ -6410,7 +6410,7 @@
         <v>174</v>
       </c>
       <c r="I244">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K244" s="2"/>
@@ -6433,7 +6433,7 @@
         <v>584</v>
       </c>
       <c r="I245">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K245" s="2"/>
@@ -6549,7 +6549,7 @@
         <v>4</v>
       </c>
       <c r="I253">
-        <f t="shared" ref="I253:I264" si="9">E253-F253+H253-D253</f>
+        <f t="shared" ref="I253:I264" si="11">E253-F253+H253-D253</f>
         <v>0</v>
       </c>
     </row>
@@ -6574,7 +6574,7 @@
         <v>1</v>
       </c>
       <c r="I254">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6598,7 +6598,7 @@
         <v>1</v>
       </c>
       <c r="I255">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6625,7 +6625,7 @@
         <v>23</v>
       </c>
       <c r="I256">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6649,7 +6649,7 @@
         <v>5</v>
       </c>
       <c r="I257">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6673,7 +6673,7 @@
         <v>5</v>
       </c>
       <c r="I258">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6703,7 +6703,7 @@
         <v>5</v>
       </c>
       <c r="I259">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6731,7 +6731,7 @@
       </c>
       <c r="H260" s="1"/>
       <c r="I260">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6759,7 +6759,7 @@
       </c>
       <c r="H261" s="1"/>
       <c r="I261">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6781,7 +6781,7 @@
       </c>
       <c r="H262" s="1"/>
       <c r="I262">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6802,7 +6802,7 @@
         <v>253</v>
       </c>
       <c r="I263">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6823,7 +6823,7 @@
         <v>253</v>
       </c>
       <c r="I264">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
@@ -6910,7 +6910,7 @@
         <v>18</v>
       </c>
       <c r="I271">
-        <f t="shared" ref="I271:I282" si="10">E271-F271+H271-D271</f>
+        <f t="shared" ref="I271:I282" si="12">E271-F271+H271-D271</f>
         <v>0</v>
       </c>
     </row>
@@ -6931,7 +6931,7 @@
         <v>834</v>
       </c>
       <c r="I272">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6952,7 +6952,7 @@
         <v>3756</v>
       </c>
       <c r="I273">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6973,7 +6973,7 @@
         <v>3756</v>
       </c>
       <c r="I274">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6994,7 +6994,7 @@
         <v>3756</v>
       </c>
       <c r="I275">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7021,7 +7021,7 @@
         <v>6</v>
       </c>
       <c r="I276">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7042,7 +7042,7 @@
         <v>32</v>
       </c>
       <c r="I277">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7072,7 +7072,7 @@
         <v>140</v>
       </c>
       <c r="I278">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J278" t="s">
@@ -7102,7 +7102,7 @@
         <v>429</v>
       </c>
       <c r="I279">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7123,7 +7123,7 @@
         <v>201</v>
       </c>
       <c r="I280">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7144,7 +7144,7 @@
         <v>292</v>
       </c>
       <c r="I281">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7165,7 +7165,7 @@
         <v>940</v>
       </c>
       <c r="I282">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7242,7 +7242,7 @@
         <v>236</v>
       </c>
       <c r="F289">
-        <f t="shared" ref="F289:F299" si="11">D289-E289</f>
+        <f t="shared" ref="F289:F299" si="13">D289-E289</f>
         <v>-50</v>
       </c>
       <c r="I289" s="4"/>
@@ -7261,7 +7261,7 @@
         <v>168</v>
       </c>
       <c r="F290">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-32</v>
       </c>
       <c r="I290" s="4"/>
@@ -7280,7 +7280,7 @@
         <v>264</v>
       </c>
       <c r="F291">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-26</v>
       </c>
       <c r="I291" s="4"/>
@@ -7299,7 +7299,7 @@
         <v>116</v>
       </c>
       <c r="F292">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-10</v>
       </c>
       <c r="H292">
@@ -7322,7 +7322,7 @@
         <v>46</v>
       </c>
       <c r="F293">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-6</v>
       </c>
       <c r="I293" s="4"/>
@@ -7341,7 +7341,7 @@
         <v>300</v>
       </c>
       <c r="F294">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-4</v>
       </c>
       <c r="I294" s="4"/>
@@ -7360,7 +7360,7 @@
         <v>170</v>
       </c>
       <c r="F295">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-4</v>
       </c>
       <c r="I295" s="4"/>
@@ -7379,7 +7379,7 @@
         <v>96</v>
       </c>
       <c r="F296">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
       <c r="I296" s="4"/>
@@ -7398,7 +7398,7 @@
         <v>188</v>
       </c>
       <c r="F297">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
       <c r="I297" s="4"/>
@@ -7417,7 +7417,7 @@
         <v>32</v>
       </c>
       <c r="F298">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
       <c r="I298" s="4"/>
@@ -7436,7 +7436,7 @@
         <v>88</v>
       </c>
       <c r="F299">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>-2</v>
       </c>
       <c r="I299" s="4"/>
@@ -7480,14 +7480,14 @@
         <v>770</v>
       </c>
       <c r="F303" s="1">
-        <v>560</v>
+        <v>572</v>
       </c>
       <c r="G303" s="1">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="I303">
-        <f t="shared" ref="I303:I320" si="12">E303-F303+H303-D303</f>
-        <v>14</v>
+        <f t="shared" ref="I303:I320" si="14">E303-F303+H303-D303</f>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="2:12" x14ac:dyDescent="0.25">
@@ -7504,14 +7504,14 @@
         <v>2074</v>
       </c>
       <c r="F304" s="1">
-        <v>958</v>
+        <v>1056</v>
       </c>
       <c r="G304" s="1">
-        <v>1104</v>
+        <v>1010</v>
       </c>
       <c r="I304">
-        <f t="shared" si="12"/>
-        <v>106</v>
+        <f t="shared" si="14"/>
+        <v>8</v>
       </c>
       <c r="J304" s="2"/>
       <c r="K304" s="1"/>
@@ -7536,7 +7536,7 @@
         <v>102</v>
       </c>
       <c r="I305">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J305" s="2"/>
@@ -7556,17 +7556,17 @@
         <v>2784</v>
       </c>
       <c r="F306" s="1">
-        <v>2056</v>
+        <v>1858</v>
       </c>
       <c r="G306" s="1">
-        <v>708</v>
+        <v>906</v>
       </c>
       <c r="H306">
         <v>40</v>
       </c>
       <c r="I306">
-        <f t="shared" si="12"/>
-        <v>-198</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="J306" s="2"/>
       <c r="K306" s="1"/>
@@ -7582,10 +7582,10 @@
         <v>-66</v>
       </c>
       <c r="G307" s="1">
-        <v>-74</v>
+        <v>-66</v>
       </c>
       <c r="I307">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>66</v>
       </c>
       <c r="J307" s="2"/>
@@ -7605,7 +7605,7 @@
         <v>4048</v>
       </c>
       <c r="I308">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J308" s="2"/>
@@ -7622,17 +7622,17 @@
         <v>3120</v>
       </c>
       <c r="E309" s="1">
-        <v>3624</v>
+        <v>3734</v>
       </c>
       <c r="F309" s="1">
-        <v>546</v>
+        <v>554</v>
       </c>
       <c r="G309" s="1">
-        <v>3000</v>
+        <v>3096</v>
       </c>
       <c r="I309">
-        <f t="shared" si="12"/>
-        <v>-42</v>
+        <f t="shared" si="14"/>
+        <v>60</v>
       </c>
       <c r="J309" s="2"/>
       <c r="K309" s="1"/>
@@ -7651,14 +7651,14 @@
         <v>556</v>
       </c>
       <c r="F310" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G310" s="1">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="I310">
-        <f t="shared" si="12"/>
-        <v>-6</v>
+        <f t="shared" si="14"/>
+        <v>-4</v>
       </c>
       <c r="J310" s="2"/>
       <c r="K310" s="1"/>
@@ -7674,17 +7674,17 @@
         <v>40</v>
       </c>
       <c r="E311" s="1">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F311" s="1">
         <v>96</v>
       </c>
       <c r="G311" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="I311">
-        <f t="shared" si="12"/>
-        <v>-54</v>
+        <f t="shared" si="14"/>
+        <v>-58</v>
       </c>
       <c r="J311" s="2"/>
       <c r="K311" s="1"/>
@@ -7700,17 +7700,17 @@
         <v>2</v>
       </c>
       <c r="E312" s="1">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F312" s="1">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G312" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="I312">
-        <f t="shared" si="12"/>
-        <v>6</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="J312" s="2"/>
       <c r="K312" s="1"/>
@@ -7725,9 +7725,19 @@
       <c r="D313" s="1">
         <v>2</v>
       </c>
-      <c r="E313" s="1"/>
-      <c r="F313" s="1"/>
-      <c r="G313" s="1"/>
+      <c r="E313" s="1">
+        <v>6</v>
+      </c>
+      <c r="F313" s="1">
+        <v>4</v>
+      </c>
+      <c r="G313" s="1">
+        <v>2</v>
+      </c>
+      <c r="I313">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="J313" s="2"/>
       <c r="K313" s="1"/>
     </row>
@@ -7742,17 +7752,17 @@
         <v>34</v>
       </c>
       <c r="E314" s="1">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="F314" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G314" s="1">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I314">
-        <f t="shared" si="12"/>
-        <v>-14</v>
+        <f t="shared" si="14"/>
+        <v>-4</v>
       </c>
       <c r="J314" s="2"/>
       <c r="K314" s="1"/>
@@ -7777,7 +7787,7 @@
         <v>18</v>
       </c>
       <c r="I315">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J315" s="2"/>
@@ -7797,7 +7807,7 @@
         <v>130</v>
       </c>
       <c r="I316">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J316" s="2"/>
@@ -7817,7 +7827,7 @@
         <v>78</v>
       </c>
       <c r="I317">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>-58</v>
       </c>
       <c r="J317" s="2"/>
@@ -7834,11 +7844,11 @@
         <v>69</v>
       </c>
       <c r="E318" s="1">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I318">
-        <f t="shared" si="12"/>
-        <v>1</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="J318" s="2"/>
       <c r="K318" s="1"/>
@@ -7854,11 +7864,11 @@
         <v>25</v>
       </c>
       <c r="E319" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I319">
-        <f t="shared" si="12"/>
-        <v>-3</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="J319" s="2"/>
       <c r="K319" s="1"/>
@@ -7874,11 +7884,11 @@
         <v>94</v>
       </c>
       <c r="E320" s="1">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="I320">
-        <f t="shared" si="12"/>
-        <v>-2</v>
+        <f t="shared" si="14"/>
+        <v>0</v>
       </c>
       <c r="J320" s="2"/>
       <c r="K320" s="1"/>
@@ -7926,6 +7936,9 @@
       <c r="D325" s="1">
         <v>4048</v>
       </c>
+      <c r="E325">
+        <v>3774</v>
+      </c>
     </row>
     <row r="326" spans="3:11" x14ac:dyDescent="0.25">
       <c r="C326" s="2"/>
@@ -8035,8 +8048,8 @@
       <c r="E360" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="J306:K324">
-    <sortCondition ref="J306:J324"/>
+  <sortState ref="J306:K316">
+    <sortCondition ref="J306:J316"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Error_summary.xlsx
+++ b/docs/Error_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="156">
   <si>
     <t>bud_big</t>
   </si>
@@ -473,13 +473,25 @@
     <t>"2756" correct for "To" and "912" correct as number passing onwards, so not sure how "3668" has been calculated; See new item in error summary</t>
   </si>
   <si>
-    <t>waiting to solve once map updated. #s above all add, but doesn't include two new categories</t>
-  </si>
-  <si>
     <t>I know these don't match in spreadsheet</t>
   </si>
   <si>
     <t>I know these don't add up in spreadsheet; need to consider seed pods final part for this species (and PHPH)</t>
+  </si>
+  <si>
+    <t>fruit_large_immature_aborting</t>
+  </si>
+  <si>
+    <t>fruit_young_aborting</t>
+  </si>
+  <si>
+    <t>this shows up as 12 in program, but actually only 6</t>
+  </si>
+  <si>
+    <t>finished_flower_aborting</t>
+  </si>
+  <si>
+    <t>flower_calyx_aborting</t>
   </si>
 </sst>
 </file>
@@ -819,10 +831,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q361"/>
+  <dimension ref="A1:Q365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A336" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G315" sqref="G315"/>
+    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1635,7 +1647,7 @@
       </c>
       <c r="I40" s="1"/>
       <c r="J40">
-        <f>E40-F40+H40-D40</f>
+        <f t="shared" ref="J40:J54" si="1">E40-F40+H40-D40</f>
         <v>0</v>
       </c>
       <c r="K40" s="2"/>
@@ -1673,7 +1685,7 @@
       </c>
       <c r="I41" s="1"/>
       <c r="J41">
-        <f>E41-F41+H41-D41</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K41" s="2"/>
@@ -1711,7 +1723,7 @@
       </c>
       <c r="I42" s="1"/>
       <c r="J42">
-        <f>E42-F42+H42-D42</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K42" s="2"/>
@@ -1749,7 +1761,7 @@
       </c>
       <c r="I43" s="1"/>
       <c r="J43">
-        <f>E43-F43+H43-D43</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K43" s="2"/>
@@ -1781,7 +1793,7 @@
         <v>3668</v>
       </c>
       <c r="J44">
-        <f>E44-F44+H44-D44</f>
+        <f t="shared" si="1"/>
         <v>-912</v>
       </c>
       <c r="K44" s="2" t="s">
@@ -1819,7 +1831,7 @@
         <v>2158</v>
       </c>
       <c r="J45">
-        <f>E45-F45+H45-D45</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K45" s="2"/>
@@ -1853,7 +1865,7 @@
         <v>1868</v>
       </c>
       <c r="J46">
-        <f>E46-F46+H46-D46</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K46" s="2"/>
@@ -1887,7 +1899,7 @@
         <v>0</v>
       </c>
       <c r="J47">
-        <f>E47-F47+H47-D47</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K47" s="2"/>
@@ -1921,7 +1933,7 @@
         <v>8</v>
       </c>
       <c r="J48">
-        <f>E48-F48+H48-D48</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K48" s="2"/>
@@ -1955,7 +1967,7 @@
         <v>21</v>
       </c>
       <c r="J49">
-        <f>E49-F49+H49-D49</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K49" s="2"/>
@@ -1989,7 +2001,7 @@
         <v>78</v>
       </c>
       <c r="J50">
-        <f>E50-F50+H50-D50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K50" s="2"/>
@@ -2023,7 +2035,7 @@
         <v>0</v>
       </c>
       <c r="J51">
-        <f>E51-F51+H51-D51</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K51" s="2"/>
@@ -2057,7 +2069,7 @@
         <v>0</v>
       </c>
       <c r="J52">
-        <f>E52-F52+H52-D52</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K52" s="2"/>
@@ -2091,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <f>E53-F53+H53-D53</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K53" s="2"/>
@@ -2125,7 +2137,7 @@
         <v>0</v>
       </c>
       <c r="J54">
-        <f>E54-F54+H54-D54</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K54" s="2"/>
@@ -2265,7 +2277,7 @@
         <v>24</v>
       </c>
       <c r="J63">
-        <f>E63-F63+H63-D63</f>
+        <f t="shared" ref="J63:J77" si="2">E63-F63+H63-D63</f>
         <v>0</v>
       </c>
       <c r="K63" s="2"/>
@@ -2299,7 +2311,7 @@
         <v>6</v>
       </c>
       <c r="J64">
-        <f>E64-F64+H64-D64</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K64" s="2"/>
@@ -2330,7 +2342,7 @@
         <v>38</v>
       </c>
       <c r="J65">
-        <f>E65-F65+H65-D65</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K65" s="2"/>
@@ -2355,7 +2367,7 @@
         <v>95</v>
       </c>
       <c r="J66">
-        <f>E66-F66+H66-D66</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K66" s="2"/>
@@ -2380,7 +2392,7 @@
         <v>6</v>
       </c>
       <c r="J67">
-        <f>E67-F67+H67-D67</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K67" s="2"/>
@@ -2405,7 +2417,7 @@
         <v>4</v>
       </c>
       <c r="J68">
-        <f>E68-F68+H68-D68</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K68" s="2"/>
@@ -2436,7 +2448,7 @@
         <v>52</v>
       </c>
       <c r="J69">
-        <f>E69-F69+H69-D69</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K69" s="2"/>
@@ -2461,7 +2473,7 @@
         <v>2100</v>
       </c>
       <c r="J70">
-        <f>E70-F70+H70-D70</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K70" s="2"/>
@@ -2492,7 +2504,7 @@
         <v>536</v>
       </c>
       <c r="J71">
-        <f>E71-F71+H71-D71</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K71" s="2"/>
@@ -2523,7 +2535,7 @@
         <v>1209</v>
       </c>
       <c r="J72">
-        <f>E72-F72+H72-D72</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K72" s="2"/>
@@ -2548,7 +2560,7 @@
         <v>210</v>
       </c>
       <c r="J73">
-        <f>E73-F73+H73-D73</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K73" s="2"/>
@@ -2573,7 +2585,7 @@
         <v>355</v>
       </c>
       <c r="J74">
-        <f>E74-F74+H74-D74</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K74" s="2"/>
@@ -2598,7 +2610,7 @@
         <v>329</v>
       </c>
       <c r="J75">
-        <f>E75-F75+H75-D75</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K75" s="2"/>
@@ -2623,7 +2635,7 @@
         <v>346</v>
       </c>
       <c r="J76">
-        <f>E76-F76+H76-D76</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K76" s="2"/>
@@ -2648,7 +2660,7 @@
         <v>355</v>
       </c>
       <c r="J77">
-        <f>E77-F77+H77-D77</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K77" s="2"/>
@@ -2737,7 +2749,7 @@
       </c>
       <c r="I83" s="1"/>
       <c r="J83">
-        <f>E83-F83+H83-D83</f>
+        <f t="shared" ref="J83:J91" si="3">E83-F83+H83-D83</f>
         <v>0</v>
       </c>
       <c r="K83" s="2"/>
@@ -2773,7 +2785,7 @@
       </c>
       <c r="I84" s="1"/>
       <c r="J84">
-        <f>E84-F84+H84-D84</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K84" s="2"/>
@@ -2805,7 +2817,7 @@
         <v>1861</v>
       </c>
       <c r="J85">
-        <f>E85-F85+H85-D85</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K85" s="2"/>
@@ -2831,7 +2843,7 @@
         <v>4619</v>
       </c>
       <c r="J86">
-        <f>E86-F86+H86-D86</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K86" s="2"/>
@@ -2863,7 +2875,7 @@
         <v>446</v>
       </c>
       <c r="J87">
-        <f>E87-F87+H87-D87</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K87" s="2"/>
@@ -2895,7 +2907,7 @@
         <v>1546</v>
       </c>
       <c r="J88">
-        <f>E88-F88+H88-D88</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K88" s="2"/>
@@ -2927,7 +2939,7 @@
         <v>598</v>
       </c>
       <c r="J89">
-        <f>E89-F89+H89-D89</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K89" s="2"/>
@@ -2959,7 +2971,7 @@
         <v>329</v>
       </c>
       <c r="J90">
-        <f>E90-F90+H90-D90</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K90" s="2"/>
@@ -2985,7 +2997,7 @@
         <v>1673</v>
       </c>
       <c r="J91">
-        <f>E91-F91+H91-D91</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K91" s="2"/>
@@ -3056,7 +3068,7 @@
         <v>208</v>
       </c>
       <c r="J96">
-        <f t="shared" ref="J96:J113" si="1">E96-F96+H96-D96</f>
+        <f t="shared" ref="J96:J113" si="4">E96-F96+H96-D96</f>
         <v>0</v>
       </c>
       <c r="K96" s="2"/>
@@ -3082,7 +3094,7 @@
         <v>798</v>
       </c>
       <c r="J97">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K97" s="2"/>
@@ -3108,7 +3120,7 @@
         <v>74</v>
       </c>
       <c r="J98">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K98" s="2"/>
@@ -3137,7 +3149,7 @@
         <v>40</v>
       </c>
       <c r="J99">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K99" s="2"/>
@@ -3163,7 +3175,7 @@
         <v>1378</v>
       </c>
       <c r="J100">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K100" s="2"/>
@@ -3183,7 +3195,7 @@
         <v>4216</v>
       </c>
       <c r="J101">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K101" s="2"/>
@@ -3209,7 +3221,7 @@
         <v>2012</v>
       </c>
       <c r="J102">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K102" s="2"/>
@@ -3235,7 +3247,7 @@
         <v>548</v>
       </c>
       <c r="J103">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K103" s="2"/>
@@ -3261,7 +3273,7 @@
         <v>40</v>
       </c>
       <c r="J104">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K104" s="2"/>
@@ -3287,7 +3299,7 @@
         <v>2</v>
       </c>
       <c r="J105">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K105" s="2"/>
@@ -3313,7 +3325,7 @@
         <v>2</v>
       </c>
       <c r="J106">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K106" s="2"/>
@@ -3339,7 +3351,7 @@
         <v>32</v>
       </c>
       <c r="J107">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K107" s="2"/>
@@ -3365,7 +3377,7 @@
         <v>21</v>
       </c>
       <c r="J108">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K108" s="2"/>
@@ -3385,7 +3397,7 @@
         <v>130</v>
       </c>
       <c r="J109">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K109" s="2"/>
@@ -3405,7 +3417,7 @@
         <v>136</v>
       </c>
       <c r="J110">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K110" s="2"/>
@@ -3425,7 +3437,7 @@
         <v>68</v>
       </c>
       <c r="J111">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K111" s="2"/>
@@ -3445,7 +3457,7 @@
         <v>24</v>
       </c>
       <c r="J112">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K112" s="2"/>
@@ -3465,7 +3477,7 @@
         <v>92</v>
       </c>
       <c r="J113">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="K113" s="2"/>
@@ -3578,7 +3590,7 @@
         <v>822</v>
       </c>
       <c r="J122">
-        <f t="shared" ref="J122:J142" si="2">E122-F122+H122-D122</f>
+        <f t="shared" ref="J122:J142" si="5">E122-F122+H122-D122</f>
         <v>0</v>
       </c>
       <c r="K122" s="2"/>
@@ -3605,7 +3617,7 @@
         <v>80</v>
       </c>
       <c r="J123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K123" s="2"/>
@@ -3636,7 +3648,7 @@
       </c>
       <c r="I124" s="1"/>
       <c r="J124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K124" s="2"/>
@@ -3663,7 +3675,7 @@
         <v>196</v>
       </c>
       <c r="J125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K125" s="2"/>
@@ -3694,7 +3706,7 @@
       </c>
       <c r="I126" s="1"/>
       <c r="J126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K126" s="2"/>
@@ -3725,7 +3737,7 @@
       </c>
       <c r="I127" s="1"/>
       <c r="J127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K127" s="2"/>
@@ -3750,7 +3762,7 @@
       </c>
       <c r="I128" s="1"/>
       <c r="J128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K128" s="2"/>
@@ -3777,7 +3789,7 @@
         <v>1990</v>
       </c>
       <c r="J129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K129" s="2"/>
@@ -3804,7 +3816,7 @@
         <v>2</v>
       </c>
       <c r="J130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K130" s="2"/>
@@ -3831,7 +3843,7 @@
         <v>32</v>
       </c>
       <c r="J131">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K131" s="2"/>
@@ -3858,7 +3870,7 @@
         <v>22</v>
       </c>
       <c r="J132">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K132" s="2"/>
@@ -3885,7 +3897,7 @@
         <v>2</v>
       </c>
       <c r="J133">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K133" s="2"/>
@@ -3908,7 +3920,7 @@
       </c>
       <c r="G134" s="1"/>
       <c r="J134">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K134" s="2"/>
@@ -3935,7 +3947,7 @@
         <v>62</v>
       </c>
       <c r="J135">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K135" s="2"/>
@@ -3962,7 +3974,7 @@
         <v>15</v>
       </c>
       <c r="J136">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K136" s="2"/>
@@ -3996,7 +4008,7 @@
       </c>
       <c r="I137" s="1"/>
       <c r="J137">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K137" s="2"/>
@@ -4017,7 +4029,7 @@
         <v>61</v>
       </c>
       <c r="J138">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K138" s="2"/>
@@ -4038,7 +4050,7 @@
         <v>206</v>
       </c>
       <c r="J139">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K139" s="2"/>
@@ -4059,7 +4071,7 @@
         <v>79</v>
       </c>
       <c r="J140">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K140" s="2"/>
@@ -4080,7 +4092,7 @@
         <v>71</v>
       </c>
       <c r="J141">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K141" s="2"/>
@@ -4100,7 +4112,7 @@
         <v>150</v>
       </c>
       <c r="J142">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="K142" s="2"/>
@@ -4204,7 +4216,7 @@
         <v>2676</v>
       </c>
       <c r="J149">
-        <f t="shared" ref="J149:J164" si="3">E149-F149+H149-D149</f>
+        <f t="shared" ref="J149:J164" si="6">E149-F149+H149-D149</f>
         <v>0</v>
       </c>
       <c r="K149" s="2"/>
@@ -4233,7 +4245,7 @@
         <v>2902</v>
       </c>
       <c r="J150">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K150" s="2"/>
@@ -4262,7 +4274,7 @@
         <v>80024</v>
       </c>
       <c r="J151">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K151" s="2"/>
@@ -4285,7 +4297,7 @@
         <v>190594</v>
       </c>
       <c r="J152">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K152" s="2"/>
@@ -4314,7 +4326,7 @@
         <v>85696</v>
       </c>
       <c r="J153">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K153" s="2"/>
@@ -4337,7 +4349,7 @@
         <v>31930</v>
       </c>
       <c r="J154">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K154" s="2"/>
@@ -4366,7 +4378,7 @@
         <v>31672</v>
       </c>
       <c r="J155">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K155" s="2"/>
@@ -4396,7 +4408,7 @@
         <v>12</v>
       </c>
       <c r="J156">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K156" s="2"/>
@@ -4420,7 +4432,7 @@
         <v>176</v>
       </c>
       <c r="J157">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K157" s="2"/>
@@ -4445,7 +4457,7 @@
         <v>186</v>
       </c>
       <c r="J158">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K158" s="2"/>
@@ -4474,7 +4486,7 @@
         <v>6</v>
       </c>
       <c r="J159">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K159" s="2"/>
@@ -4497,7 +4509,7 @@
         <v>78</v>
       </c>
       <c r="J160">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K160" s="2"/>
@@ -4525,7 +4537,7 @@
       </c>
       <c r="I161" s="1"/>
       <c r="J161">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K161" s="2"/>
@@ -4555,7 +4567,7 @@
       </c>
       <c r="I162" s="1"/>
       <c r="J162">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K162" s="2"/>
@@ -4579,7 +4591,7 @@
       </c>
       <c r="I163" s="1"/>
       <c r="J163">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K163" s="2"/>
@@ -4603,7 +4615,7 @@
       </c>
       <c r="F164" s="1"/>
       <c r="J164">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K164" s="2"/>
@@ -4674,19 +4686,16 @@
         <v>0</v>
       </c>
       <c r="D170" s="1">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="E170" s="1">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F170">
         <v>10</v>
       </c>
-      <c r="G170">
-        <v>19</v>
-      </c>
       <c r="J170">
-        <f t="shared" ref="J170:J179" si="4">E170-F170+H170-D170</f>
+        <f>E170-F170+H170-D170</f>
         <v>0</v>
       </c>
       <c r="K170" s="2"/>
@@ -4705,23 +4714,21 @@
         <v>12</v>
       </c>
       <c r="D171" s="1">
-        <v>183</v>
+        <v>242</v>
       </c>
       <c r="E171" s="1">
-        <v>321</v>
+        <v>378</v>
       </c>
       <c r="F171" s="1">
-        <v>153</v>
-      </c>
-      <c r="G171" s="1">
-        <v>170</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G171" s="1"/>
       <c r="H171" s="1">
         <v>15</v>
       </c>
       <c r="I171" s="1"/>
       <c r="J171">
-        <f t="shared" si="4"/>
+        <f>E171-F171+H171-D171</f>
         <v>0</v>
       </c>
       <c r="K171" s="2"/>
@@ -4750,7 +4757,7 @@
       </c>
       <c r="I172" s="1"/>
       <c r="J172">
-        <f t="shared" si="4"/>
+        <f>E172-F172+H172-D172</f>
         <v>0</v>
       </c>
       <c r="K172" s="2"/>
@@ -4769,23 +4776,21 @@
         <v>3</v>
       </c>
       <c r="D173" s="1">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="E173" s="1">
-        <v>260</v>
+        <v>81</v>
       </c>
       <c r="F173" s="1">
-        <v>53</v>
-      </c>
-      <c r="G173" s="1">
-        <v>199</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G173" s="1"/>
       <c r="H173" s="1">
         <v>6</v>
       </c>
       <c r="I173" s="1"/>
       <c r="J173">
-        <f t="shared" si="4"/>
+        <f>E173-F173+H173-D173</f>
         <v>0</v>
       </c>
       <c r="K173" s="2"/>
@@ -4795,34 +4800,22 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>4</v>
+        <v>6.1</v>
       </c>
       <c r="B174" t="s">
         <v>138</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="D174" s="1">
-        <v>80</v>
-      </c>
-      <c r="E174" s="1">
-        <v>105</v>
-      </c>
-      <c r="F174" s="1">
-        <v>48</v>
-      </c>
-      <c r="G174" s="1">
-        <v>72</v>
-      </c>
-      <c r="H174" s="1">
-        <v>23</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="E174" s="1"/>
+      <c r="F174" s="1"/>
+      <c r="G174" s="1"/>
+      <c r="H174" s="1"/>
       <c r="I174" s="1"/>
-      <c r="J174">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
       <c r="K174" s="2"/>
       <c r="L174" s="1"/>
       <c r="O174" s="2"/>
@@ -4830,26 +4823,30 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B175" t="s">
         <v>138</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D175" s="1">
-        <v>626</v>
+        <v>0</v>
       </c>
       <c r="E175" s="1">
-        <v>532</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F175" s="1">
+        <v>50</v>
+      </c>
+      <c r="G175" s="1"/>
       <c r="H175" s="1">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="I175" s="1"/>
       <c r="J175">
-        <f t="shared" si="4"/>
+        <f>E175-F175+H175-D175</f>
         <v>0</v>
       </c>
       <c r="K175" s="2"/>
@@ -4859,22 +4856,28 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>5</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B176" t="s">
         <v>138</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>54</v>
+        <v>155</v>
       </c>
       <c r="D176" s="1">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="E176" s="1">
-        <v>12</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F176" s="1"/>
+      <c r="G176" s="1"/>
+      <c r="H176" s="1">
+        <v>13</v>
+      </c>
+      <c r="I176" s="1"/>
       <c r="J176">
-        <f t="shared" si="4"/>
+        <f>E176-F176+H176-D176</f>
         <v>0</v>
       </c>
       <c r="K176" s="2"/>
@@ -4884,293 +4887,304 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B177" t="s">
         <v>138</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D177" s="1">
-        <v>15</v>
+        <v>632</v>
       </c>
       <c r="E177" s="1">
-        <v>100</v>
-      </c>
-      <c r="F177" s="1">
-        <v>95</v>
-      </c>
-      <c r="G177" s="1">
-        <v>15</v>
+        <v>533</v>
       </c>
       <c r="H177" s="1">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="I177" s="1"/>
       <c r="J177">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <f>E177-F177+H177-D177</f>
+        <v>0</v>
+      </c>
+      <c r="K177" s="2"/>
+      <c r="L177" s="1"/>
       <c r="O177" s="2"/>
       <c r="P177" s="1"/>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B178" t="s">
         <v>138</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="D178" s="1">
-        <v>147</v>
+        <v>6</v>
       </c>
       <c r="E178" s="1">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="H178" s="1">
-        <v>3</v>
-      </c>
-      <c r="I178" s="1"/>
+        <v>1</v>
+      </c>
       <c r="J178">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <f>E178-F178+H178-D178</f>
+        <v>0</v>
+      </c>
+      <c r="K178" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="L178" s="1"/>
       <c r="O178" s="2"/>
       <c r="P178" s="1"/>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B179" t="s">
         <v>138</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D179" s="1">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="E179" s="1">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="F179" s="1">
-        <v>100</v>
-      </c>
-      <c r="G179" s="1">
-        <v>34</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="G179" s="1"/>
       <c r="H179" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="I179" s="1"/>
       <c r="J179">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <f>E179-F179+H179-D179</f>
+        <v>0</v>
+      </c>
+      <c r="K179" s="2"/>
+      <c r="L179" s="1"/>
       <c r="O179" s="2"/>
       <c r="P179" s="1"/>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C180" s="2"/>
+      <c r="A180">
+        <v>9.1</v>
+      </c>
+      <c r="B180" t="s">
+        <v>138</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="D180" s="1">
+        <v>95</v>
+      </c>
+      <c r="E180" s="1">
+        <v>95</v>
+      </c>
+      <c r="F180" s="1"/>
+      <c r="G180" s="1"/>
       <c r="H180" s="1"/>
       <c r="I180" s="1"/>
+      <c r="K180" s="2"/>
+      <c r="L180" s="1"/>
       <c r="O180" s="2"/>
       <c r="P180" s="1"/>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>10</v>
+      </c>
+      <c r="B181" t="s">
+        <v>138</v>
+      </c>
       <c r="C181" s="2" t="s">
-        <v>139</v>
+        <v>7</v>
       </c>
       <c r="D181" s="1">
-        <v>626</v>
-      </c>
-      <c r="E181">
-        <v>511</v>
-      </c>
-      <c r="K181" s="7" t="s">
-        <v>149</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="E181" s="1">
+        <v>144</v>
+      </c>
+      <c r="H181" s="1">
+        <v>3</v>
+      </c>
+      <c r="I181" s="1"/>
+      <c r="J181">
+        <f>E181-F181+H181-D181</f>
+        <v>0</v>
+      </c>
+      <c r="K181" s="2"/>
       <c r="L181" s="1"/>
+      <c r="O181" s="2"/>
+      <c r="P181" s="1"/>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>8</v>
+      </c>
+      <c r="B182" t="s">
+        <v>138</v>
+      </c>
       <c r="C182" s="2" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="D182" s="1">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="E182" s="1">
-        <v>206</v>
-      </c>
-      <c r="K182" s="7" t="s">
-        <v>149</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F182" s="1">
+        <v>151</v>
+      </c>
+      <c r="G182" s="1"/>
+      <c r="H182" s="1">
+        <v>31</v>
+      </c>
+      <c r="I182" s="1"/>
+      <c r="J182">
+        <f>E182-F182+H182-D182</f>
+        <v>0</v>
+      </c>
+      <c r="K182" s="2"/>
       <c r="L182" s="1"/>
+      <c r="O182" s="2"/>
+      <c r="P182" s="1"/>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C183" s="2"/>
+      <c r="A183">
+        <v>8.1</v>
+      </c>
+      <c r="B183" t="s">
+        <v>138</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D183" s="1">
+        <v>126</v>
+      </c>
+      <c r="E183" s="1">
+        <v>126</v>
+      </c>
+      <c r="F183" s="1"/>
+      <c r="G183" s="1"/>
+      <c r="H183" s="1"/>
+      <c r="I183" s="1"/>
+      <c r="K183" s="2"/>
+      <c r="L183" s="1"/>
+      <c r="O183" s="2"/>
+      <c r="P183" s="1"/>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C184" s="2"/>
-      <c r="D184" t="s">
-        <v>9</v>
-      </c>
-      <c r="E184" t="s">
-        <v>60</v>
-      </c>
-      <c r="F184" t="s">
-        <v>61</v>
-      </c>
-      <c r="G184" t="s">
-        <v>10</v>
-      </c>
-      <c r="H184" t="s">
-        <v>65</v>
-      </c>
+      <c r="H184" s="1"/>
+      <c r="I184" s="1"/>
+      <c r="K184" s="2"/>
+      <c r="L184" s="1"/>
+      <c r="O184" s="2"/>
+      <c r="P184" s="1"/>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C185" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D185" s="1"/>
+        <v>139</v>
+      </c>
+      <c r="D185" s="1">
+        <f>D177</f>
+        <v>632</v>
+      </c>
+      <c r="E185">
+        <f>SUM(D172:D176,D178)</f>
+        <v>632</v>
+      </c>
+      <c r="F185">
+        <f>D185-E185</f>
+        <v>0</v>
+      </c>
+      <c r="K185" s="2"/>
+      <c r="L185" s="1"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A186">
-        <v>4</v>
-      </c>
-      <c r="B186" t="s">
-        <v>53</v>
-      </c>
       <c r="C186" s="2" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="D186" s="1">
-        <v>319</v>
+        <v>369</v>
       </c>
       <c r="E186" s="1">
-        <v>319</v>
-      </c>
-      <c r="J186">
-        <f>E186-F186+H186-D186</f>
+        <v>369</v>
+      </c>
+      <c r="F186">
+        <f>D186-E186</f>
         <v>0</v>
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="1"/>
-      <c r="M186" s="4"/>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A187">
-        <v>3</v>
-      </c>
-      <c r="B187" t="s">
-        <v>53</v>
-      </c>
-      <c r="C187" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D187" s="1">
-        <v>724</v>
-      </c>
-      <c r="E187" s="1">
-        <v>4768</v>
-      </c>
-      <c r="F187" s="1">
-        <v>4044</v>
-      </c>
-      <c r="G187" s="1">
-        <v>74</v>
-      </c>
-      <c r="J187">
-        <f>E187-F187+H187-D187</f>
-        <v>0</v>
-      </c>
+      <c r="C187" s="2"/>
       <c r="K187" s="2"/>
       <c r="L187" s="1"/>
-      <c r="M187" s="4"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A188">
-        <v>2</v>
-      </c>
-      <c r="B188" t="s">
-        <v>53</v>
-      </c>
-      <c r="C188" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D188" s="1">
-        <v>264</v>
-      </c>
-      <c r="E188" s="1">
-        <v>5034</v>
-      </c>
-      <c r="F188" s="1">
-        <v>4770</v>
-      </c>
-      <c r="G188" s="1">
-        <v>4</v>
-      </c>
-      <c r="J188">
-        <f>E188-F188+H188-D188</f>
-        <v>0</v>
+      <c r="C188" s="2"/>
+      <c r="D188" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" t="s">
+        <v>60</v>
+      </c>
+      <c r="F188" t="s">
+        <v>61</v>
+      </c>
+      <c r="G188" t="s">
+        <v>10</v>
+      </c>
+      <c r="H188" t="s">
+        <v>65</v>
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="1"/>
-      <c r="M188" s="4"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A189">
-        <v>1</v>
-      </c>
-      <c r="B189" t="s">
-        <v>53</v>
-      </c>
       <c r="C189" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D189" s="1">
-        <v>3054</v>
-      </c>
-      <c r="E189" s="1">
-        <v>8093</v>
-      </c>
-      <c r="F189" s="1">
-        <v>5039</v>
-      </c>
-      <c r="G189" s="1">
-        <v>32</v>
-      </c>
-      <c r="J189">
-        <f>E189-F189+H189-D189</f>
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D189" s="1"/>
       <c r="K189" s="2"/>
       <c r="L189" s="1"/>
-      <c r="M189" s="4"/>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B190" t="s">
         <v>53</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D190" s="1">
-        <v>2997</v>
+        <v>319</v>
       </c>
       <c r="E190" s="1">
-        <v>2997</v>
+        <v>319</v>
       </c>
       <c r="J190">
-        <f>E190-F190+H190-D190</f>
+        <f t="shared" ref="J190:J202" si="7">E190-F190+H190-D190</f>
         <v>0</v>
       </c>
       <c r="K190" s="2"/>
@@ -5179,28 +5193,28 @@
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B191" t="s">
         <v>53</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D191" s="1">
-        <v>259</v>
+        <v>724</v>
       </c>
       <c r="E191" s="1">
-        <v>1189</v>
+        <v>4768</v>
       </c>
       <c r="F191" s="1">
-        <v>930</v>
+        <v>4044</v>
       </c>
       <c r="G191" s="1">
-        <v>259</v>
+        <v>74</v>
       </c>
       <c r="J191">
-        <f>E191-F191+H191-D191</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K191" s="2"/>
@@ -5209,28 +5223,28 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="B192" t="s">
         <v>53</v>
       </c>
       <c r="C192" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D192" s="1">
+        <v>264</v>
+      </c>
+      <c r="E192" s="1">
+        <v>5034</v>
+      </c>
+      <c r="F192" s="1">
+        <v>4770</v>
+      </c>
+      <c r="G192" s="1">
         <v>4</v>
       </c>
-      <c r="D192" s="1">
-        <v>197</v>
-      </c>
-      <c r="E192" s="1">
-        <v>4014</v>
-      </c>
-      <c r="F192" s="1">
-        <v>3817</v>
-      </c>
-      <c r="G192" s="1">
-        <v>197</v>
-      </c>
       <c r="J192">
-        <f>E192-F192+H192-D192</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K192" s="2"/>
@@ -5239,22 +5253,28 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B193" t="s">
         <v>53</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D193" s="1">
-        <v>4071</v>
+        <v>3054</v>
       </c>
       <c r="E193" s="1">
-        <v>4071</v>
+        <v>8093</v>
+      </c>
+      <c r="F193" s="1">
+        <v>5039</v>
+      </c>
+      <c r="G193" s="1">
+        <v>32</v>
       </c>
       <c r="J193">
-        <f>E193-F193+H193-D193</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K193" s="2"/>
@@ -5263,22 +5283,22 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="B194" t="s">
         <v>53</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D194" s="1">
-        <v>1323</v>
+        <v>2997</v>
       </c>
       <c r="E194" s="1">
-        <v>1323</v>
+        <v>2997</v>
       </c>
       <c r="J194">
-        <f>E194-F194+H194-D194</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K194" s="2"/>
@@ -5287,28 +5307,28 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B195" t="s">
         <v>53</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D195" s="1">
-        <v>47</v>
+        <v>259</v>
       </c>
       <c r="E195" s="1">
-        <v>1629</v>
+        <v>1189</v>
       </c>
       <c r="F195" s="1">
-        <v>1582</v>
+        <v>930</v>
       </c>
       <c r="G195" s="1">
-        <v>47</v>
+        <v>259</v>
       </c>
       <c r="J195">
-        <f>E195-F195+H195-D195</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K195" s="2"/>
@@ -5317,28 +5337,28 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B196" t="s">
         <v>53</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D196" s="1">
-        <v>408</v>
+        <v>197</v>
       </c>
       <c r="E196" s="1">
-        <v>1564</v>
+        <v>4014</v>
       </c>
       <c r="F196" s="1">
-        <v>1156</v>
+        <v>3817</v>
       </c>
       <c r="G196" s="1">
-        <v>408</v>
+        <v>197</v>
       </c>
       <c r="J196">
-        <f>E196-F196+H196-D196</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K196" s="2"/>
@@ -5347,25 +5367,22 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B197" t="s">
         <v>53</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D197" s="1">
-        <v>1266</v>
+        <v>4071</v>
       </c>
       <c r="E197" s="1">
-        <v>1266</v>
-      </c>
-      <c r="G197" s="1">
-        <v>571</v>
+        <v>4071</v>
       </c>
       <c r="J197">
-        <f>E197-F197+H197-D197</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K197" s="2"/>
@@ -5374,25 +5391,22 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B198" t="s">
         <v>53</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D198" s="1">
-        <v>571</v>
+        <v>1323</v>
       </c>
       <c r="E198" s="1">
-        <v>2187</v>
-      </c>
-      <c r="F198" s="1">
-        <v>1616</v>
+        <v>1323</v>
       </c>
       <c r="J198">
-        <f>E198-F198+H198-D198</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K198" s="2"/>
@@ -5400,200 +5414,200 @@
       <c r="M198" s="4"/>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C199" s="2"/>
+      <c r="A199">
+        <v>9</v>
+      </c>
+      <c r="B199" t="s">
+        <v>53</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D199" s="1">
+        <v>47</v>
+      </c>
+      <c r="E199" s="1">
+        <v>1629</v>
+      </c>
+      <c r="F199" s="1">
+        <v>1582</v>
+      </c>
+      <c r="G199" s="1">
+        <v>47</v>
+      </c>
+      <c r="J199">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="K199" s="2"/>
       <c r="L199" s="1"/>
       <c r="M199" s="4"/>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>11</v>
+      </c>
+      <c r="B200" t="s">
+        <v>53</v>
+      </c>
       <c r="C200" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D200">
-        <v>2997</v>
-      </c>
-      <c r="E200">
-        <v>2997</v>
-      </c>
-      <c r="J200" t="s">
-        <v>62</v>
+        <v>6</v>
+      </c>
+      <c r="D200" s="1">
+        <v>408</v>
+      </c>
+      <c r="E200" s="1">
+        <v>1564</v>
+      </c>
+      <c r="F200" s="1">
+        <v>1156</v>
+      </c>
+      <c r="G200" s="1">
+        <v>408</v>
+      </c>
+      <c r="J200">
+        <f t="shared" si="7"/>
+        <v>0</v>
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="1"/>
+      <c r="M200" s="4"/>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>13</v>
+      </c>
+      <c r="B201" t="s">
+        <v>53</v>
+      </c>
       <c r="C201" s="2" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="D201" s="1">
-        <v>4071</v>
+        <v>1266</v>
       </c>
       <c r="E201" s="1">
-        <v>4071</v>
-      </c>
-      <c r="J201" t="s">
+        <v>1266</v>
+      </c>
+      <c r="G201" s="1">
+        <v>571</v>
+      </c>
+      <c r="J201">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K201" s="2"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="4"/>
+    </row>
+    <row r="202" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>10</v>
+      </c>
+      <c r="B202" t="s">
+        <v>53</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D202" s="1">
+        <v>571</v>
+      </c>
+      <c r="E202" s="1">
+        <v>2187</v>
+      </c>
+      <c r="F202" s="1">
+        <v>1616</v>
+      </c>
+      <c r="J202">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K202" s="2"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="4"/>
+    </row>
+    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C203" s="2"/>
+      <c r="K203" s="2"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="4"/>
+    </row>
+    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C204" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D204">
+        <v>2997</v>
+      </c>
+      <c r="E204">
+        <v>2997</v>
+      </c>
+      <c r="J204" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D203" t="s">
-        <v>9</v>
-      </c>
-      <c r="E203" t="s">
-        <v>60</v>
-      </c>
-      <c r="F203" t="s">
-        <v>61</v>
-      </c>
-      <c r="G203" t="s">
-        <v>10</v>
-      </c>
-      <c r="H203" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A204">
-        <v>1</v>
-      </c>
-      <c r="B204" t="s">
-        <v>115</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D204" s="1">
-        <v>56</v>
-      </c>
-      <c r="E204" s="1">
-        <v>675</v>
-      </c>
-      <c r="F204" s="1">
-        <v>620</v>
-      </c>
-      <c r="G204" s="1">
-        <v>1</v>
-      </c>
-      <c r="H204" s="1">
-        <v>1</v>
-      </c>
-      <c r="I204" s="1"/>
-      <c r="J204">
-        <f t="shared" ref="J204:J220" si="5">E204-F204+H204-D204</f>
-        <v>0</v>
       </c>
       <c r="K204" s="2"/>
       <c r="L204" s="1"/>
-      <c r="M204" s="1"/>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>2</v>
-      </c>
-      <c r="B205" t="s">
-        <v>115</v>
-      </c>
       <c r="C205" s="2" t="s">
-        <v>1</v>
+        <v>58</v>
       </c>
       <c r="D205" s="1">
-        <v>182</v>
+        <v>4071</v>
       </c>
       <c r="E205" s="1">
-        <v>935</v>
-      </c>
-      <c r="F205" s="1">
-        <v>753</v>
-      </c>
-      <c r="G205" s="1">
-        <v>73</v>
-      </c>
-      <c r="H205" s="1"/>
-      <c r="I205" s="1"/>
-      <c r="J205">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K205" s="2"/>
-      <c r="L205" s="1"/>
-      <c r="M205" s="1"/>
-    </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>3</v>
-      </c>
-      <c r="B206" t="s">
-        <v>115</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D206" s="1">
-        <v>155</v>
-      </c>
-      <c r="E206" s="1">
-        <v>1046</v>
-      </c>
-      <c r="F206" s="1">
-        <v>891</v>
-      </c>
-      <c r="G206" s="1">
-        <v>106</v>
-      </c>
-      <c r="J206">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K206" s="2"/>
-      <c r="L206" s="1"/>
-      <c r="M206" s="1"/>
+        <v>4071</v>
+      </c>
+      <c r="J205" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>4</v>
-      </c>
-      <c r="B207" t="s">
-        <v>115</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D207" s="1">
-        <v>1013</v>
-      </c>
-      <c r="E207" s="1">
-        <v>1013</v>
-      </c>
-      <c r="J207">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="K207" s="2"/>
-      <c r="L207" s="1"/>
-      <c r="M207" s="1"/>
+      <c r="D207" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" t="s">
+        <v>60</v>
+      </c>
+      <c r="F207" t="s">
+        <v>61</v>
+      </c>
+      <c r="G207" t="s">
+        <v>10</v>
+      </c>
+      <c r="H207" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B208" t="s">
         <v>115</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D208" s="1">
-        <v>1343</v>
+        <v>56</v>
       </c>
       <c r="E208" s="1">
-        <v>1013</v>
+        <v>675</v>
+      </c>
+      <c r="F208" s="1">
+        <v>620</v>
+      </c>
+      <c r="G208" s="1">
+        <v>1</v>
       </c>
       <c r="H208" s="1">
-        <v>330</v>
+        <v>1</v>
       </c>
       <c r="I208" s="1"/>
       <c r="J208">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J208:J224" si="8">E208-F208+H208-D208</f>
         <v>0</v>
       </c>
       <c r="K208" s="2"/>
@@ -5602,28 +5616,30 @@
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B209" t="s">
         <v>115</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="D209" s="1">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="E209" s="1">
-        <v>554</v>
+        <v>935</v>
       </c>
       <c r="F209" s="1">
-        <v>351</v>
+        <v>753</v>
       </c>
       <c r="G209" s="1">
-        <v>85</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="H209" s="1"/>
+      <c r="I209" s="1"/>
       <c r="J209">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K209" s="2"/>
@@ -5632,28 +5648,28 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B210" t="s">
         <v>115</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="D210" s="1">
-        <v>264</v>
+        <v>155</v>
       </c>
       <c r="E210" s="1">
-        <v>592</v>
+        <v>1046</v>
       </c>
       <c r="F210" s="1">
-        <v>328</v>
+        <v>891</v>
       </c>
       <c r="G210" s="1">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="J210">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K210" s="2"/>
@@ -5662,32 +5678,22 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B211" t="s">
         <v>115</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="D211" s="1">
-        <v>399</v>
+        <v>1013</v>
       </c>
       <c r="E211" s="1">
-        <v>523</v>
-      </c>
-      <c r="F211" s="1">
-        <v>172</v>
-      </c>
-      <c r="G211" s="1">
-        <v>25</v>
-      </c>
-      <c r="H211" s="1">
-        <v>48</v>
-      </c>
-      <c r="I211" s="1"/>
+        <v>1013</v>
+      </c>
       <c r="J211">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K211" s="2"/>
@@ -5696,32 +5702,26 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B212" t="s">
         <v>115</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D212" s="1">
-        <v>278</v>
+        <v>1343</v>
       </c>
       <c r="E212" s="1">
-        <v>186</v>
-      </c>
-      <c r="F212" s="1">
-        <v>190</v>
-      </c>
-      <c r="G212" s="1">
-        <v>106</v>
+        <v>1013</v>
       </c>
       <c r="H212" s="1">
-        <v>282</v>
+        <v>330</v>
       </c>
       <c r="I212" s="1"/>
       <c r="J212">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K212" s="2"/>
@@ -5730,28 +5730,28 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B213" t="s">
         <v>115</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D213" s="1">
-        <v>21</v>
+        <v>203</v>
       </c>
       <c r="E213" s="1">
-        <v>198</v>
+        <v>554</v>
       </c>
       <c r="F213" s="1">
-        <v>177</v>
+        <v>351</v>
       </c>
       <c r="G213" s="1">
-        <v>21</v>
+        <v>85</v>
       </c>
       <c r="J213">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K213" s="2"/>
@@ -5760,28 +5760,28 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B214" t="s">
         <v>115</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="D214" s="1">
-        <v>35</v>
+        <v>264</v>
       </c>
       <c r="E214" s="1">
-        <v>178</v>
+        <v>592</v>
       </c>
       <c r="F214" s="1">
-        <v>143</v>
+        <v>328</v>
       </c>
       <c r="G214" s="1">
-        <v>35</v>
+        <v>172</v>
       </c>
       <c r="J214">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K214" s="2"/>
@@ -5790,28 +5790,32 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B215" t="s">
         <v>115</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>111</v>
+        <v>14</v>
       </c>
       <c r="D215" s="1">
-        <v>6</v>
+        <v>399</v>
       </c>
       <c r="E215" s="1">
-        <v>114</v>
+        <v>523</v>
       </c>
       <c r="F215" s="1">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="G215" s="1">
-        <v>6</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="H215" s="1">
+        <v>48</v>
+      </c>
+      <c r="I215" s="1"/>
       <c r="J215">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K215" s="2"/>
@@ -5820,28 +5824,32 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B216" t="s">
         <v>115</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>112</v>
+        <v>8</v>
       </c>
       <c r="D216" s="1">
-        <v>1</v>
+        <v>278</v>
       </c>
       <c r="E216" s="1">
-        <v>110</v>
+        <v>186</v>
       </c>
       <c r="F216" s="1">
-        <v>109</v>
+        <v>190</v>
       </c>
       <c r="G216" s="1">
-        <v>1</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="H216" s="1">
+        <v>282</v>
+      </c>
+      <c r="I216" s="1"/>
       <c r="J216">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K216" s="2"/>
@@ -5850,28 +5858,28 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B217" t="s">
         <v>115</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>113</v>
+        <v>6</v>
       </c>
       <c r="D217" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E217" s="1">
-        <v>122</v>
+        <v>198</v>
       </c>
       <c r="F217" s="1">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="G217" s="1">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="J217">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K217" s="2"/>
@@ -5880,28 +5888,28 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B218" t="s">
         <v>115</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D218" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="E218" s="1">
-        <v>4</v>
+        <v>178</v>
       </c>
       <c r="F218" s="1">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="G218" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="J218">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K218" s="2"/>
@@ -5910,22 +5918,28 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B219" t="s">
         <v>115</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="D219" s="1">
-        <v>133</v>
+        <v>6</v>
       </c>
       <c r="E219" s="1">
-        <v>133</v>
+        <v>114</v>
+      </c>
+      <c r="F219" s="1">
+        <v>108</v>
+      </c>
+      <c r="G219" s="1">
+        <v>6</v>
       </c>
       <c r="J219">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K219" s="2"/>
@@ -5934,22 +5948,28 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B220" t="s">
         <v>115</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="D220" s="1">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="E220" s="1">
-        <v>133</v>
+        <v>110</v>
+      </c>
+      <c r="F220" s="1">
+        <v>109</v>
+      </c>
+      <c r="G220" s="1">
+        <v>1</v>
       </c>
       <c r="J220">
-        <f t="shared" si="5"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K220" s="2"/>
@@ -5957,231 +5977,247 @@
       <c r="M220" s="1"/>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>14</v>
+      </c>
+      <c r="B221" t="s">
+        <v>115</v>
+      </c>
+      <c r="C221" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D221" s="1">
+        <v>2</v>
+      </c>
+      <c r="E221" s="1">
+        <v>122</v>
+      </c>
+      <c r="F221" s="1">
+        <v>120</v>
+      </c>
+      <c r="G221" s="1">
+        <v>2</v>
+      </c>
+      <c r="J221">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="K221" s="2"/>
       <c r="L221" s="1"/>
       <c r="M221" s="1"/>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>15</v>
+      </c>
+      <c r="B222" t="s">
+        <v>115</v>
+      </c>
       <c r="C222" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D222">
-        <v>133</v>
-      </c>
-      <c r="E222">
-        <v>133</v>
-      </c>
-      <c r="J222" t="s">
-        <v>62</v>
+        <v>114</v>
+      </c>
+      <c r="D222" s="1">
+        <v>1</v>
+      </c>
+      <c r="E222" s="1">
+        <v>4</v>
+      </c>
+      <c r="F222" s="1">
+        <v>3</v>
+      </c>
+      <c r="G222" s="1">
+        <v>1</v>
+      </c>
+      <c r="J222">
+        <f t="shared" si="8"/>
+        <v>0</v>
       </c>
       <c r="K222" s="2"/>
       <c r="L222" s="1"/>
+      <c r="M222" s="1"/>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>16</v>
+      </c>
+      <c r="B223" t="s">
+        <v>115</v>
+      </c>
       <c r="C223" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D223" s="1">
+        <v>133</v>
+      </c>
+      <c r="E223" s="1">
+        <v>133</v>
+      </c>
+      <c r="J223">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K223" s="2"/>
+      <c r="L223" s="1"/>
+      <c r="M223" s="1"/>
+    </row>
+    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>17</v>
+      </c>
+      <c r="B224" t="s">
+        <v>115</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D224" s="1">
+        <v>133</v>
+      </c>
+      <c r="E224" s="1">
+        <v>133</v>
+      </c>
+      <c r="J224">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="K224" s="2"/>
+      <c r="L224" s="1"/>
+      <c r="M224" s="1"/>
+    </row>
+    <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K225" s="2"/>
+      <c r="L225" s="1"/>
+      <c r="M225" s="1"/>
+    </row>
+    <row r="226" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C226" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D226">
+        <v>133</v>
+      </c>
+      <c r="E226">
+        <v>133</v>
+      </c>
+      <c r="J226" t="s">
+        <v>62</v>
+      </c>
+      <c r="K226" s="2"/>
+      <c r="L226" s="1"/>
+    </row>
+    <row r="227" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C227" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D223">
+      <c r="D227">
         <v>1343</v>
       </c>
-      <c r="E223">
+      <c r="E227">
         <v>1343</v>
       </c>
-      <c r="J223" t="s">
+      <c r="J227" t="s">
         <v>62</v>
       </c>
-      <c r="K223" t="s">
+      <c r="K227" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C224" s="2" t="s">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C228" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D224">
+      <c r="D228">
         <v>1343</v>
       </c>
-      <c r="E224">
+      <c r="E228">
         <v>1343</v>
       </c>
-      <c r="J224" t="s">
+      <c r="J228" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C226" s="2" t="s">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C230" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D226" s="1"/>
-    </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C227" s="2"/>
-      <c r="D227" s="1"/>
-    </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D228" t="s">
+      <c r="D230" s="1"/>
+    </row>
+    <row r="231" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C231" s="2"/>
+      <c r="D231" s="1"/>
+    </row>
+    <row r="232" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D232" t="s">
         <v>9</v>
       </c>
-      <c r="E228" t="s">
+      <c r="E232" t="s">
         <v>60</v>
       </c>
-      <c r="F228" t="s">
+      <c r="F232" t="s">
         <v>61</v>
       </c>
-      <c r="G228" t="s">
+      <c r="G232" t="s">
         <v>10</v>
       </c>
-      <c r="H228" t="s">
+      <c r="H232" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A229">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A233">
         <v>1</v>
-      </c>
-      <c r="B229" t="s">
-        <v>124</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E229" s="1">
-        <v>17</v>
-      </c>
-      <c r="F229" s="1">
-        <v>17</v>
-      </c>
-      <c r="J229">
-        <f t="shared" ref="J229:J249" si="6">E229-F229+H229-D229</f>
-        <v>0</v>
-      </c>
-      <c r="K229" s="2"/>
-      <c r="L229" s="1"/>
-    </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A230">
-        <v>2</v>
-      </c>
-      <c r="B230" t="s">
-        <v>124</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="E230" s="1">
-        <v>14</v>
-      </c>
-      <c r="F230" s="1">
-        <v>14</v>
-      </c>
-      <c r="J230">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K230" s="2"/>
-      <c r="L230" s="1"/>
-    </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A231">
-        <v>3</v>
-      </c>
-      <c r="B231" t="s">
-        <v>124</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E231" s="1">
-        <v>11</v>
-      </c>
-      <c r="F231" s="1">
-        <v>11</v>
-      </c>
-      <c r="J231">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K231" s="2"/>
-      <c r="L231" s="1"/>
-    </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A232">
-        <v>4</v>
-      </c>
-      <c r="B232" t="s">
-        <v>124</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="E232" s="1">
-        <v>5</v>
-      </c>
-      <c r="F232" s="1">
-        <v>5</v>
-      </c>
-      <c r="J232">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K232" s="2"/>
-      <c r="L232" s="1"/>
-    </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>5</v>
       </c>
       <c r="B233" t="s">
         <v>124</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E233" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="F233" s="1">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="J233">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J233:J253" si="9">E233-F233+H233-D233</f>
         <v>0</v>
       </c>
       <c r="K233" s="2"/>
       <c r="L233" s="1"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B234" t="s">
         <v>124</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="E234" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F234" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J234">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="1"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B235" t="s">
         <v>124</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>23</v>
+        <v>128</v>
       </c>
       <c r="E235" s="1">
         <v>11</v>
@@ -6190,536 +6226,531 @@
         <v>11</v>
       </c>
       <c r="J235">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K235" s="2"/>
       <c r="L235" s="1"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B236" t="s">
         <v>124</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>35</v>
+        <v>129</v>
       </c>
       <c r="E236" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F236" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="J236">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K236" s="2"/>
       <c r="L236" s="1"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B237" t="s">
         <v>124</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D237" s="1">
-        <v>12</v>
+        <v>130</v>
       </c>
       <c r="E237" s="1">
-        <v>12</v>
+        <v>1</v>
+      </c>
+      <c r="F237" s="1">
+        <v>1</v>
       </c>
       <c r="J237">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K237" s="2"/>
       <c r="L237" s="1"/>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B238" t="s">
         <v>124</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D238" s="1">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="E238" s="1">
-        <v>5</v>
+        <v>11</v>
+      </c>
+      <c r="F238" s="1">
+        <v>11</v>
       </c>
       <c r="J238">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K238" s="2"/>
       <c r="L238" s="1"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B239" t="s">
         <v>124</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D239">
+        <v>23</v>
+      </c>
+      <c r="E239" s="1">
         <v>11</v>
       </c>
-      <c r="E239" s="1">
-        <v>608</v>
-      </c>
       <c r="F239" s="1">
-        <v>597</v>
-      </c>
-      <c r="G239" s="1">
         <v>11</v>
       </c>
       <c r="J239">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K239" s="2"/>
-    </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L239" s="1"/>
+    </row>
+    <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B240" t="s">
         <v>124</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D240" s="1">
+        <v>35</v>
+      </c>
+      <c r="E240" s="1">
         <v>9</v>
       </c>
-      <c r="E240" s="1">
-        <v>865</v>
-      </c>
       <c r="F240" s="1">
-        <v>856</v>
-      </c>
-      <c r="G240" s="1">
         <v>9</v>
       </c>
       <c r="J240">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K240" s="2"/>
       <c r="L240" s="1"/>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B241" t="s">
         <v>124</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="D241" s="1">
-        <v>916</v>
+        <v>12</v>
       </c>
       <c r="E241" s="1">
-        <v>916</v>
+        <v>12</v>
       </c>
       <c r="J241">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K241" s="2"/>
       <c r="L241" s="1"/>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B242" t="s">
         <v>124</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D242" s="1">
-        <v>916</v>
+        <v>5</v>
       </c>
       <c r="E242" s="1">
-        <v>916</v>
+        <v>5</v>
       </c>
       <c r="J242">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K242" s="2"/>
       <c r="L242" s="1"/>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B243" t="s">
         <v>124</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D243" s="1">
-        <v>74</v>
+        <v>2</v>
+      </c>
+      <c r="D243">
+        <v>11</v>
       </c>
       <c r="E243" s="1">
-        <v>862</v>
+        <v>608</v>
       </c>
       <c r="F243" s="1">
-        <v>788</v>
+        <v>597</v>
       </c>
       <c r="G243" s="1">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="J243">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K243" s="2"/>
-      <c r="L243" s="1"/>
-    </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B244" t="s">
         <v>124</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="D244" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E244" s="1">
-        <v>663</v>
+        <v>865</v>
       </c>
       <c r="F244" s="1">
-        <v>647</v>
+        <v>856</v>
       </c>
       <c r="G244" s="1">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="J244">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K244" s="2"/>
       <c r="L244" s="1"/>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B245" t="s">
         <v>124</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="D245" s="1">
+        <v>916</v>
       </c>
       <c r="E245" s="1">
-        <v>660</v>
-      </c>
-      <c r="F245" s="1">
-        <v>660</v>
+        <v>916</v>
       </c>
       <c r="J245">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K245" s="2"/>
       <c r="L245" s="1"/>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B246" t="s">
         <v>124</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="D246" s="1">
-        <v>140</v>
+        <v>916</v>
       </c>
       <c r="E246" s="1">
-        <v>140</v>
+        <v>916</v>
       </c>
       <c r="J246">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K246" s="2"/>
       <c r="L246" s="1"/>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B247" t="s">
         <v>124</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D247" s="1">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="E247" s="1">
-        <v>686</v>
+        <v>862</v>
       </c>
       <c r="F247" s="1">
-        <v>669</v>
+        <v>788</v>
       </c>
       <c r="G247" s="1">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="J247">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K247" s="2"/>
       <c r="L247" s="1"/>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B248" t="s">
         <v>124</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>125</v>
+        <v>14</v>
       </c>
       <c r="D248" s="1">
-        <v>409</v>
+        <v>16</v>
       </c>
       <c r="E248" s="1">
-        <v>409</v>
+        <v>663</v>
+      </c>
+      <c r="F248" s="1">
+        <v>647</v>
+      </c>
+      <c r="G248" s="1">
+        <v>16</v>
       </c>
       <c r="J248">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K248" s="2"/>
       <c r="L248" s="1"/>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B249" t="s">
         <v>124</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D249" s="1">
-        <v>260</v>
+        <v>8</v>
       </c>
       <c r="E249" s="1">
-        <v>260</v>
+        <v>660</v>
+      </c>
+      <c r="F249" s="1">
+        <v>660</v>
       </c>
       <c r="J249">
-        <f t="shared" si="6"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K249" s="2"/>
       <c r="L249" s="1"/>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C250" s="2"/>
+    <row r="250" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>18</v>
+      </c>
+      <c r="B250" t="s">
+        <v>124</v>
+      </c>
+      <c r="C250" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D250" s="1">
+        <v>140</v>
+      </c>
+      <c r="E250" s="1">
+        <v>140</v>
+      </c>
+      <c r="J250">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K250" s="2"/>
       <c r="L250" s="1"/>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>19</v>
+      </c>
+      <c r="B251" t="s">
+        <v>124</v>
+      </c>
       <c r="C251" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D251">
-        <v>916</v>
-      </c>
-      <c r="E251">
-        <v>916</v>
-      </c>
-      <c r="J251" t="s">
-        <v>62</v>
+        <v>6</v>
+      </c>
+      <c r="D251" s="1">
+        <v>17</v>
+      </c>
+      <c r="E251" s="1">
+        <v>686</v>
+      </c>
+      <c r="F251" s="1">
+        <v>669</v>
+      </c>
+      <c r="G251" s="1">
+        <v>17</v>
+      </c>
+      <c r="J251">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="K251" s="2"/>
       <c r="L251" s="1"/>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>20</v>
+      </c>
+      <c r="B252" t="s">
+        <v>124</v>
+      </c>
       <c r="C252" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D252">
-        <v>916</v>
-      </c>
-      <c r="E252">
-        <v>916</v>
-      </c>
-      <c r="J252" t="s">
-        <v>62</v>
+        <v>125</v>
+      </c>
+      <c r="D252" s="1">
+        <v>409</v>
+      </c>
+      <c r="E252" s="1">
+        <v>409</v>
+      </c>
+      <c r="J252">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
       <c r="K252" s="2"/>
       <c r="L252" s="1"/>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C253" s="2"/>
-      <c r="F253" s="3"/>
-    </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D254" t="s">
+    <row r="253" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>21</v>
+      </c>
+      <c r="B253" t="s">
+        <v>124</v>
+      </c>
+      <c r="C253" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D253" s="1">
+        <v>260</v>
+      </c>
+      <c r="E253" s="1">
+        <v>260</v>
+      </c>
+      <c r="J253">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K253" s="2"/>
+      <c r="L253" s="1"/>
+    </row>
+    <row r="254" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C254" s="2"/>
+      <c r="K254" s="2"/>
+      <c r="L254" s="1"/>
+    </row>
+    <row r="255" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C255" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D255">
+        <v>916</v>
+      </c>
+      <c r="E255">
+        <v>916</v>
+      </c>
+      <c r="J255" t="s">
+        <v>62</v>
+      </c>
+      <c r="K255" s="2"/>
+      <c r="L255" s="1"/>
+    </row>
+    <row r="256" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C256" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D256">
+        <v>916</v>
+      </c>
+      <c r="E256">
+        <v>916</v>
+      </c>
+      <c r="J256" t="s">
+        <v>62</v>
+      </c>
+      <c r="K256" s="2"/>
+      <c r="L256" s="1"/>
+    </row>
+    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C257" s="2"/>
+      <c r="F257" s="3"/>
+    </row>
+    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D258" t="s">
         <v>9</v>
       </c>
-      <c r="E254" t="s">
+      <c r="E258" t="s">
         <v>60</v>
       </c>
-      <c r="F254" t="s">
+      <c r="F258" t="s">
         <v>61</v>
       </c>
-      <c r="G254" t="s">
+      <c r="G258" t="s">
         <v>10</v>
       </c>
-      <c r="H254" t="s">
+      <c r="H258" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A255">
-        <v>1</v>
-      </c>
-      <c r="B255" t="s">
-        <v>107</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D255" s="1">
-        <v>312</v>
-      </c>
-      <c r="E255" s="1">
-        <v>312</v>
-      </c>
-      <c r="J255">
-        <f t="shared" ref="J255:J271" si="7">E255-F255+H255-D255</f>
-        <v>0</v>
-      </c>
-      <c r="K255" s="2"/>
-      <c r="L255" s="2"/>
-      <c r="M255" s="1"/>
-    </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A256">
-        <v>2</v>
-      </c>
-      <c r="B256" t="s">
-        <v>107</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D256" s="1"/>
-      <c r="E256" s="1">
-        <v>3528</v>
-      </c>
-      <c r="F256" s="1">
-        <v>3528</v>
-      </c>
-      <c r="G256" s="1"/>
-      <c r="J256">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K256" s="2"/>
-      <c r="L256" s="2"/>
-      <c r="M256" s="1"/>
-    </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A257">
-        <v>3</v>
-      </c>
-      <c r="B257" t="s">
-        <v>107</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E257" s="1">
-        <v>974</v>
-      </c>
-      <c r="F257" s="1">
-        <v>974</v>
-      </c>
-      <c r="J257">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="L257" s="2"/>
-      <c r="M257" s="1"/>
-    </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A258">
-        <v>4</v>
-      </c>
-      <c r="B258" t="s">
-        <v>107</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D258" s="1">
-        <v>72</v>
-      </c>
-      <c r="E258" s="1">
-        <v>72</v>
-      </c>
-      <c r="J258">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K258" s="2"/>
-      <c r="L258" s="2"/>
-      <c r="M258" s="1"/>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B259" t="s">
         <v>107</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="D259" s="1">
-        <v>4748</v>
+        <v>312</v>
       </c>
       <c r="E259" s="1">
-        <v>4748</v>
+        <v>312</v>
       </c>
       <c r="J259">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J259:J275" si="10">E259-F259+H259-D259</f>
         <v>0</v>
       </c>
       <c r="K259" s="2"/>
@@ -6728,25 +6759,24 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B260" t="s">
         <v>107</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D260" s="1">
-        <v>470</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D260" s="1"/>
       <c r="E260" s="1">
-        <v>470</v>
-      </c>
-      <c r="G260" s="1">
-        <v>470</v>
-      </c>
+        <v>3528</v>
+      </c>
+      <c r="F260" s="1">
+        <v>3528</v>
+      </c>
+      <c r="G260" s="1"/>
       <c r="J260">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K260" s="2"/>
@@ -6755,22 +6785,22 @@
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B261" t="s">
         <v>107</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D261" s="1">
-        <v>5218</v>
+        <v>1</v>
       </c>
       <c r="E261" s="1">
-        <v>5218</v>
+        <v>974</v>
+      </c>
+      <c r="F261" s="1">
+        <v>974</v>
       </c>
       <c r="J261">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L261" s="2"/>
@@ -6778,22 +6808,22 @@
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B262" t="s">
         <v>107</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D262">
-        <v>5218</v>
-      </c>
-      <c r="E262">
-        <v>5218</v>
+        <v>81</v>
+      </c>
+      <c r="D262" s="1">
+        <v>72</v>
+      </c>
+      <c r="E262" s="1">
+        <v>72</v>
       </c>
       <c r="J262">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K262" s="2"/>
@@ -6802,57 +6832,49 @@
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B263" t="s">
         <v>107</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D263" s="1">
-        <v>812</v>
+        <v>4748</v>
       </c>
       <c r="E263" s="1">
-        <v>4926</v>
-      </c>
-      <c r="F263" s="1">
-        <v>4114</v>
-      </c>
-      <c r="G263" s="1">
-        <v>812</v>
+        <v>4748</v>
       </c>
       <c r="J263">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K263" s="2"/>
       <c r="L263" s="2"/>
       <c r="M263" s="1"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B264" t="s">
         <v>107</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="D264" s="1">
-        <v>3410</v>
+        <v>470</v>
       </c>
       <c r="E264" s="1">
-        <v>3838</v>
-      </c>
-      <c r="F264" s="1">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="G264" s="1">
-        <v>3410</v>
+        <v>470</v>
       </c>
       <c r="J264">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K264" s="2"/>
@@ -6861,28 +6883,22 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B265" t="s">
         <v>107</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="D265" s="1">
-        <v>401</v>
+        <v>5218</v>
       </c>
       <c r="E265" s="1">
-        <v>890</v>
-      </c>
-      <c r="F265" s="1">
-        <v>489</v>
-      </c>
-      <c r="G265" s="1">
-        <v>401</v>
+        <v>5218</v>
       </c>
       <c r="J265">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L265" s="2"/>
@@ -6890,57 +6906,52 @@
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A266">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B266" t="s">
         <v>107</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D266" s="1">
-        <v>167</v>
-      </c>
-      <c r="E266" s="1">
-        <v>240</v>
-      </c>
-      <c r="F266" s="1">
-        <v>73</v>
-      </c>
-      <c r="G266" s="1">
-        <v>167</v>
+        <v>4</v>
+      </c>
+      <c r="D266">
+        <v>5218</v>
+      </c>
+      <c r="E266">
+        <v>5218</v>
       </c>
       <c r="J266">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K266" s="2"/>
       <c r="L266" s="2"/>
       <c r="M266" s="1"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B267" t="s">
         <v>107</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D267" s="1">
-        <v>60</v>
+        <v>812</v>
       </c>
       <c r="E267" s="1">
-        <v>108</v>
+        <v>4926</v>
       </c>
       <c r="F267" s="1">
-        <v>48</v>
+        <v>4114</v>
       </c>
       <c r="G267" s="1">
-        <v>60</v>
+        <v>812</v>
       </c>
       <c r="J267">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L267" s="2"/>
@@ -6948,45 +6959,58 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B268" t="s">
         <v>107</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>54</v>
+        <v>13</v>
       </c>
       <c r="D268" s="1">
-        <v>122</v>
+        <v>3410</v>
       </c>
       <c r="E268" s="1">
-        <v>122</v>
+        <v>3838</v>
+      </c>
+      <c r="F268" s="1">
+        <v>428</v>
+      </c>
+      <c r="G268" s="1">
+        <v>3410</v>
       </c>
       <c r="J268">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K268" s="2"/>
       <c r="L268" s="2"/>
       <c r="M268" s="1"/>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B269" t="s">
         <v>107</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D269" s="1">
-        <v>72</v>
+        <v>401</v>
       </c>
       <c r="E269" s="1">
-        <v>72</v>
+        <v>890</v>
+      </c>
+      <c r="F269" s="1">
+        <v>489</v>
+      </c>
+      <c r="G269" s="1">
+        <v>401</v>
       </c>
       <c r="J269">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L269" s="2"/>
@@ -6994,22 +7018,28 @@
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B270" t="s">
         <v>107</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D270" s="1">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="E270" s="1">
-        <v>174</v>
+        <v>240</v>
+      </c>
+      <c r="F270" s="1">
+        <v>73</v>
+      </c>
+      <c r="G270" s="1">
+        <v>167</v>
       </c>
       <c r="J270">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L270" s="2"/>
@@ -7017,398 +7047,375 @@
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B271" t="s">
         <v>107</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="D271" s="1">
-        <v>584</v>
+        <v>60</v>
       </c>
       <c r="E271" s="1">
-        <v>584</v>
+        <v>108</v>
+      </c>
+      <c r="F271" s="1">
+        <v>48</v>
+      </c>
+      <c r="G271" s="1">
+        <v>60</v>
       </c>
       <c r="J271">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="L271" s="2"/>
       <c r="M271" s="1"/>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C272" s="2"/>
+      <c r="A272">
+        <v>14</v>
+      </c>
+      <c r="B272" t="s">
+        <v>107</v>
+      </c>
+      <c r="C272" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D272" s="1">
+        <v>122</v>
+      </c>
+      <c r="E272" s="1">
+        <v>122</v>
+      </c>
+      <c r="J272">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
       <c r="L272" s="2"/>
       <c r="M272" s="1"/>
     </row>
-    <row r="273" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>15</v>
+      </c>
+      <c r="B273" t="s">
+        <v>107</v>
+      </c>
       <c r="C273" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D273" s="1">
+        <v>72</v>
+      </c>
+      <c r="E273" s="1">
+        <v>72</v>
+      </c>
+      <c r="J273">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L273" s="2"/>
+      <c r="M273" s="1"/>
+    </row>
+    <row r="274" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>16</v>
+      </c>
+      <c r="B274" t="s">
+        <v>107</v>
+      </c>
+      <c r="C274" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D274" s="1">
+        <v>174</v>
+      </c>
+      <c r="E274" s="1">
+        <v>174</v>
+      </c>
+      <c r="J274">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L274" s="2"/>
+      <c r="M274" s="1"/>
+    </row>
+    <row r="275" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>17</v>
+      </c>
+      <c r="B275" t="s">
+        <v>107</v>
+      </c>
+      <c r="C275" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D275" s="1">
+        <v>584</v>
+      </c>
+      <c r="E275" s="1">
+        <v>584</v>
+      </c>
+      <c r="J275">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L275" s="2"/>
+      <c r="M275" s="1"/>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C276" s="2"/>
+      <c r="L276" s="2"/>
+      <c r="M276" s="1"/>
+    </row>
+    <row r="277" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C277" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D273" s="1">
+      <c r="D277" s="1">
         <v>246</v>
       </c>
-      <c r="E273">
+      <c r="E277">
         <v>584</v>
       </c>
-      <c r="K273" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="274" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C274" s="2" t="s">
+      <c r="K277" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="278" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C278" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D274">
+      <c r="D278">
         <v>5218</v>
       </c>
-      <c r="E274">
+      <c r="E278">
         <v>5218</v>
       </c>
-      <c r="F274">
+      <c r="F278">
         <v>5218</v>
       </c>
-      <c r="K274" t="s">
+      <c r="K278" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="275" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C275" s="2" t="s">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C279" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D275">
+      <c r="D279">
         <v>5218</v>
       </c>
-      <c r="E275">
+      <c r="E279">
         <v>5218</v>
       </c>
-      <c r="K275" t="s">
+      <c r="K279" t="s">
         <v>120</v>
       </c>
-      <c r="L275" s="3" t="s">
+      <c r="L279" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="276" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C276" s="2" t="s">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C280" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D276">
+      <c r="D280">
         <v>5218</v>
       </c>
-      <c r="E276">
+      <c r="E280">
         <v>5556</v>
       </c>
-      <c r="L276" s="3" t="s">
+      <c r="L280" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="277" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C277" s="2"/>
-    </row>
-    <row r="278" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D278" t="s">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C281" s="2"/>
+    </row>
+    <row r="282" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D282" t="s">
         <v>9</v>
       </c>
-      <c r="E278" t="s">
+      <c r="E282" t="s">
         <v>60</v>
       </c>
-      <c r="F278" t="s">
+      <c r="F282" t="s">
         <v>61</v>
       </c>
-      <c r="G278" t="s">
+      <c r="G282" t="s">
         <v>10</v>
       </c>
-      <c r="H278" t="s">
+      <c r="H282" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="279" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A279">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A283">
         <v>3</v>
-      </c>
-      <c r="B279" t="s">
-        <v>102</v>
-      </c>
-      <c r="C279" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D279" s="1">
-        <v>48</v>
-      </c>
-      <c r="E279" s="1">
-        <v>47</v>
-      </c>
-      <c r="H279" s="1">
-        <v>1</v>
-      </c>
-      <c r="I279" s="1"/>
-      <c r="J279">
-        <f>E279-F279+H279-D279</f>
-        <v>0</v>
-      </c>
-      <c r="K279" s="2"/>
-      <c r="L279" s="1"/>
-    </row>
-    <row r="280" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A280">
-        <v>4</v>
-      </c>
-      <c r="B280" t="s">
-        <v>102</v>
-      </c>
-      <c r="C280" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D280" s="1">
-        <v>58</v>
-      </c>
-      <c r="E280" s="1">
-        <v>138</v>
-      </c>
-      <c r="F280" s="1">
-        <v>80</v>
-      </c>
-      <c r="G280" s="1">
-        <v>58</v>
-      </c>
-      <c r="J280">
-        <f>E280-F280+H280-D280</f>
-        <v>0</v>
-      </c>
-      <c r="K280" s="2"/>
-      <c r="L280" s="1"/>
-    </row>
-    <row r="281" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A281">
-        <v>6</v>
-      </c>
-      <c r="B281" t="s">
-        <v>102</v>
-      </c>
-      <c r="C281" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D281" s="1">
-        <v>1067</v>
-      </c>
-      <c r="E281" s="1">
-        <v>1035</v>
-      </c>
-      <c r="H281" s="1">
-        <v>32</v>
-      </c>
-      <c r="I281" s="1"/>
-      <c r="J281">
-        <f>E281-F281+H281-D281</f>
-        <v>0</v>
-      </c>
-      <c r="K281" s="2"/>
-      <c r="L281" s="1"/>
-    </row>
-    <row r="282" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A282">
-        <v>5</v>
-      </c>
-      <c r="B282" t="s">
-        <v>102</v>
-      </c>
-      <c r="C282" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D282" s="1">
-        <v>1067</v>
-      </c>
-      <c r="E282" s="1">
-        <v>1035</v>
-      </c>
-      <c r="H282" s="1">
-        <v>32</v>
-      </c>
-      <c r="I282" s="1"/>
-      <c r="J282">
-        <f>E282-F282+H282-D282</f>
-        <v>0</v>
-      </c>
-      <c r="K282" s="2"/>
-      <c r="L282" s="1"/>
-    </row>
-    <row r="283" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A283">
-        <v>7</v>
       </c>
       <c r="B283" t="s">
         <v>102</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D283" s="1">
-        <v>553</v>
+        <v>48</v>
       </c>
       <c r="E283" s="1">
-        <v>949</v>
-      </c>
-      <c r="F283" s="1">
-        <v>401</v>
-      </c>
-      <c r="G283" s="1">
-        <v>553</v>
+        <v>47</v>
       </c>
       <c r="H283" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I283" s="1"/>
       <c r="J283">
-        <f>E283-F283+H283-D283</f>
+        <f t="shared" ref="J283:J294" si="11">E283-F283+H283-D283</f>
         <v>0</v>
       </c>
       <c r="K283" s="2"/>
       <c r="L283" s="1"/>
     </row>
-    <row r="284" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B284" t="s">
         <v>102</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="D284" s="1">
-        <v>191</v>
+        <v>58</v>
       </c>
       <c r="E284" s="1">
-        <v>191</v>
-      </c>
-      <c r="H284" s="1"/>
-      <c r="I284" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="F284" s="1">
+        <v>80</v>
+      </c>
+      <c r="G284" s="1">
+        <v>58</v>
+      </c>
       <c r="J284">
-        <f>E284-F284+H284-D284</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K284" s="2"/>
       <c r="L284" s="1"/>
     </row>
-    <row r="285" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B285" t="s">
         <v>102</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D285" s="1">
-        <v>3</v>
+        <v>1067</v>
       </c>
       <c r="E285" s="1">
-        <v>256</v>
-      </c>
-      <c r="F285" s="1">
-        <v>253</v>
-      </c>
-      <c r="G285" s="1">
-        <v>3</v>
-      </c>
-      <c r="H285" s="1"/>
+        <v>1035</v>
+      </c>
+      <c r="H285" s="1">
+        <v>32</v>
+      </c>
       <c r="I285" s="1"/>
       <c r="J285">
-        <f>E285-F285+H285-D285</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K285" s="2"/>
       <c r="L285" s="1"/>
     </row>
-    <row r="286" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B286" t="s">
         <v>102</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D286" s="1">
-        <v>45</v>
+        <v>1067</v>
       </c>
       <c r="E286" s="1">
-        <v>121</v>
-      </c>
-      <c r="F286" s="1">
-        <v>103</v>
-      </c>
-      <c r="G286" s="1">
-        <v>45</v>
+        <v>1035</v>
       </c>
       <c r="H286" s="1">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="I286" s="1"/>
       <c r="J286">
-        <f>E286-F286+H286-D286</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K286" s="2"/>
       <c r="L286" s="1"/>
     </row>
-    <row r="287" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B287" t="s">
         <v>102</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="D287" s="1">
-        <v>10</v>
+        <v>553</v>
       </c>
       <c r="E287" s="1">
-        <v>47</v>
+        <v>949</v>
       </c>
       <c r="F287" s="1">
-        <v>37</v>
+        <v>401</v>
       </c>
       <c r="G287" s="1">
-        <v>9</v>
-      </c>
+        <v>553</v>
+      </c>
+      <c r="H287" s="1">
+        <v>5</v>
+      </c>
+      <c r="I287" s="1"/>
       <c r="J287">
-        <f>E287-F287+H287-D287</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K287" s="2"/>
       <c r="L287" s="1"/>
     </row>
-    <row r="288" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A288">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B288" t="s">
         <v>102</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="D288" s="1">
-        <v>48</v>
+        <v>191</v>
       </c>
       <c r="E288" s="1">
-        <v>47</v>
-      </c>
-      <c r="F288" s="1"/>
-      <c r="H288" s="1">
-        <v>1</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="H288" s="1"/>
       <c r="I288" s="1"/>
       <c r="J288">
-        <f>E288-F288+H288-D288</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K288" s="2"/>
@@ -7416,22 +7423,30 @@
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A289">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B289" t="s">
         <v>102</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="D289" s="1">
-        <v>275</v>
+        <v>3</v>
       </c>
       <c r="E289" s="1">
-        <v>275</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="F289" s="1">
+        <v>253</v>
+      </c>
+      <c r="G289" s="1">
+        <v>3</v>
+      </c>
+      <c r="H289" s="1"/>
+      <c r="I289" s="1"/>
       <c r="J289">
-        <f>E289-F289+H289-D289</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K289" s="2"/>
@@ -7439,524 +7454,557 @@
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B290" t="s">
         <v>102</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D290" s="1">
-        <v>275</v>
+        <v>45</v>
       </c>
       <c r="E290" s="1">
-        <v>275</v>
-      </c>
+        <v>121</v>
+      </c>
+      <c r="F290" s="1">
+        <v>103</v>
+      </c>
+      <c r="G290" s="1">
+        <v>45</v>
+      </c>
+      <c r="H290" s="1">
+        <v>27</v>
+      </c>
+      <c r="I290" s="1"/>
       <c r="J290">
-        <f>E290-F290+H290-D290</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K290" s="2"/>
       <c r="L290" s="1"/>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C291" s="2"/>
+      <c r="A291">
+        <v>1</v>
+      </c>
+      <c r="B291" t="s">
+        <v>102</v>
+      </c>
+      <c r="C291" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D291" s="1">
+        <v>10</v>
+      </c>
+      <c r="E291" s="1">
+        <v>47</v>
+      </c>
+      <c r="F291" s="1">
+        <v>37</v>
+      </c>
+      <c r="G291" s="1">
+        <v>9</v>
+      </c>
+      <c r="J291">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
       <c r="K291" s="2"/>
       <c r="L291" s="1"/>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>2</v>
+      </c>
+      <c r="B292" t="s">
+        <v>102</v>
+      </c>
       <c r="C292" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D292">
-        <v>1067</v>
-      </c>
-      <c r="E292">
-        <v>1067</v>
-      </c>
-      <c r="J292" t="s">
-        <v>62</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="D292" s="1">
+        <v>48</v>
+      </c>
+      <c r="E292" s="1">
+        <v>47</v>
+      </c>
+      <c r="F292" s="1"/>
+      <c r="H292" s="1">
+        <v>1</v>
+      </c>
+      <c r="I292" s="1"/>
+      <c r="J292">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K292" s="2"/>
+      <c r="L292" s="1"/>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>11</v>
+      </c>
+      <c r="B293" t="s">
+        <v>102</v>
+      </c>
       <c r="C293" s="2" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="D293" s="1">
-        <v>1067</v>
+        <v>275</v>
       </c>
       <c r="E293" s="1">
-        <v>1067</v>
-      </c>
-      <c r="J293" t="s">
-        <v>62</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="J293">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K293" s="2"/>
+      <c r="L293" s="1"/>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>12</v>
+      </c>
+      <c r="B294" t="s">
+        <v>102</v>
+      </c>
       <c r="C294" s="2" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="D294" s="1">
-        <v>48</v>
-      </c>
-      <c r="E294">
-        <v>48</v>
-      </c>
-      <c r="J294" t="s">
-        <v>62</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="E294" s="1">
+        <v>275</v>
+      </c>
+      <c r="J294">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K294" s="2"/>
+      <c r="L294" s="1"/>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C295" s="2"/>
-      <c r="D295" s="1"/>
+      <c r="K295" s="2"/>
+      <c r="L295" s="1"/>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D296" t="s">
+      <c r="C296" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D296">
+        <v>1067</v>
+      </c>
+      <c r="E296">
+        <v>1067</v>
+      </c>
+      <c r="J296" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C297" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D297" s="1">
+        <v>1067</v>
+      </c>
+      <c r="E297" s="1">
+        <v>1067</v>
+      </c>
+      <c r="J297" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C298" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D298" s="1">
+        <v>48</v>
+      </c>
+      <c r="E298">
+        <v>48</v>
+      </c>
+      <c r="J298" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C299" s="2"/>
+      <c r="D299" s="1"/>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D300" t="s">
         <v>9</v>
       </c>
-      <c r="E296" t="s">
+      <c r="E300" t="s">
         <v>60</v>
       </c>
-      <c r="F296" t="s">
+      <c r="F300" t="s">
         <v>61</v>
       </c>
-      <c r="G296" t="s">
+      <c r="G300" t="s">
         <v>10</v>
       </c>
-      <c r="H296" t="s">
+      <c r="H300" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A297">
-        <v>0</v>
-      </c>
-      <c r="B297" t="s">
-        <v>79</v>
-      </c>
-      <c r="C297" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D297" s="1">
-        <v>18</v>
-      </c>
-      <c r="E297" s="1">
-        <v>18</v>
-      </c>
-      <c r="J297">
-        <f t="shared" ref="J297:J308" si="8">E297-F297+H297-D297</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A298">
-        <v>1</v>
-      </c>
-      <c r="B298" t="s">
-        <v>79</v>
-      </c>
-      <c r="C298" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E298" s="1">
-        <v>834</v>
-      </c>
-      <c r="F298" s="1">
-        <v>834</v>
-      </c>
-      <c r="J298">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A299">
-        <v>2</v>
-      </c>
-      <c r="B299" t="s">
-        <v>79</v>
-      </c>
-      <c r="C299" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D299" s="1">
-        <v>3756</v>
-      </c>
-      <c r="E299" s="1">
-        <v>3756</v>
-      </c>
-      <c r="J299">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A300">
-        <v>3</v>
-      </c>
-      <c r="B300" t="s">
-        <v>79</v>
-      </c>
-      <c r="C300" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D300" s="1">
-        <v>3756</v>
-      </c>
-      <c r="E300" s="1">
-        <v>3756</v>
-      </c>
-      <c r="J300">
-        <f t="shared" si="8"/>
-        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B301" t="s">
         <v>79</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D301" s="1">
-        <v>3756</v>
+        <v>18</v>
       </c>
       <c r="E301" s="1">
-        <v>3756</v>
+        <v>18</v>
       </c>
       <c r="J301">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J301:J312" si="12">E301-F301+H301-D301</f>
         <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A302">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B302" t="s">
         <v>79</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D302" s="1">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E302" s="1">
-        <v>1424</v>
+        <v>834</v>
       </c>
       <c r="F302" s="1">
-        <v>1416</v>
-      </c>
-      <c r="G302" s="1">
-        <v>6</v>
+        <v>834</v>
       </c>
       <c r="J302">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B303" t="s">
         <v>79</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D303" s="1">
-        <v>32</v>
+        <v>3756</v>
       </c>
       <c r="E303" s="1">
-        <v>32</v>
+        <v>3756</v>
       </c>
       <c r="J303">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B304" t="s">
         <v>79</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D304" s="1">
-        <v>2970</v>
+        <v>3756</v>
       </c>
       <c r="E304" s="1">
-        <v>3644</v>
-      </c>
-      <c r="F304" s="1">
-        <v>814</v>
-      </c>
-      <c r="G304" s="1">
-        <v>2539</v>
-      </c>
-      <c r="H304" s="1">
-        <v>140</v>
-      </c>
-      <c r="I304" s="1"/>
+        <v>3756</v>
+      </c>
       <c r="J304">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="K304" t="s">
-        <v>101</v>
-      </c>
-      <c r="L304" s="3" t="s">
-        <v>71</v>
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B305" t="s">
         <v>79</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="D305" s="1">
-        <v>393</v>
+        <v>3756</v>
       </c>
       <c r="E305" s="1">
-        <v>822</v>
-      </c>
-      <c r="F305" s="1">
-        <v>429</v>
+        <v>3756</v>
       </c>
       <c r="J305">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B306" t="s">
         <v>79</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="D306" s="1">
-        <v>201</v>
+        <v>8</v>
       </c>
       <c r="E306" s="1">
-        <v>201</v>
+        <v>1424</v>
+      </c>
+      <c r="F306" s="1">
+        <v>1416</v>
+      </c>
+      <c r="G306" s="1">
+        <v>6</v>
       </c>
       <c r="J306">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B307" t="s">
         <v>79</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D307" s="1">
-        <v>292</v>
+        <v>32</v>
       </c>
       <c r="E307" s="1">
-        <v>292</v>
+        <v>32</v>
       </c>
       <c r="J307">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B308" t="s">
         <v>79</v>
       </c>
       <c r="C308" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D308" s="1">
+        <v>2970</v>
+      </c>
+      <c r="E308" s="1">
+        <v>3644</v>
+      </c>
+      <c r="F308" s="1">
+        <v>814</v>
+      </c>
+      <c r="G308" s="1">
+        <v>2539</v>
+      </c>
+      <c r="H308" s="1">
+        <v>140</v>
+      </c>
+      <c r="I308" s="1"/>
+      <c r="J308">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K308" t="s">
+        <v>101</v>
+      </c>
+      <c r="L308" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>8</v>
+      </c>
+      <c r="B309" t="s">
+        <v>79</v>
+      </c>
+      <c r="C309" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D309" s="1">
+        <v>393</v>
+      </c>
+      <c r="E309" s="1">
+        <v>822</v>
+      </c>
+      <c r="F309" s="1">
+        <v>429</v>
+      </c>
+      <c r="J309">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>9</v>
+      </c>
+      <c r="B310" t="s">
+        <v>79</v>
+      </c>
+      <c r="C310" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D310" s="1">
+        <v>201</v>
+      </c>
+      <c r="E310" s="1">
+        <v>201</v>
+      </c>
+      <c r="J310">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>10</v>
+      </c>
+      <c r="B311" t="s">
+        <v>79</v>
+      </c>
+      <c r="C311" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D311" s="1">
+        <v>292</v>
+      </c>
+      <c r="E311" s="1">
+        <v>292</v>
+      </c>
+      <c r="J311">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>11</v>
+      </c>
+      <c r="B312" t="s">
+        <v>79</v>
+      </c>
+      <c r="C312" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D308" s="1">
+      <c r="D312" s="1">
         <v>940</v>
       </c>
-      <c r="E308" s="1">
+      <c r="E312" s="1">
         <v>940</v>
       </c>
-      <c r="J308">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C310" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D310" s="1">
-        <v>3756</v>
-      </c>
-      <c r="E310" s="1">
-        <v>3756</v>
-      </c>
-      <c r="J310" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C311" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D311" s="1">
-        <v>940</v>
-      </c>
-      <c r="E311" s="1">
-        <v>493</v>
-      </c>
-      <c r="K311" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C312" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D312" s="1">
-        <v>3756</v>
-      </c>
-      <c r="E312" s="1">
-        <v>3896</v>
-      </c>
-      <c r="K312" t="s">
-        <v>100</v>
-      </c>
-      <c r="L312" s="3" t="s">
-        <v>71</v>
+      <c r="J312">
+        <f t="shared" si="12"/>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C314" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D314" t="s">
-        <v>97</v>
-      </c>
-      <c r="E314" t="s">
-        <v>98</v>
-      </c>
-      <c r="F314" t="s">
-        <v>99</v>
+        <v>82</v>
+      </c>
+      <c r="D314" s="1">
+        <v>3756</v>
+      </c>
+      <c r="E314" s="1">
+        <v>3756</v>
+      </c>
+      <c r="J314" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C315" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D315" s="1">
-        <v>186</v>
+        <v>940</v>
       </c>
       <c r="E315" s="1">
-        <v>236</v>
-      </c>
-      <c r="F315">
-        <f t="shared" ref="F315:F325" si="9">D315-E315</f>
-        <v>-50</v>
-      </c>
-      <c r="J315" s="3"/>
-      <c r="K315" s="3"/>
-      <c r="L315"/>
-      <c r="M315"/>
+        <v>493</v>
+      </c>
+      <c r="K315" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C316" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D316" s="1">
-        <v>136</v>
+        <v>3756</v>
       </c>
       <c r="E316" s="1">
-        <v>168</v>
-      </c>
-      <c r="F316">
-        <f t="shared" si="9"/>
-        <v>-32</v>
-      </c>
-      <c r="J316" s="3"/>
-      <c r="K316" s="3"/>
-      <c r="L316"/>
-      <c r="M316"/>
-    </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C317" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D317" s="1">
-        <v>238</v>
-      </c>
-      <c r="E317" s="1">
-        <v>264</v>
-      </c>
-      <c r="F317">
-        <f t="shared" si="9"/>
-        <v>-26</v>
-      </c>
-      <c r="J317" s="3"/>
-      <c r="K317" s="3"/>
-      <c r="L317"/>
-      <c r="M317"/>
+        <v>3896</v>
+      </c>
+      <c r="K316" t="s">
+        <v>100</v>
+      </c>
+      <c r="L316" s="3" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C318" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D318" s="5">
-        <v>106</v>
-      </c>
-      <c r="E318" s="1">
-        <v>116</v>
-      </c>
-      <c r="F318">
-        <f t="shared" si="9"/>
-        <v>-10</v>
-      </c>
-      <c r="H318">
-        <f>E318/2</f>
-        <v>58</v>
-      </c>
-      <c r="J318" s="3"/>
-      <c r="K318" s="3"/>
-      <c r="L318"/>
-      <c r="M318"/>
+        <v>96</v>
+      </c>
+      <c r="D318" t="s">
+        <v>97</v>
+      </c>
+      <c r="E318" t="s">
+        <v>98</v>
+      </c>
+      <c r="F318" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C319" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D319" s="1">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="E319" s="1">
-        <v>46</v>
+        <v>236</v>
       </c>
       <c r="F319">
-        <f t="shared" si="9"/>
-        <v>-6</v>
+        <f t="shared" ref="F319:F329" si="13">D319-E319</f>
+        <v>-50</v>
       </c>
       <c r="J319" s="3"/>
       <c r="K319" s="3"/>
@@ -7965,17 +8013,17 @@
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C320" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D320" s="1">
-        <v>296</v>
+        <v>136</v>
       </c>
       <c r="E320" s="1">
-        <v>300</v>
+        <v>168</v>
       </c>
       <c r="F320">
-        <f t="shared" si="9"/>
-        <v>-4</v>
+        <f t="shared" si="13"/>
+        <v>-32</v>
       </c>
       <c r="J320" s="3"/>
       <c r="K320" s="3"/>
@@ -7984,17 +8032,17 @@
     </row>
     <row r="321" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C321" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D321" s="1">
-        <v>166</v>
+        <v>238</v>
       </c>
       <c r="E321" s="1">
-        <v>170</v>
+        <v>264</v>
       </c>
       <c r="F321">
-        <f t="shared" si="9"/>
-        <v>-4</v>
+        <f t="shared" si="13"/>
+        <v>-26</v>
       </c>
       <c r="J321" s="3"/>
       <c r="K321" s="3"/>
@@ -8003,17 +8051,21 @@
     </row>
     <row r="322" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C322" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D322" s="1">
-        <v>94</v>
+        <v>88</v>
+      </c>
+      <c r="D322" s="5">
+        <v>106</v>
       </c>
       <c r="E322" s="1">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="F322">
-        <f t="shared" si="9"/>
-        <v>-2</v>
+        <f t="shared" si="13"/>
+        <v>-10</v>
+      </c>
+      <c r="H322">
+        <f>E322/2</f>
+        <v>58</v>
       </c>
       <c r="J322" s="3"/>
       <c r="K322" s="3"/>
@@ -8022,17 +8074,17 @@
     </row>
     <row r="323" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C323" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D323" s="1">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="E323" s="1">
-        <v>188</v>
+        <v>46</v>
       </c>
       <c r="F323">
-        <f t="shared" si="9"/>
-        <v>-2</v>
+        <f t="shared" si="13"/>
+        <v>-6</v>
       </c>
       <c r="J323" s="3"/>
       <c r="K323" s="3"/>
@@ -8041,17 +8093,17 @@
     </row>
     <row r="324" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C324" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D324" s="1">
-        <v>30</v>
+        <v>296</v>
       </c>
       <c r="E324" s="1">
-        <v>32</v>
+        <v>300</v>
       </c>
       <c r="F324">
-        <f t="shared" si="9"/>
-        <v>-2</v>
+        <f t="shared" si="13"/>
+        <v>-4</v>
       </c>
       <c r="J324" s="3"/>
       <c r="K324" s="3"/>
@@ -8060,34 +8112,98 @@
     </row>
     <row r="325" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C325" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D325" s="1">
-        <v>86</v>
+        <v>166</v>
       </c>
       <c r="E325" s="1">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="F325">
-        <f t="shared" si="9"/>
-        <v>-2</v>
+        <f t="shared" si="13"/>
+        <v>-4</v>
       </c>
       <c r="J325" s="3"/>
       <c r="K325" s="3"/>
       <c r="L325"/>
       <c r="M325"/>
     </row>
+    <row r="326" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="C326" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D326" s="1">
+        <v>94</v>
+      </c>
+      <c r="E326" s="1">
+        <v>96</v>
+      </c>
+      <c r="F326">
+        <f t="shared" si="13"/>
+        <v>-2</v>
+      </c>
+      <c r="J326" s="3"/>
+      <c r="K326" s="3"/>
+      <c r="L326"/>
+      <c r="M326"/>
+    </row>
     <row r="327" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C327" s="2"/>
+      <c r="C327" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="D327" s="1">
+        <v>186</v>
+      </c>
+      <c r="E327" s="1">
+        <v>188</v>
+      </c>
+      <c r="F327">
+        <f t="shared" si="13"/>
+        <v>-2</v>
+      </c>
+      <c r="J327" s="3"/>
+      <c r="K327" s="3"/>
+      <c r="L327"/>
+      <c r="M327"/>
     </row>
     <row r="328" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C328" s="2"/>
+      <c r="C328" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D328" s="1">
+        <v>30</v>
+      </c>
+      <c r="E328" s="1">
+        <v>32</v>
+      </c>
+      <c r="F328">
+        <f t="shared" si="13"/>
+        <v>-2</v>
+      </c>
+      <c r="J328" s="3"/>
+      <c r="K328" s="3"/>
+      <c r="L328"/>
+      <c r="M328"/>
     </row>
     <row r="329" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C329" s="2"/>
-    </row>
-    <row r="330" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C330" s="2"/>
+      <c r="C329" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D329" s="1">
+        <v>86</v>
+      </c>
+      <c r="E329" s="1">
+        <v>88</v>
+      </c>
+      <c r="F329">
+        <f t="shared" si="13"/>
+        <v>-2</v>
+      </c>
+      <c r="J329" s="3"/>
+      <c r="K329" s="3"/>
+      <c r="L329"/>
+      <c r="M329"/>
     </row>
     <row r="331" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C331" s="2"/>
@@ -8175,18 +8291,30 @@
     </row>
     <row r="359" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C359" s="2"/>
-      <c r="D359" s="1"/>
     </row>
     <row r="360" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C360" s="2"/>
     </row>
     <row r="361" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C361" s="2"/>
-      <c r="E361" s="1"/>
+    </row>
+    <row r="362" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C362" s="2"/>
+    </row>
+    <row r="363" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C363" s="2"/>
+      <c r="D363" s="1"/>
+    </row>
+    <row r="364" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C364" s="2"/>
+    </row>
+    <row r="365" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C365" s="2"/>
+      <c r="E365" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="K123:L137">
-    <sortCondition ref="K123:K137"/>
+  <sortState ref="K181:L190">
+    <sortCondition ref="K181:K190"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Error_summary.xlsx
+++ b/docs/Error_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="154">
   <si>
     <t>bud_big</t>
   </si>
@@ -377,18 +377,12 @@
     <t>flower petals = pedicel</t>
   </si>
   <si>
-    <t>petals = stigma + derived parts, adding in seeds+aborted seeds</t>
-  </si>
-  <si>
     <t>petals = stigma + derived parts, adding in seed pods instead</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>See also notes in word doc. I think this is because the plant map is following backwards from the seed/aborted seed, rather than the seed pod. Since seed pods have variable seed number, but map assumes there are always 2, it makes the assumption that there are some fruit_young and fruit_large_immature that have been "lost" when in reality they have turned into empty seed pods. However, if you consider "seed pod" the end of the developmental trajectory, then the numbers should add up. I'm guessing this is a change to the plant map.</t>
-  </si>
-  <si>
     <t>pedicel = stigma + all derived parts</t>
   </si>
   <si>
@@ -470,15 +464,6 @@
     <t>correct; difference in FinDev #s because some seeds present at beginning, so total fruit# bigger than petals</t>
   </si>
   <si>
-    <t>"2756" correct for "To" and "912" correct as number passing onwards, so not sure how "3668" has been calculated; See new item in error summary</t>
-  </si>
-  <si>
-    <t>I know these don't match in spreadsheet</t>
-  </si>
-  <si>
-    <t>I know these don't add up in spreadsheet; need to consider seed pods final part for this species (and PHPH)</t>
-  </si>
-  <si>
     <t>fruit_large_immature_aborting</t>
   </si>
   <si>
@@ -492,6 +477,15 @@
   </si>
   <si>
     <t>flower_calyx_aborting</t>
+  </si>
+  <si>
+    <t>"2756" correct for "To" and "1676" correct as number passing onwards, so not sure how "3668" has been calculated; there should be 1080 as fin dev</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>late_flower_petals</t>
   </si>
 </sst>
 </file>
@@ -833,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q365"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E171" sqref="E171"/>
+    <sheetView tabSelected="1" topLeftCell="A298" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D312" activeCellId="3" sqref="D303 D307 D308 D312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,7 +1641,7 @@
       </c>
       <c r="I40" s="1"/>
       <c r="J40">
-        <f t="shared" ref="J40:J54" si="1">E40-F40+H40-D40</f>
+        <f t="shared" ref="J40:J55" si="1">E40-F40+H40-D40</f>
         <v>0</v>
       </c>
       <c r="K40" s="2"/>
@@ -1669,13 +1663,13 @@
         <v>1</v>
       </c>
       <c r="D41" s="1">
-        <v>4536</v>
+        <v>4448</v>
       </c>
       <c r="E41" s="1">
         <v>14480</v>
       </c>
       <c r="F41" s="1">
-        <v>11432</v>
+        <v>11520</v>
       </c>
       <c r="G41" s="1">
         <v>720</v>
@@ -1707,19 +1701,19 @@
         <v>12</v>
       </c>
       <c r="D42" s="1">
-        <v>4964</v>
+        <v>4884</v>
       </c>
       <c r="E42" s="1">
-        <v>18756</v>
+        <v>19164</v>
       </c>
       <c r="F42" s="1">
-        <v>14348</v>
+        <v>14428</v>
       </c>
       <c r="G42" s="1">
-        <v>2048</v>
+        <v>1968</v>
       </c>
       <c r="H42" s="1">
-        <v>556</v>
+        <v>148</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42">
@@ -1748,10 +1742,10 @@
         <v>2388</v>
       </c>
       <c r="E43" s="1">
-        <v>19660</v>
+        <v>19580</v>
       </c>
       <c r="F43" s="1">
-        <v>17852</v>
+        <v>17772</v>
       </c>
       <c r="G43" s="1">
         <v>1204</v>
@@ -1788,16 +1782,18 @@
       <c r="E44" s="1">
         <v>2756</v>
       </c>
-      <c r="F44" s="1"/>
+      <c r="F44" s="1">
+        <v>1676</v>
+      </c>
       <c r="G44" s="1">
         <v>3668</v>
       </c>
       <c r="J44">
         <f t="shared" si="1"/>
-        <v>-912</v>
+        <v>-2588</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>71</v>
@@ -1887,20 +1883,20 @@
         <v>5</v>
       </c>
       <c r="D47" s="1">
-        <v>5044</v>
+        <v>7648</v>
       </c>
       <c r="E47" s="1">
         <v>5044</v>
       </c>
       <c r="F47" s="1">
-        <v>0</v>
+        <v>1644</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
       </c>
       <c r="J47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-4248</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="1"/>
@@ -2047,20 +2043,17 @@
       <c r="Q51" s="1"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>5</v>
-      </c>
       <c r="B52" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>153</v>
       </c>
       <c r="D52" s="1">
-        <v>5044</v>
+        <v>1676</v>
       </c>
       <c r="E52" s="1">
-        <v>5044</v>
+        <v>1676</v>
       </c>
       <c r="F52" s="1">
         <v>0</v>
@@ -2076,25 +2069,25 @@
       <c r="L52" s="1"/>
       <c r="M52" s="2"/>
       <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
+      <c r="O52" s="2"/>
       <c r="P52" s="2"/>
       <c r="Q52" s="1"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
         <v>15</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D53" s="1">
-        <v>491</v>
+        <v>5044</v>
       </c>
       <c r="E53" s="1">
-        <v>491</v>
+        <v>5044</v>
       </c>
       <c r="F53" s="1">
         <v>0</v>
@@ -2116,13 +2109,13 @@
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
         <v>15</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D54" s="1">
         <v>491</v>
@@ -2149,40 +2142,54 @@
       <c r="Q54" s="1"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C55" s="2"/>
+      <c r="A55">
+        <v>15</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D55" s="1">
+        <v>491</v>
+      </c>
+      <c r="E55" s="1">
+        <v>491</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="K55" s="2"/>
       <c r="L55" s="1"/>
       <c r="M55" s="2"/>
       <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
       <c r="P55" s="2"/>
       <c r="Q55" s="1"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C56" s="2" t="s">
-        <v>68</v>
-      </c>
+      <c r="C56" s="2"/>
       <c r="K56" s="2"/>
       <c r="L56" s="1"/>
       <c r="M56" s="2"/>
       <c r="N56" s="1"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="1"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B57" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="1">
-        <v>5044</v>
-      </c>
-      <c r="E57" s="1">
-        <v>5044</v>
-      </c>
-      <c r="J57" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L57" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="K57" s="2"/>
+      <c r="L57" s="1"/>
       <c r="M57" s="2"/>
       <c r="N57" s="1"/>
     </row>
@@ -2191,127 +2198,125 @@
         <v>15</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D58" s="1">
-        <v>491</v>
+        <v>5044</v>
       </c>
       <c r="E58" s="1">
-        <v>491</v>
-      </c>
-      <c r="G58" s="1"/>
+        <v>5044</v>
+      </c>
       <c r="J58" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="1"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D59" s="1">
+        <v>491</v>
+      </c>
+      <c r="E59" s="1">
+        <v>491</v>
+      </c>
+      <c r="G59" s="1"/>
+      <c r="J59" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K59" s="2"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="4"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B60" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D59" s="1">
+      <c r="D60" s="1">
         <v>5044</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E60" s="1">
         <v>5044</v>
       </c>
-      <c r="G59" s="1"/>
-      <c r="J59" t="s">
+      <c r="G60" s="1"/>
+      <c r="J60" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
-      <c r="C60" s="7" t="s">
+      <c r="K60" s="2"/>
+      <c r="L60" s="1"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B61" s="2"/>
+      <c r="C61" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D61" s="5">
         <v>3834</v>
       </c>
-      <c r="E60" s="8">
+      <c r="E61" s="8">
         <v>2756</v>
       </c>
-      <c r="G60" s="1"/>
+      <c r="G61" s="1"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="1"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D62" t="s">
+      <c r="K62" s="2"/>
+      <c r="L62" s="1"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="D63" t="s">
         <v>9</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E63" t="s">
         <v>60</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F63" t="s">
         <v>61</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G63" t="s">
         <v>10</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H63" t="s">
         <v>65</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>1</v>
-      </c>
-      <c r="B63" t="s">
-        <v>46</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D63" s="1">
-        <v>32</v>
-      </c>
-      <c r="E63" s="1">
-        <v>164</v>
-      </c>
-      <c r="F63" s="1">
-        <v>132</v>
-      </c>
-      <c r="G63" s="1">
-        <v>24</v>
-      </c>
-      <c r="J63">
-        <f t="shared" ref="J63:J77" si="2">E63-F63+H63-D63</f>
-        <v>0</v>
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="1"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="1"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
         <v>46</v>
       </c>
-      <c r="C64" t="s">
-        <v>45</v>
+      <c r="C64" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="D64" s="1">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="E64" s="1">
-        <v>138</v>
+        <v>164</v>
       </c>
       <c r="F64" s="1">
-        <v>97</v>
+        <v>132</v>
       </c>
       <c r="G64" s="1">
-        <v>47</v>
-      </c>
-      <c r="H64">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="J64">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="J64:J78" si="2">E64-F64+H64-D64</f>
         <v>0</v>
       </c>
       <c r="K64" s="2"/>
@@ -2321,25 +2326,28 @@
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B65" t="s">
         <v>46</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>48</v>
+      <c r="C65" t="s">
+        <v>45</v>
       </c>
       <c r="D65" s="1">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="E65" s="1">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="F65" s="1">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="G65" s="1">
-        <v>38</v>
+        <v>47</v>
+      </c>
+      <c r="H65">
+        <v>6</v>
       </c>
       <c r="J65">
         <f t="shared" si="2"/>
@@ -2352,19 +2360,25 @@
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B66" t="s">
         <v>46</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D66" s="1">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="E66" s="1">
-        <v>95</v>
+        <v>122</v>
+      </c>
+      <c r="F66" s="1">
+        <v>84</v>
+      </c>
+      <c r="G66" s="1">
+        <v>38</v>
       </c>
       <c r="J66">
         <f t="shared" si="2"/>
@@ -2377,19 +2391,19 @@
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B67" t="s">
         <v>46</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D67" s="1">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="E67" s="1">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="J67">
         <f t="shared" si="2"/>
@@ -2402,19 +2416,19 @@
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B68" t="s">
         <v>46</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D68" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E68" s="1">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J68">
         <f t="shared" si="2"/>
@@ -2427,25 +2441,19 @@
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B69" t="s">
         <v>46</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="D69" s="1">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="E69" s="1">
-        <v>367</v>
-      </c>
-      <c r="F69" s="1">
-        <v>315</v>
-      </c>
-      <c r="G69" s="1">
-        <v>52</v>
+        <v>4</v>
       </c>
       <c r="J69">
         <f t="shared" si="2"/>
@@ -2458,19 +2466,25 @@
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B70" t="s">
         <v>46</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D70" s="1">
-        <v>2100</v>
+        <v>52</v>
       </c>
       <c r="E70" s="1">
-        <v>2100</v>
+        <v>367</v>
+      </c>
+      <c r="F70" s="1">
+        <v>315</v>
+      </c>
+      <c r="G70" s="1">
+        <v>52</v>
       </c>
       <c r="J70">
         <f t="shared" si="2"/>
@@ -2483,25 +2497,19 @@
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B71" t="s">
         <v>46</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D71" s="1">
-        <v>536</v>
+        <v>2100</v>
       </c>
       <c r="E71" s="1">
-        <v>1632</v>
-      </c>
-      <c r="F71" s="1">
-        <v>1096</v>
-      </c>
-      <c r="G71" s="1">
-        <v>536</v>
+        <v>2100</v>
       </c>
       <c r="J71">
         <f t="shared" si="2"/>
@@ -2514,25 +2522,25 @@
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B72" t="s">
         <v>46</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="D72" s="1">
-        <v>1209</v>
+        <v>536</v>
       </c>
       <c r="E72" s="1">
-        <v>1226</v>
+        <v>1632</v>
       </c>
       <c r="F72" s="1">
-        <v>17</v>
+        <v>1096</v>
       </c>
       <c r="G72" s="1">
-        <v>1209</v>
+        <v>536</v>
       </c>
       <c r="J72">
         <f t="shared" si="2"/>
@@ -2545,19 +2553,25 @@
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B73" t="s">
         <v>46</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>14</v>
+        <v>3</v>
+      </c>
+      <c r="D73" s="1">
+        <v>1209</v>
       </c>
       <c r="E73" s="1">
-        <v>210</v>
+        <v>1226</v>
       </c>
       <c r="F73" s="1">
-        <v>210</v>
+        <v>17</v>
+      </c>
+      <c r="G73" s="1">
+        <v>1209</v>
       </c>
       <c r="J73">
         <f t="shared" si="2"/>
@@ -2570,19 +2584,19 @@
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B74" t="s">
         <v>46</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="1">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="E74" s="1">
-        <v>355</v>
+        <v>210</v>
+      </c>
+      <c r="F74" s="1">
+        <v>210</v>
       </c>
       <c r="J74">
         <f t="shared" si="2"/>
@@ -2595,19 +2609,19 @@
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B75" t="s">
         <v>46</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>8</v>
+        <v>49</v>
+      </c>
+      <c r="D75" s="1">
+        <v>355</v>
       </c>
       <c r="E75" s="1">
-        <v>329</v>
-      </c>
-      <c r="F75" s="1">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="J75">
         <f t="shared" si="2"/>
@@ -2620,19 +2634,19 @@
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B76" t="s">
         <v>46</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E76" s="1">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="F76" s="1">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="J76">
         <f t="shared" si="2"/>
@@ -2645,19 +2659,19 @@
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B77" t="s">
         <v>46</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D77" s="1">
-        <v>355</v>
+        <v>6</v>
       </c>
       <c r="E77" s="1">
-        <v>355</v>
+        <v>346</v>
+      </c>
+      <c r="F77" s="1">
+        <v>346</v>
       </c>
       <c r="J77">
         <f t="shared" si="2"/>
@@ -2669,123 +2683,112 @@
       <c r="P77" s="1"/>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C78" s="2"/>
+      <c r="A78">
+        <v>15</v>
+      </c>
+      <c r="B78" t="s">
+        <v>46</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78" s="1">
+        <v>355</v>
+      </c>
+      <c r="E78" s="1">
+        <v>355</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K78" s="2"/>
+      <c r="L78" s="1"/>
       <c r="O78" s="2"/>
       <c r="P78" s="1"/>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C79" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D79">
-        <v>355</v>
-      </c>
-      <c r="E79">
-        <v>355</v>
-      </c>
-      <c r="J79" t="s">
-        <v>62</v>
-      </c>
+      <c r="C79" s="2"/>
+      <c r="O79" s="2"/>
+      <c r="P79" s="1"/>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C80" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D80">
-        <v>2100</v>
+        <v>355</v>
       </c>
       <c r="E80">
-        <v>2100</v>
+        <v>355</v>
       </c>
       <c r="J80" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C81" s="2"/>
+      <c r="C81" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D81">
+        <v>2100</v>
+      </c>
+      <c r="E81">
+        <v>2100</v>
+      </c>
+      <c r="J81" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C82" s="2"/>
-      <c r="D82" t="s">
+    </row>
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C83" s="2"/>
+      <c r="D83" t="s">
         <v>9</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E83" t="s">
         <v>60</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F83" t="s">
         <v>61</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G83" t="s">
         <v>10</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H83" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>1</v>
-      </c>
-      <c r="B83" t="s">
-        <v>11</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D83" s="1">
-        <v>2943</v>
-      </c>
-      <c r="E83" s="1">
-        <v>3376</v>
-      </c>
-      <c r="F83" s="1">
-        <v>8741</v>
-      </c>
-      <c r="G83" s="1">
-        <v>72</v>
-      </c>
-      <c r="H83" s="1">
-        <v>8308</v>
-      </c>
-      <c r="I83" s="1"/>
-      <c r="J83">
-        <f t="shared" ref="J83:J91" si="3">E83-F83+H83-D83</f>
-        <v>0</v>
-      </c>
-      <c r="K83" s="2"/>
-      <c r="L83" s="1"/>
-      <c r="M83" s="4"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="1"/>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B84" t="s">
         <v>11</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" s="1">
-        <v>2076</v>
+        <v>2943</v>
       </c>
       <c r="E84" s="1">
-        <v>8771</v>
+        <v>3376</v>
       </c>
       <c r="F84" s="1">
-        <v>6822</v>
+        <v>8741</v>
       </c>
       <c r="G84" s="1">
-        <v>1777</v>
+        <v>72</v>
       </c>
       <c r="H84" s="1">
-        <v>127</v>
+        <v>8308</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="J84:J92" si="3">E84-F84+H84-D84</f>
         <v>0</v>
       </c>
       <c r="K84" s="2"/>
@@ -2796,83 +2799,87 @@
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B85" t="s">
         <v>11</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D85" s="1">
-        <v>2203</v>
+        <v>2076</v>
       </c>
       <c r="E85" s="1">
-        <v>6781</v>
+        <v>8771</v>
       </c>
       <c r="F85" s="1">
-        <v>4578</v>
+        <v>6822</v>
       </c>
       <c r="G85" s="1">
-        <v>1861</v>
-      </c>
+        <v>1777</v>
+      </c>
+      <c r="H85" s="1">
+        <v>127</v>
+      </c>
+      <c r="I85" s="1"/>
       <c r="J85">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K85" s="2"/>
-      <c r="L85" s="4"/>
+      <c r="L85" s="1"/>
       <c r="M85" s="4"/>
       <c r="O85" s="2"/>
       <c r="P85" s="1"/>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D86" s="1">
-        <v>4619</v>
+        <v>2203</v>
       </c>
       <c r="E86" s="1">
-        <v>4619</v>
+        <v>6781</v>
+      </c>
+      <c r="F86" s="1">
+        <v>4578</v>
+      </c>
+      <c r="G86" s="1">
+        <v>1861</v>
       </c>
       <c r="J86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K86" s="2"/>
-      <c r="L86" s="1"/>
+      <c r="L86" s="4"/>
       <c r="M86" s="4"/>
       <c r="O86" s="2"/>
       <c r="P86" s="1"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B87" t="s">
         <v>11</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" s="1">
-        <v>473</v>
+        <v>4619</v>
       </c>
       <c r="E87" s="1">
-        <v>3228</v>
-      </c>
-      <c r="F87" s="1">
-        <v>2755</v>
-      </c>
-      <c r="G87" s="1">
-        <v>446</v>
+        <v>4619</v>
       </c>
       <c r="J87">
         <f t="shared" si="3"/>
@@ -2886,25 +2893,25 @@
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
         <v>11</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" s="1">
-        <v>1546</v>
+        <v>473</v>
       </c>
       <c r="E88" s="1">
-        <v>3620</v>
+        <v>3228</v>
       </c>
       <c r="F88" s="1">
-        <v>2074</v>
+        <v>2755</v>
       </c>
       <c r="G88" s="1">
-        <v>1546</v>
+        <v>446</v>
       </c>
       <c r="J88">
         <f t="shared" si="3"/>
@@ -2918,25 +2925,25 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D89" s="1">
-        <v>598</v>
+        <v>1546</v>
       </c>
       <c r="E89" s="1">
-        <v>1806</v>
+        <v>3620</v>
       </c>
       <c r="F89" s="1">
-        <v>1208</v>
+        <v>2074</v>
       </c>
       <c r="G89" s="1">
-        <v>598</v>
+        <v>1546</v>
       </c>
       <c r="J89">
         <f t="shared" si="3"/>
@@ -2950,25 +2957,25 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D90" s="1">
-        <v>329</v>
+        <v>598</v>
       </c>
       <c r="E90" s="1">
-        <v>1783</v>
+        <v>1806</v>
       </c>
       <c r="F90" s="1">
-        <v>1454</v>
+        <v>1208</v>
       </c>
       <c r="G90" s="1">
-        <v>329</v>
+        <v>598</v>
       </c>
       <c r="J90">
         <f t="shared" si="3"/>
@@ -2982,19 +2989,25 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D91" s="1">
-        <v>1673</v>
+        <v>329</v>
       </c>
       <c r="E91" s="1">
-        <v>1673</v>
+        <v>1783</v>
+      </c>
+      <c r="F91" s="1">
+        <v>1454</v>
+      </c>
+      <c r="G91" s="1">
+        <v>329</v>
       </c>
       <c r="J91">
         <f t="shared" si="3"/>
@@ -3007,6 +3020,25 @@
       <c r="P91" s="1"/>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>9</v>
+      </c>
+      <c r="B92" t="s">
+        <v>11</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D92" s="1">
+        <v>1673</v>
+      </c>
+      <c r="E92" s="1">
+        <v>1673</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
       <c r="K92" s="2"/>
       <c r="L92" s="1"/>
       <c r="M92" s="4"/>
@@ -3014,87 +3046,68 @@
       <c r="P92" s="1"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C93" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D93">
-        <v>4619</v>
-      </c>
-      <c r="E93">
-        <v>4619</v>
-      </c>
-      <c r="J93" t="s">
-        <v>62</v>
-      </c>
+      <c r="K93" s="2"/>
       <c r="L93" s="1"/>
       <c r="M93" s="4"/>
-    </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D95" t="s">
+      <c r="O93" s="2"/>
+      <c r="P93" s="1"/>
+    </row>
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C94" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D94">
+        <v>4619</v>
+      </c>
+      <c r="E94">
+        <v>4619</v>
+      </c>
+      <c r="J94" t="s">
+        <v>62</v>
+      </c>
+      <c r="L94" s="1"/>
+      <c r="M94" s="4"/>
+    </row>
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
         <v>9</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E96" t="s">
         <v>60</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F96" t="s">
         <v>61</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G96" t="s">
         <v>10</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H96" t="s">
         <v>65</v>
-      </c>
-      <c r="K95" s="2"/>
-      <c r="L95" s="1"/>
-    </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B96" t="s">
-        <v>145</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D96" s="1">
-        <v>208</v>
-      </c>
-      <c r="E96" s="1">
-        <v>800</v>
-      </c>
-      <c r="F96" s="1">
-        <v>592</v>
-      </c>
-      <c r="G96" s="1">
-        <v>208</v>
-      </c>
-      <c r="J96">
-        <f t="shared" ref="J96:J113" si="4">E96-F96+H96-D96</f>
-        <v>0</v>
       </c>
       <c r="K96" s="2"/>
       <c r="L96" s="1"/>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D97" s="1">
-        <v>808</v>
+        <v>208</v>
       </c>
       <c r="E97" s="1">
-        <v>2078</v>
+        <v>800</v>
       </c>
       <c r="F97" s="1">
-        <v>1270</v>
+        <v>592</v>
       </c>
       <c r="G97" s="1">
-        <v>798</v>
+        <v>208</v>
       </c>
       <c r="J97">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J97:J114" si="4">E97-F97+H97-D97</f>
         <v>0</v>
       </c>
       <c r="K97" s="2"/>
@@ -3102,22 +3115,22 @@
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D98" s="1">
-        <v>124</v>
+        <v>808</v>
       </c>
       <c r="E98" s="1">
-        <v>302</v>
+        <v>2078</v>
       </c>
       <c r="F98" s="1">
-        <v>178</v>
+        <v>1270</v>
       </c>
       <c r="G98" s="1">
-        <v>74</v>
+        <v>798</v>
       </c>
       <c r="J98">
         <f t="shared" si="4"/>
@@ -3128,25 +3141,22 @@
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>145</v>
-      </c>
-      <c r="C99" t="s">
-        <v>2</v>
+        <v>143</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D99" s="1">
-        <v>1348</v>
+        <v>124</v>
       </c>
       <c r="E99" s="1">
-        <v>3166</v>
+        <v>302</v>
       </c>
       <c r="F99" s="1">
-        <v>1858</v>
+        <v>178</v>
       </c>
       <c r="G99" s="1">
-        <v>906</v>
-      </c>
-      <c r="H99">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="J99">
         <f t="shared" si="4"/>
@@ -3157,22 +3167,25 @@
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>145</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>13</v>
+        <v>143</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
       </c>
       <c r="D100" s="1">
-        <v>1464</v>
+        <v>1348</v>
       </c>
       <c r="E100" s="1">
-        <v>1544</v>
+        <v>3166</v>
       </c>
       <c r="F100" s="1">
-        <v>80</v>
+        <v>1858</v>
       </c>
       <c r="G100" s="1">
-        <v>1378</v>
+        <v>906</v>
+      </c>
+      <c r="H100">
+        <v>40</v>
       </c>
       <c r="J100">
         <f t="shared" si="4"/>
@@ -3183,16 +3196,22 @@
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D101" s="1">
-        <v>4216</v>
+        <v>1464</v>
       </c>
       <c r="E101" s="1">
-        <v>4216</v>
+        <v>1544</v>
+      </c>
+      <c r="F101" s="1">
+        <v>80</v>
+      </c>
+      <c r="G101" s="1">
+        <v>1378</v>
       </c>
       <c r="J101">
         <f t="shared" si="4"/>
@@ -3203,22 +3222,16 @@
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D102" s="1">
-        <v>2036</v>
+        <v>4216</v>
       </c>
       <c r="E102" s="1">
-        <v>3798</v>
-      </c>
-      <c r="F102" s="1">
-        <v>1762</v>
-      </c>
-      <c r="G102" s="1">
-        <v>2012</v>
+        <v>4216</v>
       </c>
       <c r="J102">
         <f t="shared" si="4"/>
@@ -3229,22 +3242,22 @@
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D103" s="1">
-        <v>544</v>
+        <v>2036</v>
       </c>
       <c r="E103" s="1">
-        <v>574</v>
+        <v>3798</v>
       </c>
       <c r="F103" s="1">
-        <v>30</v>
+        <v>1762</v>
       </c>
       <c r="G103" s="1">
-        <v>548</v>
+        <v>2012</v>
       </c>
       <c r="J103">
         <f t="shared" si="4"/>
@@ -3255,22 +3268,22 @@
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D104" s="1">
-        <v>40</v>
+        <v>544</v>
       </c>
       <c r="E104" s="1">
-        <v>136</v>
+        <v>574</v>
       </c>
       <c r="F104" s="1">
-        <v>96</v>
+        <v>30</v>
       </c>
       <c r="G104" s="1">
-        <v>40</v>
+        <v>548</v>
       </c>
       <c r="J104">
         <f t="shared" si="4"/>
@@ -3281,22 +3294,22 @@
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="D105" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="E105" s="1">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="F105" s="1">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="G105" s="1">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="J105">
         <f t="shared" si="4"/>
@@ -3307,19 +3320,19 @@
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D106" s="1">
         <v>2</v>
       </c>
       <c r="E106" s="1">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="F106" s="1">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="G106" s="1">
         <v>2</v>
@@ -3333,22 +3346,22 @@
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="D107" s="1">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="E107" s="1">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="F107" s="1">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="G107" s="1">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="J107">
         <f t="shared" si="4"/>
@@ -3359,22 +3372,22 @@
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="D108" s="1">
+        <v>36</v>
+      </c>
+      <c r="E108" s="1">
+        <v>58</v>
+      </c>
+      <c r="F108" s="1">
+        <v>22</v>
+      </c>
+      <c r="G108" s="1">
         <v>32</v>
-      </c>
-      <c r="E108" s="1">
-        <v>90</v>
-      </c>
-      <c r="F108" s="1">
-        <v>58</v>
-      </c>
-      <c r="G108" s="1">
-        <v>21</v>
       </c>
       <c r="J108">
         <f t="shared" si="4"/>
@@ -3385,16 +3398,22 @@
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="D109" s="1">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="E109" s="1">
-        <v>130</v>
+        <v>90</v>
+      </c>
+      <c r="F109" s="1">
+        <v>58</v>
+      </c>
+      <c r="G109" s="1">
+        <v>21</v>
       </c>
       <c r="J109">
         <f t="shared" si="4"/>
@@ -3405,16 +3424,16 @@
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="D110" s="1">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="E110" s="1">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J110">
         <f t="shared" si="4"/>
@@ -3425,16 +3444,16 @@
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D111" s="1">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="E111" s="1">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="J111">
         <f t="shared" si="4"/>
@@ -3445,16 +3464,16 @@
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D112" s="1">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="E112" s="1">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="J112">
         <f t="shared" si="4"/>
@@ -3465,16 +3484,16 @@
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D113" s="1">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="E113" s="1">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="J113">
         <f t="shared" si="4"/>
@@ -3484,7 +3503,22 @@
       <c r="L113" s="1"/>
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C114" s="2"/>
+      <c r="B114" t="s">
+        <v>143</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D114" s="1">
+        <v>92</v>
+      </c>
+      <c r="E114" s="1">
+        <v>92</v>
+      </c>
+      <c r="J114">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="K114" s="2"/>
       <c r="L114" s="1"/>
     </row>
@@ -3494,29 +3528,19 @@
       <c r="L115" s="1"/>
     </row>
     <row r="116" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C116" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D116">
-        <v>92</v>
-      </c>
-      <c r="E116">
-        <v>92</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="C116" s="2"/>
+      <c r="K116" s="2"/>
       <c r="L116" s="1"/>
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C117" s="2" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D117">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="E117">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="J117" s="2" t="s">
         <v>62</v>
@@ -3525,99 +3549,87 @@
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C118" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D118" s="1">
+        <v>144</v>
+      </c>
+      <c r="D118">
+        <v>136</v>
+      </c>
+      <c r="E118">
+        <v>136</v>
+      </c>
+      <c r="J118" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L118" s="1"/>
+    </row>
+    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="C119" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D119" s="1">
         <v>4216</v>
       </c>
-      <c r="E118">
+      <c r="E119">
         <v>4216</v>
       </c>
-      <c r="J118" t="s">
+      <c r="J119" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="119" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="C119" s="2"/>
-      <c r="D119" s="1"/>
     </row>
     <row r="120" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C120" s="2"/>
+      <c r="D120" s="1"/>
     </row>
     <row r="121" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="D121" t="s">
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="D122" t="s">
         <v>9</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E122" t="s">
         <v>60</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F122" t="s">
         <v>61</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G122" t="s">
         <v>10</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H122" t="s">
         <v>65</v>
-      </c>
-      <c r="K121" s="2"/>
-      <c r="L121" s="1"/>
-    </row>
-    <row r="122" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>144</v>
-      </c>
-      <c r="C122" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D122" s="1">
-        <v>698</v>
-      </c>
-      <c r="E122" s="1">
-        <v>1520</v>
-      </c>
-      <c r="F122" s="1">
-        <v>824</v>
-      </c>
-      <c r="G122" s="1">
-        <v>498</v>
-      </c>
-      <c r="H122" s="1">
-        <v>2</v>
-      </c>
-      <c r="I122" s="1">
-        <f>E122-D122</f>
-        <v>822</v>
-      </c>
-      <c r="J122">
-        <f t="shared" ref="J122:J142" si="5">E122-F122+H122-D122</f>
-        <v>0</v>
       </c>
       <c r="K122" s="2"/>
       <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="D123" s="1">
-        <v>154</v>
+        <v>698</v>
       </c>
       <c r="E123" s="1">
-        <v>330</v>
+        <v>1520</v>
       </c>
       <c r="F123" s="1">
-        <v>176</v>
+        <v>824</v>
       </c>
       <c r="G123" s="1">
-        <v>80</v>
+        <v>498</v>
+      </c>
+      <c r="H123" s="1">
+        <v>2</v>
+      </c>
+      <c r="I123" s="1">
+        <f>E123-D123</f>
+        <v>822</v>
       </c>
       <c r="J123">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="J123:J143" si="5">E123-F123+H123-D123</f>
         <v>0</v>
       </c>
       <c r="K123" s="2"/>
@@ -3626,27 +3638,23 @@
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="D124" s="1">
-        <v>3830</v>
+        <v>154</v>
       </c>
       <c r="E124" s="1">
-        <v>6084</v>
+        <v>330</v>
       </c>
       <c r="F124" s="1">
-        <v>2262</v>
+        <v>176</v>
       </c>
       <c r="G124" s="1">
-        <v>3068</v>
-      </c>
-      <c r="H124" s="1">
-        <v>8</v>
-      </c>
-      <c r="I124" s="1"/>
+        <v>80</v>
+      </c>
       <c r="J124">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3657,23 +3665,27 @@
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="D125" s="1">
-        <v>2214</v>
+        <v>3830</v>
       </c>
       <c r="E125" s="1">
-        <v>2344</v>
+        <v>6084</v>
       </c>
       <c r="F125" s="1">
-        <v>130</v>
+        <v>2262</v>
       </c>
       <c r="G125" s="1">
-        <v>196</v>
-      </c>
+        <v>3068</v>
+      </c>
+      <c r="H125" s="1">
+        <v>8</v>
+      </c>
+      <c r="I125" s="1"/>
       <c r="J125">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3684,27 +3696,23 @@
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D126" s="1">
-        <v>2954</v>
+        <v>2214</v>
       </c>
       <c r="E126" s="1">
-        <v>3242</v>
+        <v>2344</v>
       </c>
       <c r="F126" s="1">
-        <v>382</v>
+        <v>130</v>
       </c>
       <c r="G126" s="1">
-        <v>462</v>
-      </c>
-      <c r="H126" s="1">
-        <v>94</v>
-      </c>
-      <c r="I126" s="1"/>
+        <v>196</v>
+      </c>
       <c r="J126">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3715,25 +3723,25 @@
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="D127" s="1">
-        <v>318</v>
+        <v>2954</v>
       </c>
       <c r="E127" s="1">
-        <v>354</v>
+        <v>3242</v>
       </c>
       <c r="F127" s="1">
-        <v>58</v>
+        <v>382</v>
       </c>
       <c r="G127" s="1">
-        <v>144</v>
+        <v>462</v>
       </c>
       <c r="H127" s="1">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="I127" s="1"/>
       <c r="J127">
@@ -3746,16 +3754,22 @@
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
+        <v>142</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="1">
+        <v>318</v>
+      </c>
+      <c r="E128" s="1">
+        <v>354</v>
+      </c>
+      <c r="F128" s="1">
+        <v>58</v>
+      </c>
+      <c r="G128" s="1">
         <v>144</v>
-      </c>
-      <c r="C128" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D128" s="1">
-        <v>2752</v>
-      </c>
-      <c r="E128" s="1">
-        <v>2730</v>
       </c>
       <c r="H128" s="1">
         <v>22</v>
@@ -3771,23 +3785,21 @@
     </row>
     <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D129" s="1">
-        <v>2156</v>
+        <v>2752</v>
       </c>
       <c r="E129" s="1">
-        <v>2520</v>
-      </c>
-      <c r="F129" s="1">
-        <v>364</v>
-      </c>
-      <c r="G129" s="1">
-        <v>1990</v>
-      </c>
+        <v>2730</v>
+      </c>
+      <c r="H129" s="1">
+        <v>22</v>
+      </c>
+      <c r="I129" s="1"/>
       <c r="J129">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3798,22 +3810,22 @@
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D130" s="1">
-        <v>2</v>
+        <v>2156</v>
       </c>
       <c r="E130" s="1">
-        <v>30</v>
+        <v>2520</v>
       </c>
       <c r="F130" s="1">
-        <v>28</v>
+        <v>364</v>
       </c>
       <c r="G130" s="1">
-        <v>2</v>
+        <v>1990</v>
       </c>
       <c r="J130">
         <f t="shared" si="5"/>
@@ -3825,22 +3837,22 @@
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D131" s="1">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="E131" s="1">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="F131" s="1">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="G131" s="1">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="J131">
         <f t="shared" si="5"/>
@@ -3852,22 +3864,22 @@
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="D132" s="1">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="E132" s="1">
-        <v>126</v>
+        <v>172</v>
       </c>
       <c r="F132" s="1">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="G132" s="1">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J132">
         <f t="shared" si="5"/>
@@ -3879,22 +3891,22 @@
     </row>
     <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D133" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="E133" s="1">
-        <v>30</v>
+        <v>126</v>
       </c>
       <c r="F133" s="1">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="G133" s="1">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="J133">
         <f t="shared" si="5"/>
@@ -3906,19 +3918,23 @@
     </row>
     <row r="134" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D134" s="1"/>
+        <v>111</v>
+      </c>
+      <c r="D134" s="1">
+        <v>2</v>
+      </c>
       <c r="E134" s="1">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F134" s="1">
-        <v>4</v>
-      </c>
-      <c r="G134" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="G134" s="1">
+        <v>2</v>
+      </c>
       <c r="J134">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3929,23 +3945,19 @@
     </row>
     <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D135" s="1">
-        <v>70</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="D135" s="1"/>
       <c r="E135" s="1">
-        <v>132</v>
+        <v>4</v>
       </c>
       <c r="F135" s="1">
-        <v>62</v>
-      </c>
-      <c r="G135" s="1">
-        <v>62</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="G135" s="1"/>
       <c r="J135">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -3956,22 +3968,22 @@
     </row>
     <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>133</v>
+        <v>8</v>
       </c>
       <c r="D136" s="1">
-        <v>206</v>
+        <v>70</v>
       </c>
       <c r="E136" s="1">
-        <v>378</v>
+        <v>132</v>
       </c>
       <c r="F136" s="1">
-        <v>172</v>
+        <v>62</v>
       </c>
       <c r="G136" s="1">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="J136">
         <f t="shared" si="5"/>
@@ -3980,33 +3992,26 @@
       <c r="K136" s="2"/>
       <c r="L136" s="1"/>
       <c r="M136" s="1"/>
-      <c r="P136" t="s">
-        <v>119</v>
-      </c>
     </row>
     <row r="137" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="D137" s="1">
-        <v>344</v>
+        <v>206</v>
       </c>
       <c r="E137" s="1">
-        <v>403</v>
+        <v>378</v>
       </c>
       <c r="F137" s="1">
-        <v>61</v>
+        <v>172</v>
       </c>
       <c r="G137" s="1">
-        <v>163</v>
-      </c>
-      <c r="H137" s="1">
-        <v>2</v>
-      </c>
-      <c r="I137" s="1"/>
+        <v>15</v>
+      </c>
       <c r="J137">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4014,20 +4019,33 @@
       <c r="K137" s="2"/>
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
+      <c r="P137" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D138" s="1">
+        <v>344</v>
+      </c>
+      <c r="E138" s="1">
+        <v>403</v>
+      </c>
+      <c r="F138" s="1">
         <v>61</v>
       </c>
-      <c r="E138" s="1">
-        <v>61</v>
-      </c>
+      <c r="G138" s="1">
+        <v>163</v>
+      </c>
+      <c r="H138" s="1">
+        <v>2</v>
+      </c>
+      <c r="I138" s="1"/>
       <c r="J138">
         <f t="shared" si="5"/>
         <v>0</v>
@@ -4038,16 +4056,16 @@
     </row>
     <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="D139" s="1">
-        <v>206</v>
+        <v>61</v>
       </c>
       <c r="E139" s="1">
-        <v>206</v>
+        <v>61</v>
       </c>
       <c r="J139">
         <f t="shared" si="5"/>
@@ -4059,16 +4077,16 @@
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D140" s="1">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="E140" s="1">
-        <v>79</v>
+        <v>206</v>
       </c>
       <c r="J140">
         <f t="shared" si="5"/>
@@ -4080,16 +4098,16 @@
     </row>
     <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D141" s="1">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="E141" s="1">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="J141">
         <f t="shared" si="5"/>
@@ -4097,19 +4115,20 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="1"/>
+      <c r="M141" s="1"/>
     </row>
     <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="D142" s="1">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="E142" s="1">
-        <v>150</v>
+        <v>71</v>
       </c>
       <c r="J142">
         <f t="shared" si="5"/>
@@ -4119,35 +4138,39 @@
       <c r="L142" s="1"/>
     </row>
     <row r="143" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C143" s="2"/>
+      <c r="B143" t="s">
+        <v>142</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D143" s="1">
+        <v>150</v>
+      </c>
+      <c r="E143" s="1">
+        <v>150</v>
+      </c>
+      <c r="J143">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
       <c r="K143" s="2"/>
       <c r="L143" s="1"/>
     </row>
     <row r="144" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C144" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="D144">
-        <v>2752</v>
-      </c>
-      <c r="E144">
-        <v>2752</v>
-      </c>
-      <c r="J144" t="s">
-        <v>62</v>
-      </c>
+      <c r="C144" s="2"/>
       <c r="K144" s="2"/>
       <c r="L144" s="1"/>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C145" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D145">
-        <v>206</v>
+        <v>2752</v>
       </c>
       <c r="E145">
-        <v>206</v>
+        <v>2752</v>
       </c>
       <c r="J145" t="s">
         <v>62</v>
@@ -4157,13 +4180,13 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C146" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D146">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="E146">
-        <v>150</v>
+        <v>206</v>
       </c>
       <c r="J146" t="s">
         <v>62</v>
@@ -4172,80 +4195,67 @@
       <c r="L146" s="1"/>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C147" s="2"/>
+      <c r="C147" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D147">
+        <v>150</v>
+      </c>
+      <c r="E147">
+        <v>150</v>
+      </c>
+      <c r="J147" t="s">
+        <v>62</v>
+      </c>
+      <c r="K147" s="2"/>
+      <c r="L147" s="1"/>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D148" t="s">
+      <c r="C148" s="2"/>
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D149" t="s">
         <v>9</v>
       </c>
-      <c r="E148" t="s">
+      <c r="E149" t="s">
         <v>60</v>
       </c>
-      <c r="F148" t="s">
+      <c r="F149" t="s">
         <v>61</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G149" t="s">
         <v>10</v>
       </c>
-      <c r="H148" t="s">
+      <c r="H149" t="s">
         <v>65</v>
-      </c>
-      <c r="K148" s="2"/>
-      <c r="L148" s="1"/>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149">
-        <v>1</v>
-      </c>
-      <c r="B149" t="s">
-        <v>132</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D149" s="1">
-        <v>3862</v>
-      </c>
-      <c r="E149" s="1">
-        <v>204414</v>
-      </c>
-      <c r="F149" s="1">
-        <v>200552</v>
-      </c>
-      <c r="G149" s="1">
-        <v>2676</v>
-      </c>
-      <c r="J149">
-        <f t="shared" ref="J149:J164" si="6">E149-F149+H149-D149</f>
-        <v>0</v>
       </c>
       <c r="K149" s="2"/>
       <c r="L149" s="1"/>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B150" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="D150" s="1">
-        <v>2902</v>
+        <v>3862</v>
       </c>
       <c r="E150" s="1">
+        <v>204414</v>
+      </c>
+      <c r="F150" s="1">
         <v>200552</v>
       </c>
-      <c r="F150" s="1">
-        <v>197650</v>
-      </c>
       <c r="G150" s="1">
-        <v>2902</v>
+        <v>2676</v>
       </c>
       <c r="J150">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J150:J165" si="6">E150-F150+H150-D150</f>
         <v>0</v>
       </c>
       <c r="K150" s="2"/>
@@ -4253,25 +4263,25 @@
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="D151" s="1">
-        <v>80024</v>
+        <v>2902</v>
       </c>
       <c r="E151" s="1">
-        <v>193788</v>
+        <v>200552</v>
       </c>
       <c r="F151" s="1">
-        <v>113764</v>
+        <v>197650</v>
       </c>
       <c r="G151" s="1">
-        <v>80024</v>
+        <v>2902</v>
       </c>
       <c r="J151">
         <f t="shared" si="6"/>
@@ -4282,19 +4292,25 @@
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>135</v>
+        <v>45</v>
       </c>
       <c r="D152" s="1">
-        <v>190594</v>
+        <v>80024</v>
       </c>
       <c r="E152" s="1">
-        <v>190594</v>
+        <v>193788</v>
+      </c>
+      <c r="F152" s="1">
+        <v>113764</v>
+      </c>
+      <c r="G152" s="1">
+        <v>80024</v>
       </c>
       <c r="J152">
         <f t="shared" si="6"/>
@@ -4305,25 +4321,19 @@
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B153" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D153" s="1">
-        <v>85696</v>
+        <v>190594</v>
       </c>
       <c r="E153" s="1">
-        <v>102630</v>
-      </c>
-      <c r="F153" s="1">
-        <v>16934</v>
-      </c>
-      <c r="G153" s="1">
-        <v>85696</v>
+        <v>190594</v>
       </c>
       <c r="J153">
         <f t="shared" si="6"/>
@@ -4334,19 +4344,25 @@
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B154" t="s">
+        <v>130</v>
+      </c>
+      <c r="C154" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D154" s="1">
-        <v>31930</v>
+        <v>85696</v>
       </c>
       <c r="E154" s="1">
-        <v>31930</v>
+        <v>102630</v>
+      </c>
+      <c r="F154" s="1">
+        <v>16934</v>
+      </c>
+      <c r="G154" s="1">
+        <v>85696</v>
       </c>
       <c r="J154">
         <f t="shared" si="6"/>
@@ -4357,25 +4373,19 @@
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B155" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D155" s="1">
-        <v>31672</v>
+        <v>31930</v>
       </c>
       <c r="E155" s="1">
-        <v>31726</v>
-      </c>
-      <c r="F155" s="1">
-        <v>54</v>
-      </c>
-      <c r="G155" s="1">
-        <v>31672</v>
+        <v>31930</v>
       </c>
       <c r="J155">
         <f t="shared" si="6"/>
@@ -4383,29 +4393,28 @@
       </c>
       <c r="K155" s="2"/>
       <c r="L155" s="1"/>
-      <c r="M155" s="1"/>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B156" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D156" s="1">
-        <v>12</v>
+        <v>31672</v>
       </c>
       <c r="E156" s="1">
-        <v>204</v>
+        <v>31726</v>
       </c>
       <c r="F156" s="1">
-        <v>192</v>
+        <v>54</v>
       </c>
       <c r="G156" s="1">
-        <v>12</v>
+        <v>31672</v>
       </c>
       <c r="J156">
         <f t="shared" si="6"/>
@@ -4413,23 +4422,29 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="1"/>
+      <c r="M156" s="1"/>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D157" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="D157" s="1">
+        <v>12</v>
+      </c>
       <c r="E157" s="1">
-        <v>176</v>
+        <v>204</v>
       </c>
       <c r="F157" s="1">
-        <v>176</v>
+        <v>192</v>
+      </c>
+      <c r="G157" s="1">
+        <v>12</v>
       </c>
       <c r="J157">
         <f t="shared" si="6"/>
@@ -4437,24 +4452,23 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="1"/>
-      <c r="M157" s="1"/>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D158" s="1"/>
       <c r="E158" s="1">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="F158" s="1">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="J158">
         <f t="shared" si="6"/>
@@ -4462,28 +4476,24 @@
       </c>
       <c r="K158" s="2"/>
       <c r="L158" s="1"/>
+      <c r="M158" s="1"/>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B159" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D159" s="1">
-        <v>20</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D159" s="1"/>
       <c r="E159" s="1">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="F159" s="1">
-        <v>148</v>
-      </c>
-      <c r="G159" s="1">
-        <v>6</v>
+        <v>186</v>
       </c>
       <c r="J159">
         <f t="shared" si="6"/>
@@ -4494,19 +4504,25 @@
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="D160" s="1">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="E160" s="1">
-        <v>78</v>
+        <v>168</v>
+      </c>
+      <c r="F160" s="1">
+        <v>148</v>
+      </c>
+      <c r="G160" s="1">
+        <v>6</v>
       </c>
       <c r="J160">
         <f t="shared" si="6"/>
@@ -4514,56 +4530,49 @@
       </c>
       <c r="K160" s="2"/>
       <c r="L160" s="1"/>
-      <c r="M160" s="1"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B161" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="D161" s="1">
-        <v>380</v>
+        <v>78</v>
       </c>
       <c r="E161" s="1">
-        <v>148</v>
-      </c>
-      <c r="H161" s="1">
-        <v>232</v>
-      </c>
-      <c r="I161" s="1"/>
+        <v>78</v>
+      </c>
       <c r="J161">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="K161" s="2"/>
       <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B162" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>131</v>
+        <v>19</v>
       </c>
       <c r="D162" s="1">
-        <v>148</v>
+        <v>380</v>
       </c>
       <c r="E162" s="1">
         <v>148</v>
       </c>
-      <c r="F162" s="1">
-        <v>102</v>
-      </c>
       <c r="H162" s="1">
-        <v>102</v>
+        <v>232</v>
       </c>
       <c r="I162" s="1"/>
       <c r="J162">
@@ -4575,19 +4584,25 @@
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B163" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>38</v>
+        <v>129</v>
       </c>
       <c r="D163" s="1">
-        <v>130</v>
+        <v>148</v>
+      </c>
+      <c r="E163" s="1">
+        <v>148</v>
+      </c>
+      <c r="F163" s="1">
+        <v>102</v>
       </c>
       <c r="H163" s="1">
-        <v>130</v>
+        <v>102</v>
       </c>
       <c r="I163" s="1"/>
       <c r="J163">
@@ -4599,21 +4614,21 @@
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B164" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="D164" s="1">
-        <v>102</v>
-      </c>
-      <c r="E164" s="1">
-        <v>102</v>
-      </c>
-      <c r="F164" s="1"/>
+        <v>130</v>
+      </c>
+      <c r="H164" s="1">
+        <v>130</v>
+      </c>
+      <c r="I164" s="1"/>
       <c r="J164">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -4622,111 +4637,102 @@
       <c r="L164" s="1"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C165" s="2"/>
+      <c r="A165">
+        <v>16</v>
+      </c>
+      <c r="B165" t="s">
+        <v>130</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D165" s="1">
+        <v>102</v>
+      </c>
+      <c r="E165" s="1">
+        <v>102</v>
+      </c>
+      <c r="F165" s="1"/>
+      <c r="J165">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
       <c r="K165" s="2"/>
       <c r="L165" s="1"/>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C166" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D166">
-        <v>380</v>
-      </c>
-      <c r="E166">
-        <v>380</v>
-      </c>
-      <c r="J166" t="s">
-        <v>62</v>
-      </c>
+      <c r="C166" s="2"/>
+      <c r="K166" s="2"/>
+      <c r="L166" s="1"/>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C167" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="D167" s="1">
+        <v>135</v>
+      </c>
+      <c r="D167">
+        <v>380</v>
+      </c>
+      <c r="E167">
+        <v>380</v>
+      </c>
+      <c r="J167" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="C168" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D168" s="1">
         <v>31930</v>
       </c>
-      <c r="E167">
+      <c r="E168">
         <f>32162-102-130</f>
         <v>31930</v>
       </c>
-      <c r="J167" s="6" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C168" s="2"/>
+      <c r="J168" s="6" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="D169" t="s">
+      <c r="C169" s="2"/>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
         <v>9</v>
       </c>
-      <c r="E169" t="s">
+      <c r="E170" t="s">
         <v>60</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F170" t="s">
         <v>61</v>
       </c>
-      <c r="G169" t="s">
+      <c r="G170" t="s">
         <v>10</v>
       </c>
-      <c r="H169" t="s">
+      <c r="H170" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A170">
-        <v>2</v>
-      </c>
-      <c r="B170" t="s">
-        <v>138</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D170" s="1">
-        <v>35</v>
-      </c>
-      <c r="E170" s="1">
-        <v>45</v>
-      </c>
-      <c r="F170">
-        <v>10</v>
-      </c>
-      <c r="J170">
-        <f>E170-F170+H170-D170</f>
-        <v>0</v>
-      </c>
-      <c r="K170" s="2"/>
-      <c r="L170" s="1"/>
-      <c r="O170" s="2"/>
-      <c r="P170" s="1"/>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B171" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D171" s="1">
-        <v>242</v>
+        <v>35</v>
       </c>
       <c r="E171" s="1">
-        <v>378</v>
-      </c>
-      <c r="F171" s="1">
-        <v>151</v>
-      </c>
-      <c r="G171" s="1"/>
-      <c r="H171" s="1">
-        <v>15</v>
-      </c>
-      <c r="I171" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="F171">
+        <v>10</v>
+      </c>
       <c r="J171">
         <f>E171-F171+H171-D171</f>
         <v>0</v>
@@ -4738,22 +4744,26 @@
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B172" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="D172" s="1">
-        <v>368</v>
+        <v>242</v>
       </c>
       <c r="E172" s="1">
-        <v>299</v>
-      </c>
+        <v>378</v>
+      </c>
+      <c r="F172" s="1">
+        <v>151</v>
+      </c>
+      <c r="G172" s="1"/>
       <c r="H172" s="1">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="I172" s="1"/>
       <c r="J172">
@@ -4767,26 +4777,22 @@
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B173" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D173" s="1">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="E173" s="1">
-        <v>81</v>
-      </c>
-      <c r="F173" s="1">
-        <v>87</v>
-      </c>
-      <c r="G173" s="1"/>
+        <v>299</v>
+      </c>
       <c r="H173" s="1">
-        <v>6</v>
+        <v>69</v>
       </c>
       <c r="I173" s="1"/>
       <c r="J173">
@@ -4800,22 +4806,32 @@
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="D174" s="1">
-        <v>178</v>
-      </c>
-      <c r="E174" s="1"/>
-      <c r="F174" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="E174" s="1">
+        <v>81</v>
+      </c>
+      <c r="F174" s="1">
+        <v>87</v>
+      </c>
       <c r="G174" s="1"/>
-      <c r="H174" s="1"/>
+      <c r="H174" s="1">
+        <v>6</v>
+      </c>
       <c r="I174" s="1"/>
+      <c r="J174">
+        <f>E174-F174+H174-D174</f>
+        <v>0</v>
+      </c>
       <c r="K174" s="2"/>
       <c r="L174" s="1"/>
       <c r="O174" s="2"/>
@@ -4823,32 +4839,22 @@
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>4</v>
+        <v>6.1</v>
       </c>
       <c r="B175" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>4</v>
+        <v>149</v>
       </c>
       <c r="D175" s="1">
-        <v>0</v>
-      </c>
-      <c r="E175" s="1">
-        <v>40</v>
-      </c>
-      <c r="F175" s="1">
-        <v>50</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="E175" s="1"/>
+      <c r="F175" s="1"/>
       <c r="G175" s="1"/>
-      <c r="H175" s="1">
-        <v>10</v>
-      </c>
+      <c r="H175" s="1"/>
       <c r="I175" s="1"/>
-      <c r="J175">
-        <f>E175-F175+H175-D175</f>
-        <v>0</v>
-      </c>
       <c r="K175" s="2"/>
       <c r="L175" s="1"/>
       <c r="O175" s="2"/>
@@ -4856,24 +4862,26 @@
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>4.0999999999999996</v>
+        <v>4</v>
       </c>
       <c r="B176" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>155</v>
+        <v>4</v>
       </c>
       <c r="D176" s="1">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E176" s="1">
-        <v>67</v>
-      </c>
-      <c r="F176" s="1"/>
+        <v>40</v>
+      </c>
+      <c r="F176" s="1">
+        <v>50</v>
+      </c>
       <c r="G176" s="1"/>
       <c r="H176" s="1">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I176" s="1"/>
       <c r="J176">
@@ -4887,22 +4895,24 @@
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="B177" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>5</v>
+        <v>150</v>
       </c>
       <c r="D177" s="1">
-        <v>632</v>
+        <v>80</v>
       </c>
       <c r="E177" s="1">
-        <v>533</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F177" s="1"/>
+      <c r="G177" s="1"/>
       <c r="H177" s="1">
-        <v>99</v>
+        <v>13</v>
       </c>
       <c r="I177" s="1"/>
       <c r="J177">
@@ -4916,87 +4926,91 @@
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A178">
+        <v>3</v>
+      </c>
+      <c r="B178" t="s">
+        <v>136</v>
+      </c>
+      <c r="C178" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B178" t="s">
-        <v>138</v>
-      </c>
-      <c r="C178" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D178" s="1">
-        <v>6</v>
+        <v>632</v>
       </c>
       <c r="E178" s="1">
-        <v>5</v>
+        <v>533</v>
       </c>
       <c r="H178" s="1">
-        <v>1</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="I178" s="1"/>
       <c r="J178">
         <f>E178-F178+H178-D178</f>
         <v>0</v>
       </c>
-      <c r="K178" s="2" t="s">
-        <v>153</v>
-      </c>
+      <c r="K178" s="2"/>
       <c r="L178" s="1"/>
       <c r="O178" s="2"/>
       <c r="P178" s="1"/>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B179" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C179" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D179" s="1">
         <v>6</v>
       </c>
-      <c r="D179" s="1">
-        <v>0</v>
-      </c>
       <c r="E179" s="1">
-        <v>92</v>
-      </c>
-      <c r="F179" s="1">
-        <v>102</v>
-      </c>
-      <c r="G179" s="1"/>
+        <v>5</v>
+      </c>
       <c r="H179" s="1">
-        <v>10</v>
-      </c>
-      <c r="I179" s="1"/>
+        <v>1</v>
+      </c>
       <c r="J179">
         <f>E179-F179+H179-D179</f>
         <v>0</v>
       </c>
-      <c r="K179" s="2"/>
+      <c r="K179" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="L179" s="1"/>
       <c r="O179" s="2"/>
       <c r="P179" s="1"/>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>151</v>
+        <v>6</v>
       </c>
       <c r="D180" s="1">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="E180" s="1">
-        <v>95</v>
-      </c>
-      <c r="F180" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="F180" s="1">
+        <v>102</v>
+      </c>
       <c r="G180" s="1"/>
-      <c r="H180" s="1"/>
+      <c r="H180" s="1">
+        <v>10</v>
+      </c>
       <c r="I180" s="1"/>
+      <c r="J180">
+        <f>E180-F180+H180-D180</f>
+        <v>0</v>
+      </c>
       <c r="K180" s="2"/>
       <c r="L180" s="1"/>
       <c r="O180" s="2"/>
@@ -5004,28 +5018,24 @@
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>10</v>
+        <v>9.1</v>
       </c>
       <c r="B181" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>7</v>
+        <v>146</v>
       </c>
       <c r="D181" s="1">
-        <v>147</v>
+        <v>95</v>
       </c>
       <c r="E181" s="1">
-        <v>144</v>
-      </c>
-      <c r="H181" s="1">
-        <v>3</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="F181" s="1"/>
+      <c r="G181" s="1"/>
+      <c r="H181" s="1"/>
       <c r="I181" s="1"/>
-      <c r="J181">
-        <f>E181-F181+H181-D181</f>
-        <v>0</v>
-      </c>
       <c r="K181" s="2"/>
       <c r="L181" s="1"/>
       <c r="O181" s="2"/>
@@ -5033,26 +5043,22 @@
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B182" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D182" s="1">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="E182" s="1">
-        <v>120</v>
-      </c>
-      <c r="F182" s="1">
-        <v>151</v>
-      </c>
-      <c r="G182" s="1"/>
+        <v>144</v>
+      </c>
       <c r="H182" s="1">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="I182" s="1"/>
       <c r="J182">
@@ -5066,31 +5072,55 @@
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="D183" s="1">
-        <v>126</v>
+        <v>0</v>
       </c>
       <c r="E183" s="1">
-        <v>126</v>
-      </c>
-      <c r="F183" s="1"/>
+        <v>120</v>
+      </c>
+      <c r="F183" s="1">
+        <v>151</v>
+      </c>
       <c r="G183" s="1"/>
-      <c r="H183" s="1"/>
+      <c r="H183" s="1">
+        <v>31</v>
+      </c>
       <c r="I183" s="1"/>
+      <c r="J183">
+        <f>E183-F183+H183-D183</f>
+        <v>0</v>
+      </c>
       <c r="K183" s="2"/>
       <c r="L183" s="1"/>
       <c r="O183" s="2"/>
       <c r="P183" s="1"/>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C184" s="2"/>
+      <c r="A184">
+        <v>8.1</v>
+      </c>
+      <c r="B184" t="s">
+        <v>136</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D184" s="1">
+        <v>126</v>
+      </c>
+      <c r="E184" s="1">
+        <v>126</v>
+      </c>
+      <c r="F184" s="1"/>
+      <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
       <c r="K184" s="2"/>
@@ -5099,33 +5129,25 @@
       <c r="P184" s="1"/>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C185" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D185" s="1">
-        <f>D177</f>
-        <v>632</v>
-      </c>
-      <c r="E185">
-        <f>SUM(D172:D176,D178)</f>
-        <v>632</v>
-      </c>
-      <c r="F185">
-        <f>D185-E185</f>
-        <v>0</v>
-      </c>
+      <c r="C185" s="2"/>
+      <c r="H185" s="1"/>
+      <c r="I185" s="1"/>
       <c r="K185" s="2"/>
       <c r="L185" s="1"/>
+      <c r="O185" s="2"/>
+      <c r="P185" s="1"/>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C186" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D186" s="1">
-        <v>369</v>
-      </c>
-      <c r="E186" s="1">
-        <v>369</v>
+        <f>D178</f>
+        <v>632</v>
+      </c>
+      <c r="E186">
+        <f>SUM(D173:D177,D179)</f>
+        <v>632</v>
       </c>
       <c r="F186">
         <f>D186-E186</f>
@@ -5135,86 +5157,73 @@
       <c r="L186" s="1"/>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C187" s="2"/>
+      <c r="C187" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D187" s="1">
+        <v>369</v>
+      </c>
+      <c r="E187" s="1">
+        <v>369</v>
+      </c>
+      <c r="F187">
+        <f>D187-E187</f>
+        <v>0</v>
+      </c>
       <c r="K187" s="2"/>
       <c r="L187" s="1"/>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C188" s="2"/>
-      <c r="D188" t="s">
-        <v>9</v>
-      </c>
-      <c r="E188" t="s">
-        <v>60</v>
-      </c>
-      <c r="F188" t="s">
-        <v>61</v>
-      </c>
-      <c r="G188" t="s">
-        <v>10</v>
-      </c>
-      <c r="H188" t="s">
-        <v>65</v>
-      </c>
       <c r="K188" s="2"/>
       <c r="L188" s="1"/>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C189" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D189" s="1"/>
+      <c r="C189" s="2"/>
+      <c r="D189" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" t="s">
+        <v>60</v>
+      </c>
+      <c r="F189" t="s">
+        <v>61</v>
+      </c>
+      <c r="G189" t="s">
+        <v>10</v>
+      </c>
+      <c r="H189" t="s">
+        <v>65</v>
+      </c>
       <c r="K189" s="2"/>
       <c r="L189" s="1"/>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A190">
-        <v>4</v>
-      </c>
-      <c r="B190" t="s">
-        <v>53</v>
-      </c>
       <c r="C190" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D190" s="1">
-        <v>319</v>
-      </c>
-      <c r="E190" s="1">
-        <v>319</v>
-      </c>
-      <c r="J190">
-        <f t="shared" ref="J190:J202" si="7">E190-F190+H190-D190</f>
-        <v>0</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D190" s="1"/>
       <c r="K190" s="2"/>
       <c r="L190" s="1"/>
-      <c r="M190" s="4"/>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B191" t="s">
         <v>53</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="D191" s="1">
-        <v>724</v>
+        <v>319</v>
       </c>
       <c r="E191" s="1">
-        <v>4768</v>
-      </c>
-      <c r="F191" s="1">
-        <v>4044</v>
-      </c>
-      <c r="G191" s="1">
-        <v>74</v>
+        <v>319</v>
       </c>
       <c r="J191">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="J191:J203" si="7">E191-F191+H191-D191</f>
         <v>0</v>
       </c>
       <c r="K191" s="2"/>
@@ -5223,25 +5232,25 @@
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B192" t="s">
         <v>53</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D192" s="1">
-        <v>264</v>
+        <v>724</v>
       </c>
       <c r="E192" s="1">
-        <v>5034</v>
+        <v>4768</v>
       </c>
       <c r="F192" s="1">
-        <v>4770</v>
+        <v>4044</v>
       </c>
       <c r="G192" s="1">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="J192">
         <f t="shared" si="7"/>
@@ -5253,25 +5262,25 @@
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B193" t="s">
         <v>53</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193" s="1">
-        <v>3054</v>
+        <v>264</v>
       </c>
       <c r="E193" s="1">
-        <v>8093</v>
+        <v>5034</v>
       </c>
       <c r="F193" s="1">
-        <v>5039</v>
+        <v>4770</v>
       </c>
       <c r="G193" s="1">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="J193">
         <f t="shared" si="7"/>
@@ -5283,19 +5292,25 @@
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B194" t="s">
         <v>53</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D194" s="1">
-        <v>2997</v>
+        <v>3054</v>
       </c>
       <c r="E194" s="1">
-        <v>2997</v>
+        <v>8093</v>
+      </c>
+      <c r="F194" s="1">
+        <v>5039</v>
+      </c>
+      <c r="G194" s="1">
+        <v>32</v>
       </c>
       <c r="J194">
         <f t="shared" si="7"/>
@@ -5307,25 +5322,19 @@
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B195" t="s">
         <v>53</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="D195" s="1">
-        <v>259</v>
+        <v>2997</v>
       </c>
       <c r="E195" s="1">
-        <v>1189</v>
-      </c>
-      <c r="F195" s="1">
-        <v>930</v>
-      </c>
-      <c r="G195" s="1">
-        <v>259</v>
+        <v>2997</v>
       </c>
       <c r="J195">
         <f t="shared" si="7"/>
@@ -5337,25 +5346,25 @@
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B196" t="s">
         <v>53</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D196" s="1">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="E196" s="1">
-        <v>4014</v>
+        <v>1189</v>
       </c>
       <c r="F196" s="1">
-        <v>3817</v>
+        <v>930</v>
       </c>
       <c r="G196" s="1">
-        <v>197</v>
+        <v>259</v>
       </c>
       <c r="J196">
         <f t="shared" si="7"/>
@@ -5367,19 +5376,25 @@
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B197" t="s">
         <v>53</v>
       </c>
       <c r="C197" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D197" s="1">
-        <v>4071</v>
+        <v>197</v>
       </c>
       <c r="E197" s="1">
-        <v>4071</v>
+        <v>4014</v>
+      </c>
+      <c r="F197" s="1">
+        <v>3817</v>
+      </c>
+      <c r="G197" s="1">
+        <v>197</v>
       </c>
       <c r="J197">
         <f t="shared" si="7"/>
@@ -5391,19 +5406,19 @@
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B198" t="s">
         <v>53</v>
       </c>
       <c r="C198" s="2" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D198" s="1">
-        <v>1323</v>
+        <v>4071</v>
       </c>
       <c r="E198" s="1">
-        <v>1323</v>
+        <v>4071</v>
       </c>
       <c r="J198">
         <f t="shared" si="7"/>
@@ -5415,25 +5430,19 @@
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B199" t="s">
         <v>53</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>14</v>
+        <v>54</v>
       </c>
       <c r="D199" s="1">
-        <v>47</v>
+        <v>1323</v>
       </c>
       <c r="E199" s="1">
-        <v>1629</v>
-      </c>
-      <c r="F199" s="1">
-        <v>1582</v>
-      </c>
-      <c r="G199" s="1">
-        <v>47</v>
+        <v>1323</v>
       </c>
       <c r="J199">
         <f t="shared" si="7"/>
@@ -5445,25 +5454,25 @@
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B200" t="s">
         <v>53</v>
       </c>
       <c r="C200" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D200" s="1">
-        <v>408</v>
+        <v>47</v>
       </c>
       <c r="E200" s="1">
-        <v>1564</v>
+        <v>1629</v>
       </c>
       <c r="F200" s="1">
-        <v>1156</v>
+        <v>1582</v>
       </c>
       <c r="G200" s="1">
-        <v>408</v>
+        <v>47</v>
       </c>
       <c r="J200">
         <f t="shared" si="7"/>
@@ -5475,22 +5484,25 @@
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B201" t="s">
         <v>53</v>
       </c>
       <c r="C201" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D201" s="1">
-        <v>1266</v>
+        <v>408</v>
       </c>
       <c r="E201" s="1">
-        <v>1266</v>
+        <v>1564</v>
+      </c>
+      <c r="F201" s="1">
+        <v>1156</v>
       </c>
       <c r="G201" s="1">
-        <v>571</v>
+        <v>408</v>
       </c>
       <c r="J201">
         <f t="shared" si="7"/>
@@ -5502,22 +5514,22 @@
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B202" t="s">
         <v>53</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D202" s="1">
+        <v>1266</v>
+      </c>
+      <c r="E202" s="1">
+        <v>1266</v>
+      </c>
+      <c r="G202" s="1">
         <v>571</v>
-      </c>
-      <c r="E202" s="1">
-        <v>2187</v>
-      </c>
-      <c r="F202" s="1">
-        <v>1616</v>
       </c>
       <c r="J202">
         <f t="shared" si="7"/>
@@ -5528,118 +5540,113 @@
       <c r="M202" s="4"/>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C203" s="2"/>
+      <c r="A203">
+        <v>10</v>
+      </c>
+      <c r="B203" t="s">
+        <v>53</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D203" s="1">
+        <v>571</v>
+      </c>
+      <c r="E203" s="1">
+        <v>2187</v>
+      </c>
+      <c r="F203" s="1">
+        <v>1616</v>
+      </c>
+      <c r="J203">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="K203" s="2"/>
       <c r="L203" s="1"/>
       <c r="M203" s="4"/>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C204" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D204">
-        <v>2997</v>
-      </c>
-      <c r="E204">
-        <v>2997</v>
-      </c>
-      <c r="J204" t="s">
-        <v>62</v>
-      </c>
+      <c r="C204" s="2"/>
       <c r="K204" s="2"/>
       <c r="L204" s="1"/>
+      <c r="M204" s="4"/>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C205" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D205" s="1">
-        <v>4071</v>
-      </c>
-      <c r="E205" s="1">
-        <v>4071</v>
+        <v>57</v>
+      </c>
+      <c r="D205">
+        <v>2997</v>
+      </c>
+      <c r="E205">
+        <v>2997</v>
       </c>
       <c r="J205" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D207" t="s">
+      <c r="K205" s="2"/>
+      <c r="L205" s="1"/>
+    </row>
+    <row r="206" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C206" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D206" s="1">
+        <v>4071</v>
+      </c>
+      <c r="E206" s="1">
+        <v>4071</v>
+      </c>
+      <c r="J206" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D208" t="s">
         <v>9</v>
       </c>
-      <c r="E207" t="s">
+      <c r="E208" t="s">
         <v>60</v>
       </c>
-      <c r="F207" t="s">
+      <c r="F208" t="s">
         <v>61</v>
       </c>
-      <c r="G207" t="s">
+      <c r="G208" t="s">
         <v>10</v>
       </c>
-      <c r="H207" t="s">
+      <c r="H208" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>1</v>
-      </c>
-      <c r="B208" t="s">
-        <v>115</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D208" s="1">
-        <v>56</v>
-      </c>
-      <c r="E208" s="1">
-        <v>675</v>
-      </c>
-      <c r="F208" s="1">
-        <v>620</v>
-      </c>
-      <c r="G208" s="1">
-        <v>1</v>
-      </c>
-      <c r="H208" s="1">
-        <v>1</v>
-      </c>
-      <c r="I208" s="1"/>
-      <c r="J208">
-        <f t="shared" ref="J208:J224" si="8">E208-F208+H208-D208</f>
-        <v>0</v>
-      </c>
-      <c r="K208" s="2"/>
-      <c r="L208" s="1"/>
-      <c r="M208" s="1"/>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B209" t="s">
         <v>115</v>
       </c>
       <c r="C209" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D209" s="1">
+        <v>56</v>
+      </c>
+      <c r="E209" s="1">
+        <v>675</v>
+      </c>
+      <c r="F209" s="1">
+        <v>620</v>
+      </c>
+      <c r="G209" s="1">
         <v>1</v>
       </c>
-      <c r="D209" s="1">
-        <v>182</v>
-      </c>
-      <c r="E209" s="1">
-        <v>935</v>
-      </c>
-      <c r="F209" s="1">
-        <v>753</v>
-      </c>
-      <c r="G209" s="1">
-        <v>73</v>
-      </c>
-      <c r="H209" s="1"/>
+      <c r="H209" s="1">
+        <v>1</v>
+      </c>
       <c r="I209" s="1"/>
       <c r="J209">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="J209:J225" si="8">E209-F209+H209-D209</f>
         <v>0</v>
       </c>
       <c r="K209" s="2"/>
@@ -5648,26 +5655,28 @@
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B210" t="s">
         <v>115</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D210" s="1">
-        <v>155</v>
+        <v>182</v>
       </c>
       <c r="E210" s="1">
-        <v>1046</v>
+        <v>935</v>
       </c>
       <c r="F210" s="1">
-        <v>891</v>
+        <v>753</v>
       </c>
       <c r="G210" s="1">
-        <v>106</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="H210" s="1"/>
+      <c r="I210" s="1"/>
       <c r="J210">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5678,19 +5687,25 @@
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B211" t="s">
         <v>115</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D211" s="1">
-        <v>1013</v>
+        <v>155</v>
       </c>
       <c r="E211" s="1">
-        <v>1013</v>
+        <v>1046</v>
+      </c>
+      <c r="F211" s="1">
+        <v>891</v>
+      </c>
+      <c r="G211" s="1">
+        <v>106</v>
       </c>
       <c r="J211">
         <f t="shared" si="8"/>
@@ -5702,24 +5717,20 @@
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B212" t="s">
         <v>115</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D212" s="1">
-        <v>1343</v>
+        <v>1013</v>
       </c>
       <c r="E212" s="1">
         <v>1013</v>
       </c>
-      <c r="H212" s="1">
-        <v>330</v>
-      </c>
-      <c r="I212" s="1"/>
       <c r="J212">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5730,26 +5741,24 @@
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B213" t="s">
         <v>115</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D213" s="1">
-        <v>203</v>
+        <v>1343</v>
       </c>
       <c r="E213" s="1">
-        <v>554</v>
-      </c>
-      <c r="F213" s="1">
-        <v>351</v>
-      </c>
-      <c r="G213" s="1">
-        <v>85</v>
-      </c>
+        <v>1013</v>
+      </c>
+      <c r="H213" s="1">
+        <v>330</v>
+      </c>
+      <c r="I213" s="1"/>
       <c r="J213">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5760,25 +5769,25 @@
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B214" t="s">
         <v>115</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D214" s="1">
-        <v>264</v>
+        <v>203</v>
       </c>
       <c r="E214" s="1">
-        <v>592</v>
+        <v>554</v>
       </c>
       <c r="F214" s="1">
-        <v>328</v>
+        <v>351</v>
       </c>
       <c r="G214" s="1">
-        <v>172</v>
+        <v>85</v>
       </c>
       <c r="J214">
         <f t="shared" si="8"/>
@@ -5790,30 +5799,26 @@
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B215" t="s">
         <v>115</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D215" s="1">
-        <v>399</v>
+        <v>264</v>
       </c>
       <c r="E215" s="1">
-        <v>523</v>
+        <v>592</v>
       </c>
       <c r="F215" s="1">
+        <v>328</v>
+      </c>
+      <c r="G215" s="1">
         <v>172</v>
       </c>
-      <c r="G215" s="1">
-        <v>25</v>
-      </c>
-      <c r="H215" s="1">
-        <v>48</v>
-      </c>
-      <c r="I215" s="1"/>
       <c r="J215">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5824,28 +5829,28 @@
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B216" t="s">
         <v>115</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D216" s="1">
-        <v>278</v>
+        <v>399</v>
       </c>
       <c r="E216" s="1">
-        <v>186</v>
+        <v>523</v>
       </c>
       <c r="F216" s="1">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="G216" s="1">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="H216" s="1">
-        <v>282</v>
+        <v>48</v>
       </c>
       <c r="I216" s="1"/>
       <c r="J216">
@@ -5858,26 +5863,30 @@
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B217" t="s">
         <v>115</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D217" s="1">
-        <v>21</v>
+        <v>278</v>
       </c>
       <c r="E217" s="1">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="F217" s="1">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="G217" s="1">
-        <v>21</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="H217" s="1">
+        <v>282</v>
+      </c>
+      <c r="I217" s="1"/>
       <c r="J217">
         <f t="shared" si="8"/>
         <v>0</v>
@@ -5888,25 +5897,25 @@
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B218" t="s">
         <v>115</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>110</v>
+        <v>6</v>
       </c>
       <c r="D218" s="1">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E218" s="1">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="F218" s="1">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="G218" s="1">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="J218">
         <f t="shared" si="8"/>
@@ -5918,25 +5927,25 @@
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B219" t="s">
         <v>115</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D219" s="1">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E219" s="1">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="F219" s="1">
-        <v>108</v>
+        <v>143</v>
       </c>
       <c r="G219" s="1">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="J219">
         <f t="shared" si="8"/>
@@ -5948,25 +5957,25 @@
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B220" t="s">
         <v>115</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D220" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E220" s="1">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F220" s="1">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G220" s="1">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="J220">
         <f t="shared" si="8"/>
@@ -5978,25 +5987,25 @@
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B221" t="s">
         <v>115</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D221" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E221" s="1">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F221" s="1">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="G221" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J221">
         <f t="shared" si="8"/>
@@ -6008,25 +6017,25 @@
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B222" t="s">
         <v>115</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D222" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E222" s="1">
-        <v>4</v>
+        <v>122</v>
       </c>
       <c r="F222" s="1">
-        <v>3</v>
+        <v>120</v>
       </c>
       <c r="G222" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J222">
         <f t="shared" si="8"/>
@@ -6038,19 +6047,25 @@
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B223" t="s">
         <v>115</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="D223" s="1">
-        <v>133</v>
+        <v>1</v>
       </c>
       <c r="E223" s="1">
-        <v>133</v>
+        <v>4</v>
+      </c>
+      <c r="F223" s="1">
+        <v>3</v>
+      </c>
+      <c r="G223" s="1">
+        <v>1</v>
       </c>
       <c r="J223">
         <f t="shared" si="8"/>
@@ -6062,13 +6077,13 @@
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B224" t="s">
         <v>115</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D224" s="1">
         <v>133</v>
@@ -6085,46 +6100,53 @@
       <c r="M224" s="1"/>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>17</v>
+      </c>
+      <c r="B225" t="s">
+        <v>115</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D225" s="1">
+        <v>133</v>
+      </c>
+      <c r="E225" s="1">
+        <v>133</v>
+      </c>
+      <c r="J225">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="K225" s="2"/>
       <c r="L225" s="1"/>
       <c r="M225" s="1"/>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C226" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D226">
-        <v>133</v>
-      </c>
-      <c r="E226">
-        <v>133</v>
-      </c>
-      <c r="J226" t="s">
-        <v>62</v>
-      </c>
       <c r="K226" s="2"/>
       <c r="L226" s="1"/>
+      <c r="M226" s="1"/>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C227" s="2" t="s">
-        <v>116</v>
+        <v>21</v>
       </c>
       <c r="D227">
-        <v>1343</v>
+        <v>133</v>
       </c>
       <c r="E227">
-        <v>1343</v>
+        <v>133</v>
       </c>
       <c r="J227" t="s">
         <v>62</v>
       </c>
-      <c r="K227" t="s">
-        <v>122</v>
-      </c>
+      <c r="K227" s="2"/>
+      <c r="L227" s="1"/>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C228" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="D228">
         <v>1343</v>
@@ -6135,75 +6157,69 @@
       <c r="J228" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C230" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="D230" s="1"/>
+      <c r="K228" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="229" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C229" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="D229">
+        <v>1343</v>
+      </c>
+      <c r="E229">
+        <v>1343</v>
+      </c>
+      <c r="J229" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C231" s="2"/>
+      <c r="C231" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="D231" s="1"/>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D232" t="s">
+      <c r="C232" s="2"/>
+      <c r="D232" s="1"/>
+    </row>
+    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D233" t="s">
         <v>9</v>
       </c>
-      <c r="E232" t="s">
+      <c r="E233" t="s">
         <v>60</v>
       </c>
-      <c r="F232" t="s">
+      <c r="F233" t="s">
         <v>61</v>
       </c>
-      <c r="G232" t="s">
+      <c r="G233" t="s">
         <v>10</v>
       </c>
-      <c r="H232" t="s">
+      <c r="H233" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A233">
-        <v>1</v>
-      </c>
-      <c r="B233" t="s">
-        <v>124</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="E233" s="1">
-        <v>17</v>
-      </c>
-      <c r="F233" s="1">
-        <v>17</v>
-      </c>
-      <c r="J233">
-        <f t="shared" ref="J233:J253" si="9">E233-F233+H233-D233</f>
-        <v>0</v>
-      </c>
-      <c r="K233" s="2"/>
-      <c r="L233" s="1"/>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B234" t="s">
+        <v>122</v>
+      </c>
+      <c r="C234" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C234" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="E234" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F234" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="J234">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="J234:J254" si="9">E234-F234+H234-D234</f>
         <v>0</v>
       </c>
       <c r="K234" s="2"/>
@@ -6211,19 +6227,19 @@
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B235" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E235" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F235" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J235">
         <f t="shared" si="9"/>
@@ -6234,19 +6250,19 @@
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B236" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E236" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="F236" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J236">
         <f t="shared" si="9"/>
@@ -6257,19 +6273,19 @@
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A237">
+        <v>4</v>
+      </c>
+      <c r="B237" t="s">
+        <v>122</v>
+      </c>
+      <c r="C237" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E237" s="1">
         <v>5</v>
       </c>
-      <c r="B237" t="s">
-        <v>124</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E237" s="1">
-        <v>1</v>
-      </c>
       <c r="F237" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J237">
         <f t="shared" si="9"/>
@@ -6280,19 +6296,19 @@
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B238" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="E238" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F238" s="1">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J238">
         <f t="shared" si="9"/>
@@ -6303,13 +6319,13 @@
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="E239" s="1">
         <v>11</v>
@@ -6326,19 +6342,19 @@
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B240" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E240" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F240" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J240">
         <f t="shared" si="9"/>
@@ -6349,19 +6365,19 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241">
+        <v>8</v>
+      </c>
+      <c r="B241" t="s">
+        <v>122</v>
+      </c>
+      <c r="C241" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E241" s="1">
         <v>9</v>
       </c>
-      <c r="B241" t="s">
-        <v>124</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D241" s="1">
-        <v>12</v>
-      </c>
-      <c r="E241" s="1">
-        <v>12</v>
+      <c r="F241" s="1">
+        <v>9</v>
       </c>
       <c r="J241">
         <f t="shared" si="9"/>
@@ -6372,19 +6388,19 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B242" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D242" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E242" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J242">
         <f t="shared" si="9"/>
@@ -6395,76 +6411,76 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B243" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D243">
-        <v>11</v>
+        <v>28</v>
+      </c>
+      <c r="D243" s="1">
+        <v>5</v>
       </c>
       <c r="E243" s="1">
-        <v>608</v>
-      </c>
-      <c r="F243" s="1">
-        <v>597</v>
-      </c>
-      <c r="G243" s="1">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J243">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K243" s="2"/>
+      <c r="L243" s="1"/>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B244" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D244" s="1">
-        <v>9</v>
+        <v>2</v>
+      </c>
+      <c r="D244">
+        <v>11</v>
       </c>
       <c r="E244" s="1">
-        <v>865</v>
+        <v>608</v>
       </c>
       <c r="F244" s="1">
-        <v>856</v>
+        <v>597</v>
       </c>
       <c r="G244" s="1">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J244">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K244" s="2"/>
-      <c r="L244" s="1"/>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B245" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="D245" s="1">
-        <v>916</v>
+        <v>9</v>
       </c>
       <c r="E245" s="1">
-        <v>916</v>
+        <v>865</v>
+      </c>
+      <c r="F245" s="1">
+        <v>856</v>
+      </c>
+      <c r="G245" s="1">
+        <v>9</v>
       </c>
       <c r="J245">
         <f t="shared" si="9"/>
@@ -6475,13 +6491,13 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B246" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D246" s="1">
         <v>916</v>
@@ -6498,25 +6514,19 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B247" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="D247" s="1">
-        <v>74</v>
+        <v>916</v>
       </c>
       <c r="E247" s="1">
-        <v>862</v>
-      </c>
-      <c r="F247" s="1">
-        <v>788</v>
-      </c>
-      <c r="G247" s="1">
-        <v>74</v>
+        <v>916</v>
       </c>
       <c r="J247">
         <f t="shared" si="9"/>
@@ -6527,25 +6537,25 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B248" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D248" s="1">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="E248" s="1">
-        <v>663</v>
+        <v>862</v>
       </c>
       <c r="F248" s="1">
-        <v>647</v>
+        <v>788</v>
       </c>
       <c r="G248" s="1">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="J248">
         <f t="shared" si="9"/>
@@ -6556,19 +6566,25 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B249" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>8</v>
+        <v>14</v>
+      </c>
+      <c r="D249" s="1">
+        <v>16</v>
       </c>
       <c r="E249" s="1">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="F249" s="1">
-        <v>660</v>
+        <v>647</v>
+      </c>
+      <c r="G249" s="1">
+        <v>16</v>
       </c>
       <c r="J249">
         <f t="shared" si="9"/>
@@ -6579,19 +6595,19 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B250" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D250" s="1">
-        <v>140</v>
+        <v>8</v>
       </c>
       <c r="E250" s="1">
-        <v>140</v>
+        <v>660</v>
+      </c>
+      <c r="F250" s="1">
+        <v>660</v>
       </c>
       <c r="J250">
         <f t="shared" si="9"/>
@@ -6602,25 +6618,19 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B251" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="D251" s="1">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="E251" s="1">
-        <v>686</v>
-      </c>
-      <c r="F251" s="1">
-        <v>669</v>
-      </c>
-      <c r="G251" s="1">
-        <v>17</v>
+        <v>140</v>
       </c>
       <c r="J251">
         <f t="shared" si="9"/>
@@ -6631,19 +6641,25 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B252" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>125</v>
+        <v>6</v>
       </c>
       <c r="D252" s="1">
-        <v>409</v>
+        <v>17</v>
       </c>
       <c r="E252" s="1">
-        <v>409</v>
+        <v>686</v>
+      </c>
+      <c r="F252" s="1">
+        <v>669</v>
+      </c>
+      <c r="G252" s="1">
+        <v>17</v>
       </c>
       <c r="J252">
         <f t="shared" si="9"/>
@@ -6654,19 +6670,19 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B253" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>7</v>
+        <v>123</v>
       </c>
       <c r="D253" s="1">
-        <v>260</v>
+        <v>409</v>
       </c>
       <c r="E253" s="1">
-        <v>260</v>
+        <v>409</v>
       </c>
       <c r="J253">
         <f t="shared" si="9"/>
@@ -6676,29 +6692,36 @@
       <c r="L253" s="1"/>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C254" s="2"/>
+      <c r="A254">
+        <v>21</v>
+      </c>
+      <c r="B254" t="s">
+        <v>122</v>
+      </c>
+      <c r="C254" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D254" s="1">
+        <v>260</v>
+      </c>
+      <c r="E254" s="1">
+        <v>260</v>
+      </c>
+      <c r="J254">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
       <c r="K254" s="2"/>
       <c r="L254" s="1"/>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="C255" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="D255">
-        <v>916</v>
-      </c>
-      <c r="E255">
-        <v>916</v>
-      </c>
-      <c r="J255" t="s">
-        <v>62</v>
-      </c>
+      <c r="C255" s="2"/>
       <c r="K255" s="2"/>
       <c r="L255" s="1"/>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C256" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D256">
         <v>916</v>
@@ -6713,74 +6736,64 @@
       <c r="L256" s="1"/>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C257" s="2"/>
-      <c r="F257" s="3"/>
+      <c r="C257" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="D257">
+        <v>916</v>
+      </c>
+      <c r="E257">
+        <v>916</v>
+      </c>
+      <c r="J257" t="s">
+        <v>62</v>
+      </c>
+      <c r="K257" s="2"/>
+      <c r="L257" s="1"/>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D258" t="s">
+      <c r="C258" s="2"/>
+      <c r="F258" s="3"/>
+    </row>
+    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D259" t="s">
         <v>9</v>
       </c>
-      <c r="E258" t="s">
+      <c r="E259" t="s">
         <v>60</v>
       </c>
-      <c r="F258" t="s">
+      <c r="F259" t="s">
         <v>61</v>
       </c>
-      <c r="G258" t="s">
+      <c r="G259" t="s">
         <v>10</v>
       </c>
-      <c r="H258" t="s">
+      <c r="H259" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A259">
-        <v>1</v>
-      </c>
-      <c r="B259" t="s">
-        <v>107</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D259" s="1">
-        <v>312</v>
-      </c>
-      <c r="E259" s="1">
-        <v>312</v>
-      </c>
-      <c r="J259">
-        <f t="shared" ref="J259:J275" si="10">E259-F259+H259-D259</f>
-        <v>0</v>
-      </c>
-      <c r="K259" s="2"/>
-      <c r="L259" s="2"/>
-      <c r="M259" s="1"/>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B260" t="s">
         <v>107</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D260" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="D260" s="1">
+        <v>5218</v>
+      </c>
       <c r="E260" s="1">
-        <v>3528</v>
-      </c>
-      <c r="F260" s="1">
-        <v>3528</v>
-      </c>
-      <c r="G260" s="1"/>
+        <v>5218</v>
+      </c>
       <c r="J260">
-        <f t="shared" si="10"/>
+        <f>E260-F260+H260-D260</f>
         <v>0</v>
       </c>
       <c r="K260" s="2"/>
-      <c r="L260" s="2"/>
+      <c r="L260" s="1"/>
       <c r="M260" s="1"/>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
@@ -6800,108 +6813,115 @@
         <v>974</v>
       </c>
       <c r="J261">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L261" s="2"/>
+        <f>E261-F261+H261-D261</f>
+        <v>0</v>
+      </c>
+      <c r="K261" s="2"/>
+      <c r="L261" s="1"/>
       <c r="M261" s="1"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A262">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B262" t="s">
         <v>107</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D262" s="1">
-        <v>72</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="D262" s="1"/>
       <c r="E262" s="1">
-        <v>72</v>
-      </c>
+        <v>3528</v>
+      </c>
+      <c r="F262" s="1">
+        <v>3528</v>
+      </c>
+      <c r="G262" s="1"/>
       <c r="J262">
-        <f t="shared" si="10"/>
+        <f>E262-F262+H262-D262</f>
         <v>0</v>
       </c>
       <c r="K262" s="2"/>
-      <c r="L262" s="2"/>
+      <c r="L262" s="1"/>
       <c r="M262" s="1"/>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B263" t="s">
         <v>107</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D263" s="1">
-        <v>4748</v>
+        <v>3390</v>
       </c>
       <c r="E263" s="1">
-        <v>4748</v>
+        <v>3836</v>
+      </c>
+      <c r="F263" s="1">
+        <v>446</v>
+      </c>
+      <c r="G263" s="1">
+        <v>3390</v>
       </c>
       <c r="J263">
-        <f t="shared" si="10"/>
+        <f>E263-F263+H263-D263</f>
         <v>0</v>
       </c>
       <c r="K263" s="2"/>
-      <c r="L263" s="2"/>
+      <c r="L263" s="1"/>
       <c r="M263" s="1"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A264">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B264" t="s">
         <v>107</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>106</v>
+        <v>81</v>
       </c>
       <c r="D264" s="1">
-        <v>470</v>
+        <v>72</v>
       </c>
       <c r="E264" s="1">
-        <v>470</v>
-      </c>
-      <c r="G264" s="1">
-        <v>470</v>
+        <v>72</v>
       </c>
       <c r="J264">
-        <f t="shared" si="10"/>
+        <f>E264-F264+H264-D264</f>
         <v>0</v>
       </c>
       <c r="K264" s="2"/>
-      <c r="L264" s="2"/>
+      <c r="L264" s="1"/>
       <c r="M264" s="1"/>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B265" t="s">
         <v>107</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="D265" s="1">
-        <v>5218</v>
+        <v>312</v>
       </c>
       <c r="E265" s="1">
-        <v>5218</v>
+        <v>312</v>
       </c>
       <c r="J265">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L265" s="2"/>
+        <f>E265-F265+H265-D265</f>
+        <v>0</v>
+      </c>
+      <c r="K265" s="2"/>
+      <c r="L265" s="1"/>
       <c r="M265" s="1"/>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
@@ -6921,203 +6941,202 @@
         <v>5218</v>
       </c>
       <c r="J266">
-        <f t="shared" si="10"/>
+        <f>E266-F266+H266-D266</f>
         <v>0</v>
       </c>
       <c r="K266" s="2"/>
-      <c r="L266" s="2"/>
+      <c r="L266" s="1"/>
       <c r="M266" s="1"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B267" t="s">
         <v>107</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D267" s="1">
-        <v>812</v>
+        <v>4748</v>
       </c>
       <c r="E267" s="1">
-        <v>4926</v>
-      </c>
-      <c r="F267" s="1">
-        <v>4114</v>
-      </c>
-      <c r="G267" s="1">
-        <v>812</v>
+        <v>4748</v>
       </c>
       <c r="J267">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L267" s="2"/>
+        <f>E267-F267+H267-D267</f>
+        <v>0</v>
+      </c>
+      <c r="K267" s="2"/>
+      <c r="L267" s="1"/>
       <c r="M267" s="1"/>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B268" t="s">
         <v>107</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="D268" s="1">
-        <v>3410</v>
+        <v>470</v>
       </c>
       <c r="E268" s="1">
-        <v>3838</v>
-      </c>
-      <c r="F268" s="1">
-        <v>428</v>
+        <v>470</v>
       </c>
       <c r="G268" s="1">
-        <v>3410</v>
+        <v>470</v>
       </c>
       <c r="J268">
-        <f t="shared" si="10"/>
+        <f>E268-F268+H268-D268</f>
         <v>0</v>
       </c>
       <c r="K268" s="2"/>
-      <c r="L268" s="2"/>
+      <c r="L268" s="1"/>
       <c r="M268" s="1"/>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B269" t="s">
         <v>107</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D269" s="1">
-        <v>401</v>
+        <v>812</v>
       </c>
       <c r="E269" s="1">
-        <v>890</v>
+        <v>4926</v>
       </c>
       <c r="F269" s="1">
-        <v>489</v>
+        <v>4114</v>
       </c>
       <c r="G269" s="1">
-        <v>401</v>
+        <v>812</v>
       </c>
       <c r="J269">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L269" s="2"/>
+        <f>E269-F269+H269-D269</f>
+        <v>0</v>
+      </c>
+      <c r="K269" s="2"/>
+      <c r="L269" s="1"/>
       <c r="M269" s="1"/>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B270" t="s">
         <v>107</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="D270" s="1">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="E270" s="1">
-        <v>240</v>
-      </c>
-      <c r="F270" s="1">
-        <v>73</v>
-      </c>
-      <c r="G270" s="1">
-        <v>167</v>
+        <v>122</v>
       </c>
       <c r="J270">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L270" s="2"/>
+        <f>E270-F270+H270-D270</f>
+        <v>0</v>
+      </c>
+      <c r="K270" s="2"/>
+      <c r="L270" s="1"/>
       <c r="M270" s="1"/>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B271" t="s">
         <v>107</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D271" s="1">
-        <v>60</v>
+        <v>242</v>
       </c>
       <c r="E271" s="1">
-        <v>108</v>
+        <v>892</v>
       </c>
       <c r="F271" s="1">
-        <v>48</v>
+        <v>650</v>
       </c>
       <c r="G271" s="1">
-        <v>60</v>
+        <v>242</v>
       </c>
       <c r="J271">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L271" s="2"/>
+        <f>E271-F271+H271-D271</f>
+        <v>0</v>
+      </c>
+      <c r="K271" s="2"/>
+      <c r="L271" s="1"/>
       <c r="M271" s="1"/>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B272" t="s">
         <v>107</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D272" s="1">
-        <v>122</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D272" s="1"/>
       <c r="E272" s="1">
-        <v>122</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="F272" s="1">
+        <v>108</v>
+      </c>
+      <c r="G272" s="1"/>
       <c r="J272">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L272" s="2"/>
+        <f>E272-F272+H272-D272</f>
+        <v>0</v>
+      </c>
+      <c r="K272" s="2"/>
+      <c r="L272" s="1"/>
       <c r="M272" s="1"/>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B273" t="s">
         <v>107</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="D273" s="1">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E273" s="1">
-        <v>72</v>
+        <v>240</v>
+      </c>
+      <c r="F273" s="1">
+        <v>172</v>
+      </c>
+      <c r="G273" s="1">
+        <v>68</v>
       </c>
       <c r="J273">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L273" s="2"/>
+        <f>E273-F273+H273-D273</f>
+        <v>0</v>
+      </c>
+      <c r="K273" s="2"/>
+      <c r="L273" s="1"/>
       <c r="M273" s="1"/>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
@@ -7137,74 +7156,84 @@
         <v>174</v>
       </c>
       <c r="J274">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L274" s="2"/>
+        <f>E274-F274+H274-D274</f>
+        <v>0</v>
+      </c>
+      <c r="K274" s="2"/>
+      <c r="L274" s="1"/>
       <c r="M274" s="1"/>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A275">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B275" t="s">
         <v>107</v>
       </c>
       <c r="C275" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D275" s="1">
+        <v>72</v>
+      </c>
+      <c r="E275" s="1">
+        <v>72</v>
+      </c>
+      <c r="J275">
+        <f>E275-F275+H275-D275</f>
+        <v>0</v>
+      </c>
+      <c r="K275" s="2"/>
+      <c r="L275" s="1"/>
+      <c r="M275" s="1"/>
+    </row>
+    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>17</v>
+      </c>
+      <c r="B276" t="s">
+        <v>107</v>
+      </c>
+      <c r="C276" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D275" s="1">
+      <c r="D276" s="1">
         <v>584</v>
       </c>
-      <c r="E275" s="1">
+      <c r="E276" s="1">
         <v>584</v>
       </c>
-      <c r="J275">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="L275" s="2"/>
-      <c r="M275" s="1"/>
-    </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C276" s="2"/>
-      <c r="L276" s="2"/>
+      <c r="J276">
+        <f>E276-F276+H276-D276</f>
+        <v>0</v>
+      </c>
+      <c r="K276" s="2"/>
+      <c r="L276" s="1"/>
       <c r="M276" s="1"/>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C277" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D277" s="1">
-        <v>246</v>
-      </c>
-      <c r="E277">
-        <v>584</v>
-      </c>
-      <c r="K277" t="s">
-        <v>149</v>
-      </c>
+      <c r="C277" s="2"/>
+      <c r="K277" s="2"/>
+      <c r="L277" s="1"/>
+      <c r="M277" s="1"/>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C278" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D278">
-        <v>5218</v>
+        <v>21</v>
+      </c>
+      <c r="D278" s="1">
+        <v>246</v>
       </c>
       <c r="E278">
-        <v>5218</v>
-      </c>
-      <c r="F278">
-        <v>5218</v>
-      </c>
-      <c r="K278" t="s">
-        <v>119</v>
+        <v>584</v>
+      </c>
+      <c r="J278" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C279" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D279">
         <v>5218</v>
@@ -7212,25 +7241,28 @@
       <c r="E279">
         <v>5218</v>
       </c>
+      <c r="F279">
+        <v>5218</v>
+      </c>
+      <c r="J279" t="s">
+        <v>62</v>
+      </c>
       <c r="K279" t="s">
-        <v>120</v>
-      </c>
-      <c r="L279" s="3" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C280" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D280">
         <v>5218</v>
       </c>
       <c r="E280">
-        <v>5556</v>
-      </c>
-      <c r="L280" s="3" t="s">
-        <v>71</v>
+        <v>5218</v>
+      </c>
+      <c r="J280" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
@@ -7274,7 +7306,7 @@
       </c>
       <c r="I283" s="1"/>
       <c r="J283">
-        <f t="shared" ref="J283:J294" si="11">E283-F283+H283-D283</f>
+        <f t="shared" ref="J283:J294" si="10">E283-F283+H283-D283</f>
         <v>0</v>
       </c>
       <c r="K283" s="2"/>
@@ -7303,7 +7335,7 @@
         <v>58</v>
       </c>
       <c r="J284">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K284" s="2"/>
@@ -7330,7 +7362,7 @@
       </c>
       <c r="I285" s="1"/>
       <c r="J285">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K285" s="2"/>
@@ -7357,7 +7389,7 @@
       </c>
       <c r="I286" s="1"/>
       <c r="J286">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K286" s="2"/>
@@ -7390,7 +7422,7 @@
       </c>
       <c r="I287" s="1"/>
       <c r="J287">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K287" s="2"/>
@@ -7415,7 +7447,7 @@
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
       <c r="J288">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K288" s="2"/>
@@ -7446,7 +7478,7 @@
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
       <c r="J289">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K289" s="2"/>
@@ -7479,7 +7511,7 @@
       </c>
       <c r="I290" s="1"/>
       <c r="J290">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K290" s="2"/>
@@ -7508,7 +7540,7 @@
         <v>9</v>
       </c>
       <c r="J291">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K291" s="2"/>
@@ -7536,7 +7568,7 @@
       </c>
       <c r="I292" s="1"/>
       <c r="J292">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K292" s="2"/>
@@ -7559,7 +7591,7 @@
         <v>275</v>
       </c>
       <c r="J293">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K293" s="2"/>
@@ -7582,7 +7614,7 @@
         <v>275</v>
       </c>
       <c r="J294">
-        <f t="shared" si="11"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K294" s="2"/>
@@ -7655,25 +7687,27 @@
       <c r="H300" t="s">
         <v>65</v>
       </c>
+      <c r="K300" s="2"/>
+      <c r="L300" s="1"/>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A301">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B301" t="s">
         <v>79</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D301" s="1">
-        <v>18</v>
+        <v>3926</v>
       </c>
       <c r="E301" s="1">
-        <v>18</v>
+        <v>3926</v>
       </c>
       <c r="J301">
-        <f t="shared" ref="J301:J312" si="12">E301-F301+H301-D301</f>
+        <f>E301-F301+H301-D301</f>
         <v>0</v>
       </c>
     </row>
@@ -7688,163 +7722,176 @@
         <v>0</v>
       </c>
       <c r="E302" s="1">
-        <v>834</v>
+        <v>870</v>
       </c>
       <c r="F302" s="1">
-        <v>834</v>
+        <v>870</v>
       </c>
       <c r="J302">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+        <f>E302-F302+H302-D302</f>
+        <v>0</v>
+      </c>
+      <c r="K302" s="2"/>
+      <c r="L302" s="1"/>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A303">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B303" t="s">
         <v>79</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="D303" s="1">
-        <v>3756</v>
+        <v>3012</v>
       </c>
       <c r="E303" s="1">
-        <v>3756</v>
-      </c>
+        <v>3744</v>
+      </c>
+      <c r="F303" s="1">
+        <v>884</v>
+      </c>
+      <c r="G303" s="1">
+        <v>2616</v>
+      </c>
+      <c r="H303" s="1">
+        <v>152</v>
+      </c>
+      <c r="I303" s="1"/>
       <c r="J303">
-        <f t="shared" si="12"/>
-        <v>0</v>
+        <f>E303-F303+H303-D303</f>
+        <v>0</v>
+      </c>
+      <c r="K303" t="s">
+        <v>101</v>
+      </c>
+      <c r="L303" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B304" t="s">
         <v>79</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="D304" s="1">
-        <v>3756</v>
+        <v>18</v>
       </c>
       <c r="E304" s="1">
-        <v>3756</v>
+        <v>18</v>
       </c>
       <c r="J304">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+        <f>E304-F304+H304-D304</f>
+        <v>0</v>
+      </c>
+      <c r="K304" s="2"/>
+      <c r="L304" s="1"/>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A305">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B305" t="s">
         <v>79</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="D305" s="1">
-        <v>3756</v>
+        <v>3926</v>
       </c>
       <c r="E305" s="1">
-        <v>3756</v>
+        <v>3926</v>
       </c>
       <c r="J305">
-        <f t="shared" si="12"/>
+        <f>E305-F305+H305-D305</f>
         <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A306">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B306" t="s">
         <v>79</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="D306" s="1">
-        <v>8</v>
+        <v>3926</v>
       </c>
       <c r="E306" s="1">
-        <v>1424</v>
-      </c>
-      <c r="F306" s="1">
-        <v>1416</v>
-      </c>
-      <c r="G306" s="1">
-        <v>6</v>
+        <v>3926</v>
       </c>
       <c r="J306">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+        <f>E306-F306+H306-D306</f>
+        <v>0</v>
+      </c>
+      <c r="K306" s="2"/>
+      <c r="L306" s="1"/>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A307">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B307" t="s">
         <v>79</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D307" s="1">
-        <v>32</v>
+        <v>58</v>
       </c>
       <c r="E307" s="1">
-        <v>32</v>
+        <v>1482</v>
+      </c>
+      <c r="F307" s="1">
+        <v>1424</v>
+      </c>
+      <c r="G307" s="1">
+        <v>56</v>
       </c>
       <c r="J307">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+        <f>E307-F307+H307-D307</f>
+        <v>0</v>
+      </c>
+      <c r="K307" s="2"/>
+      <c r="L307" s="1"/>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A308">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B308" t="s">
         <v>79</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D308" s="1">
-        <v>2970</v>
+        <v>36</v>
       </c>
       <c r="E308" s="1">
-        <v>3644</v>
-      </c>
-      <c r="F308" s="1">
-        <v>814</v>
-      </c>
-      <c r="G308" s="1">
-        <v>2539</v>
-      </c>
-      <c r="H308" s="1">
-        <v>140</v>
-      </c>
-      <c r="I308" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="H308">
+        <v>2</v>
+      </c>
       <c r="J308">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="K308" t="s">
-        <v>101</v>
-      </c>
-      <c r="L308" s="3" t="s">
-        <v>71</v>
-      </c>
+        <f>E308-F308+H308-D308</f>
+        <v>0</v>
+      </c>
+      <c r="K308" s="2"/>
+      <c r="L308" s="1"/>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A309">
@@ -7856,19 +7903,19 @@
       <c r="C309" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D309" s="1">
-        <v>393</v>
-      </c>
+      <c r="D309" s="1"/>
       <c r="E309" s="1">
-        <v>822</v>
+        <v>856</v>
       </c>
       <c r="F309" s="1">
-        <v>429</v>
+        <v>856</v>
       </c>
       <c r="J309">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+        <f>E309-F309+H309-D309</f>
+        <v>0</v>
+      </c>
+      <c r="K309" s="2"/>
+      <c r="L309" s="1"/>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A310">
@@ -7881,15 +7928,17 @@
         <v>18</v>
       </c>
       <c r="D310" s="1">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E310" s="1">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="J310">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
+        <f>E310-F310+H310-D310</f>
+        <v>0</v>
+      </c>
+      <c r="K310" s="2"/>
+      <c r="L310" s="1"/>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A311">
@@ -7902,13 +7951,13 @@
         <v>38</v>
       </c>
       <c r="D311" s="1">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="E311" s="1">
-        <v>292</v>
+        <v>299</v>
       </c>
       <c r="J311">
-        <f t="shared" si="12"/>
+        <f>E311-F311+H311-D311</f>
         <v>0</v>
       </c>
     </row>
@@ -7923,13 +7972,13 @@
         <v>19</v>
       </c>
       <c r="D312" s="1">
-        <v>940</v>
+        <v>974</v>
       </c>
       <c r="E312" s="1">
-        <v>940</v>
+        <v>974</v>
       </c>
       <c r="J312">
-        <f t="shared" si="12"/>
+        <f>E312-F312+H312-D312</f>
         <v>0</v>
       </c>
     </row>
@@ -7938,10 +7987,10 @@
         <v>82</v>
       </c>
       <c r="D314" s="1">
-        <v>3756</v>
+        <v>3926</v>
       </c>
       <c r="E314" s="1">
-        <v>3756</v>
+        <v>3926</v>
       </c>
       <c r="J314" t="s">
         <v>62</v>
@@ -7952,13 +8001,13 @@
         <v>83</v>
       </c>
       <c r="D315" s="1">
-        <v>940</v>
+        <v>974</v>
       </c>
       <c r="E315" s="1">
         <v>493</v>
       </c>
-      <c r="K315" t="s">
-        <v>150</v>
+      <c r="J315" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
@@ -7966,7 +8015,7 @@
         <v>84</v>
       </c>
       <c r="D316" s="1">
-        <v>3756</v>
+        <v>3926</v>
       </c>
       <c r="E316" s="1">
         <v>3896</v>
@@ -7991,6 +8040,8 @@
       <c r="F318" t="s">
         <v>99</v>
       </c>
+      <c r="K318" s="2"/>
+      <c r="L318" s="1"/>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C319" s="2" t="s">
@@ -8003,12 +8054,12 @@
         <v>236</v>
       </c>
       <c r="F319">
-        <f t="shared" ref="F319:F329" si="13">D319-E319</f>
+        <f t="shared" ref="F319:F329" si="11">D319-E319</f>
         <v>-50</v>
       </c>
       <c r="J319" s="3"/>
-      <c r="K319" s="3"/>
-      <c r="L319"/>
+      <c r="K319" s="2"/>
+      <c r="L319" s="1"/>
       <c r="M319"/>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
@@ -8022,12 +8073,12 @@
         <v>168</v>
       </c>
       <c r="F320">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-32</v>
       </c>
       <c r="J320" s="3"/>
-      <c r="K320" s="3"/>
-      <c r="L320"/>
+      <c r="K320" s="2"/>
+      <c r="L320" s="1"/>
       <c r="M320"/>
     </row>
     <row r="321" spans="3:13" x14ac:dyDescent="0.25">
@@ -8041,12 +8092,12 @@
         <v>264</v>
       </c>
       <c r="F321">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-26</v>
       </c>
       <c r="J321" s="3"/>
-      <c r="K321" s="3"/>
-      <c r="L321"/>
+      <c r="K321" s="2"/>
+      <c r="L321" s="1"/>
       <c r="M321"/>
     </row>
     <row r="322" spans="3:13" x14ac:dyDescent="0.25">
@@ -8060,7 +8111,7 @@
         <v>116</v>
       </c>
       <c r="F322">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-10</v>
       </c>
       <c r="H322">
@@ -8068,8 +8119,8 @@
         <v>58</v>
       </c>
       <c r="J322" s="3"/>
-      <c r="K322" s="3"/>
-      <c r="L322"/>
+      <c r="K322" s="2"/>
+      <c r="L322" s="1"/>
       <c r="M322"/>
     </row>
     <row r="323" spans="3:13" x14ac:dyDescent="0.25">
@@ -8083,12 +8134,12 @@
         <v>46</v>
       </c>
       <c r="F323">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-6</v>
       </c>
       <c r="J323" s="3"/>
-      <c r="K323" s="3"/>
-      <c r="L323"/>
+      <c r="K323" s="2"/>
+      <c r="L323" s="1"/>
       <c r="M323"/>
     </row>
     <row r="324" spans="3:13" x14ac:dyDescent="0.25">
@@ -8102,12 +8153,12 @@
         <v>300</v>
       </c>
       <c r="F324">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-4</v>
       </c>
       <c r="J324" s="3"/>
-      <c r="K324" s="3"/>
-      <c r="L324"/>
+      <c r="K324" s="2"/>
+      <c r="L324" s="1"/>
       <c r="M324"/>
     </row>
     <row r="325" spans="3:13" x14ac:dyDescent="0.25">
@@ -8121,12 +8172,12 @@
         <v>170</v>
       </c>
       <c r="F325">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-4</v>
       </c>
       <c r="J325" s="3"/>
-      <c r="K325" s="3"/>
-      <c r="L325"/>
+      <c r="K325" s="2"/>
+      <c r="L325" s="1"/>
       <c r="M325"/>
     </row>
     <row r="326" spans="3:13" x14ac:dyDescent="0.25">
@@ -8140,12 +8191,12 @@
         <v>96</v>
       </c>
       <c r="F326">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
       <c r="J326" s="3"/>
-      <c r="K326" s="3"/>
-      <c r="L326"/>
+      <c r="K326" s="2"/>
+      <c r="L326" s="1"/>
       <c r="M326"/>
     </row>
     <row r="327" spans="3:13" x14ac:dyDescent="0.25">
@@ -8159,12 +8210,12 @@
         <v>188</v>
       </c>
       <c r="F327">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
       <c r="J327" s="3"/>
-      <c r="K327" s="3"/>
-      <c r="L327"/>
+      <c r="K327" s="2"/>
+      <c r="L327" s="1"/>
       <c r="M327"/>
     </row>
     <row r="328" spans="3:13" x14ac:dyDescent="0.25">
@@ -8178,12 +8229,12 @@
         <v>32</v>
       </c>
       <c r="F328">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
       <c r="J328" s="3"/>
-      <c r="K328" s="3"/>
-      <c r="L328"/>
+      <c r="K328" s="2"/>
+      <c r="L328" s="1"/>
       <c r="M328"/>
     </row>
     <row r="329" spans="3:13" x14ac:dyDescent="0.25">
@@ -8197,13 +8248,17 @@
         <v>88</v>
       </c>
       <c r="F329">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-2</v>
       </c>
       <c r="J329" s="3"/>
-      <c r="K329" s="3"/>
-      <c r="L329"/>
+      <c r="K329" s="2"/>
+      <c r="L329" s="1"/>
       <c r="M329"/>
+    </row>
+    <row r="330" spans="3:13" x14ac:dyDescent="0.25">
+      <c r="K330" s="2"/>
+      <c r="L330" s="1"/>
     </row>
     <row r="331" spans="3:13" x14ac:dyDescent="0.25">
       <c r="C331" s="2"/>
@@ -8313,8 +8368,8 @@
       <c r="E365" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="K181:L190">
-    <sortCondition ref="K181:K190"/>
+  <sortState ref="K318:L330">
+    <sortCondition ref="K318:K330"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Error_summary.xlsx
+++ b/docs/Error_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="137">
   <si>
     <t>bud_big</t>
   </si>
@@ -279,57 +279,6 @@
   </si>
   <si>
     <t>petals = all derived fruit parts</t>
-  </si>
-  <si>
-    <t>PUTU_004</t>
-  </si>
-  <si>
-    <t>PUTU_005</t>
-  </si>
-  <si>
-    <t>PUTU_805</t>
-  </si>
-  <si>
-    <t>PUTU_003</t>
-  </si>
-  <si>
-    <t>PUTU_908</t>
-  </si>
-  <si>
-    <t>PUTU_902</t>
-  </si>
-  <si>
-    <t>PUTU_903</t>
-  </si>
-  <si>
-    <t>PUTU_403</t>
-  </si>
-  <si>
-    <t>PUTU_405</t>
-  </si>
-  <si>
-    <t>PUTU_804</t>
-  </si>
-  <si>
-    <t>PUTU_906</t>
-  </si>
-  <si>
-    <t>Individual</t>
-  </si>
-  <si>
-    <t>petals</t>
-  </si>
-  <si>
-    <t>derived parts</t>
-  </si>
-  <si>
-    <t>diff</t>
-  </si>
-  <si>
-    <t>Same 140 that are actual errors (see individuals below)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The "error" parts represent actual errors, due to too many "finished_flower_stigma" as a "FinDev" part. </t>
   </si>
   <si>
     <t>PILI</t>
@@ -825,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q365"/>
+  <dimension ref="A1:Q353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A298" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D312" activeCellId="3" sqref="D303 D307 D308 D312"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1663,10 +1612,10 @@
         <v>1</v>
       </c>
       <c r="D41" s="1">
-        <v>4448</v>
+        <v>4468</v>
       </c>
       <c r="E41" s="1">
-        <v>14480</v>
+        <v>14500</v>
       </c>
       <c r="F41" s="1">
         <v>11520</v>
@@ -1701,19 +1650,19 @@
         <v>12</v>
       </c>
       <c r="D42" s="1">
-        <v>4884</v>
+        <v>4836</v>
       </c>
       <c r="E42" s="1">
-        <v>19164</v>
+        <v>19232</v>
       </c>
       <c r="F42" s="1">
-        <v>14428</v>
+        <v>14496</v>
       </c>
       <c r="G42" s="1">
-        <v>1968</v>
+        <v>1920</v>
       </c>
       <c r="H42" s="1">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42">
@@ -1739,16 +1688,16 @@
         <v>2</v>
       </c>
       <c r="D43" s="1">
-        <v>2388</v>
+        <v>2408</v>
       </c>
       <c r="E43" s="1">
-        <v>19580</v>
+        <v>19688</v>
       </c>
       <c r="F43" s="1">
-        <v>17772</v>
+        <v>17860</v>
       </c>
       <c r="G43" s="1">
-        <v>1204</v>
+        <v>1224</v>
       </c>
       <c r="H43" s="1">
         <v>580</v>
@@ -1793,7 +1742,7 @@
         <v>-2588</v>
       </c>
       <c r="K44" s="2" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="L44" s="1" t="s">
         <v>71</v>
@@ -1892,7 +1841,7 @@
         <v>1644</v>
       </c>
       <c r="G47" s="1">
-        <v>0</v>
+        <v>7228</v>
       </c>
       <c r="J47">
         <f t="shared" si="1"/>
@@ -2047,7 +1996,7 @@
         <v>15</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="D52" s="1">
         <v>1676</v>
@@ -3089,7 +3038,7 @@
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>0</v>
@@ -3115,7 +3064,7 @@
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>1</v>
@@ -3141,7 +3090,7 @@
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
@@ -3167,7 +3116,7 @@
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -3196,7 +3145,7 @@
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
@@ -3222,7 +3171,7 @@
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>5</v>
@@ -3242,7 +3191,7 @@
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>24</v>
@@ -3268,7 +3217,7 @@
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
@@ -3294,7 +3243,7 @@
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>6</v>
@@ -3320,10 +3269,10 @@
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D106" s="1">
         <v>2</v>
@@ -3346,10 +3295,10 @@
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D107" s="1">
         <v>2</v>
@@ -3372,7 +3321,7 @@
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>8</v>
@@ -3398,10 +3347,10 @@
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D109" s="1">
         <v>32</v>
@@ -3424,7 +3373,7 @@
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>48</v>
@@ -3444,7 +3393,7 @@
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
@@ -3464,7 +3413,7 @@
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>18</v>
@@ -3484,7 +3433,7 @@
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>38</v>
@@ -3504,7 +3453,7 @@
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>19</v>
@@ -3534,7 +3483,7 @@
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C117" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D117">
         <v>92</v>
@@ -3549,7 +3498,7 @@
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C118" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
       <c r="D118">
         <v>136</v>
@@ -3564,7 +3513,7 @@
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C119" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D119" s="1">
         <v>4216</v>
@@ -3604,7 +3553,7 @@
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>0</v>
@@ -3638,7 +3587,7 @@
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>27</v>
@@ -3665,7 +3614,7 @@
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>1</v>
@@ -3696,7 +3645,7 @@
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
@@ -3723,7 +3672,7 @@
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>2</v>
@@ -3754,7 +3703,7 @@
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>13</v>
@@ -3785,7 +3734,7 @@
     </row>
     <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>5</v>
@@ -3810,7 +3759,7 @@
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>24</v>
@@ -3837,7 +3786,7 @@
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
@@ -3864,7 +3813,7 @@
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>6</v>
@@ -3891,10 +3840,10 @@
     </row>
     <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D133" s="1">
         <v>22</v>
@@ -3918,10 +3867,10 @@
     </row>
     <row r="134" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D134" s="1">
         <v>2</v>
@@ -3945,10 +3894,10 @@
     </row>
     <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1">
@@ -3968,7 +3917,7 @@
     </row>
     <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>8</v>
@@ -3995,10 +3944,10 @@
     </row>
     <row r="137" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D137" s="1">
         <v>206</v>
@@ -4020,12 +3969,12 @@
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
       <c r="P137" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>48</v>
@@ -4056,7 +4005,7 @@
     </row>
     <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>50</v>
@@ -4077,7 +4026,7 @@
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -4098,7 +4047,7 @@
     </row>
     <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>18</v>
@@ -4119,7 +4068,7 @@
     </row>
     <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>38</v>
@@ -4139,7 +4088,7 @@
     </row>
     <row r="143" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>19</v>
@@ -4164,7 +4113,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C145" s="2" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="D145">
         <v>2752</v>
@@ -4180,7 +4129,7 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C146" s="2" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="D146">
         <v>206</v>
@@ -4196,7 +4145,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C147" s="2" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="D147">
         <v>150</v>
@@ -4237,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="B150" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>47</v>
@@ -4266,10 +4215,10 @@
         <v>2</v>
       </c>
       <c r="B151" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D151" s="1">
         <v>2902</v>
@@ -4295,7 +4244,7 @@
         <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>45</v>
@@ -4324,10 +4273,10 @@
         <v>4</v>
       </c>
       <c r="B153" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="D153" s="1">
         <v>190594</v>
@@ -4347,10 +4296,10 @@
         <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="D154" s="1">
         <v>85696</v>
@@ -4376,7 +4325,7 @@
         <v>6</v>
       </c>
       <c r="B155" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>5</v>
@@ -4399,7 +4348,7 @@
         <v>7</v>
       </c>
       <c r="B156" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>24</v>
@@ -4429,7 +4378,7 @@
         <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>13</v>
@@ -4458,7 +4407,7 @@
         <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>14</v>
@@ -4483,7 +4432,7 @@
         <v>10</v>
       </c>
       <c r="B159" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
@@ -4507,7 +4456,7 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>6</v>
@@ -4536,7 +4485,7 @@
         <v>12</v>
       </c>
       <c r="B161" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>54</v>
@@ -4560,7 +4509,7 @@
         <v>13</v>
       </c>
       <c r="B162" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>19</v>
@@ -4587,10 +4536,10 @@
         <v>14</v>
       </c>
       <c r="B163" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="D163" s="1">
         <v>148</v>
@@ -4617,7 +4566,7 @@
         <v>15</v>
       </c>
       <c r="B164" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>38</v>
@@ -4641,7 +4590,7 @@
         <v>16</v>
       </c>
       <c r="B165" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>18</v>
@@ -4667,7 +4616,7 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C167" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D167">
         <v>380</v>
@@ -4681,7 +4630,7 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C168" s="2" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="D168" s="1">
         <v>31930</v>
@@ -4691,7 +4640,7 @@
         <v>31930</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
@@ -4719,23 +4668,26 @@
         <v>2</v>
       </c>
       <c r="B171" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D171" s="1">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="E171" s="1">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F171">
         <v>10</v>
       </c>
+      <c r="G171" s="1">
+        <v>16</v>
+      </c>
       <c r="J171">
         <f>E171-F171+H171-D171</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K171" s="2"/>
       <c r="L171" s="1"/>
@@ -4747,28 +4699,30 @@
         <v>1</v>
       </c>
       <c r="B172" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D172" s="1">
-        <v>242</v>
+        <v>125</v>
       </c>
       <c r="E172" s="1">
-        <v>378</v>
+        <v>323</v>
       </c>
       <c r="F172" s="1">
         <v>151</v>
       </c>
-      <c r="G172" s="1"/>
+      <c r="G172" s="1">
+        <v>118</v>
+      </c>
       <c r="H172" s="1">
         <v>15</v>
       </c>
       <c r="I172" s="1"/>
       <c r="J172">
         <f>E172-F172+H172-D172</f>
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="K172" s="2"/>
       <c r="L172" s="1"/>
@@ -4780,7 +4734,7 @@
         <v>7</v>
       </c>
       <c r="B173" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>55</v>
@@ -4809,7 +4763,7 @@
         <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>3</v>
@@ -4842,19 +4796,25 @@
         <v>6.1</v>
       </c>
       <c r="B175" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="D175" s="1">
         <v>178</v>
       </c>
-      <c r="E175" s="1"/>
+      <c r="E175" s="1">
+        <v>178</v>
+      </c>
       <c r="F175" s="1"/>
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
+      <c r="J175">
+        <f t="shared" ref="J175:J184" si="7">E175-F175+H175-D175</f>
+        <v>0</v>
+      </c>
       <c r="K175" s="2"/>
       <c r="L175" s="1"/>
       <c r="O175" s="2"/>
@@ -4865,7 +4825,7 @@
         <v>4</v>
       </c>
       <c r="B176" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>4</v>
@@ -4885,7 +4845,7 @@
       </c>
       <c r="I176" s="1"/>
       <c r="J176">
-        <f>E176-F176+H176-D176</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K176" s="2"/>
@@ -4898,25 +4858,25 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B177" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="D177" s="1">
         <v>80</v>
       </c>
       <c r="E177" s="1">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F177" s="1"/>
       <c r="G177" s="1"/>
       <c r="H177" s="1">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I177" s="1"/>
       <c r="J177">
-        <f>E177-F177+H177-D177</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K177" s="2"/>
@@ -4929,7 +4889,7 @@
         <v>3</v>
       </c>
       <c r="B178" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>5</v>
@@ -4945,7 +4905,7 @@
       </c>
       <c r="I178" s="1"/>
       <c r="J178">
-        <f>E178-F178+H178-D178</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K178" s="2"/>
@@ -4958,26 +4918,26 @@
         <v>5</v>
       </c>
       <c r="B179" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>54</v>
       </c>
       <c r="D179" s="1">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="E179" s="1">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H179" s="1">
         <v>1</v>
       </c>
       <c r="J179">
-        <f>E179-F179+H179-D179</f>
-        <v>0</v>
-      </c>
-      <c r="K179" s="2" t="s">
-        <v>148</v>
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K179" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="L179" s="1"/>
       <c r="O179" s="2"/>
@@ -4988,7 +4948,7 @@
         <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>6</v>
@@ -5008,7 +4968,7 @@
       </c>
       <c r="I180" s="1"/>
       <c r="J180">
-        <f>E180-F180+H180-D180</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K180" s="2"/>
@@ -5021,21 +4981,27 @@
         <v>9.1</v>
       </c>
       <c r="B181" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="D181" s="1">
         <v>95</v>
       </c>
       <c r="E181" s="1">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="F181" s="1"/>
       <c r="G181" s="1"/>
-      <c r="H181" s="1"/>
+      <c r="H181" s="1">
+        <v>6</v>
+      </c>
       <c r="I181" s="1"/>
+      <c r="J181">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="K181" s="2"/>
       <c r="L181" s="1"/>
       <c r="O181" s="2"/>
@@ -5046,7 +5012,7 @@
         <v>10</v>
       </c>
       <c r="B182" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>7</v>
@@ -5062,7 +5028,7 @@
       </c>
       <c r="I182" s="1"/>
       <c r="J182">
-        <f>E182-F182+H182-D182</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K182" s="2"/>
@@ -5075,7 +5041,7 @@
         <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>8</v>
@@ -5095,7 +5061,7 @@
       </c>
       <c r="I183" s="1"/>
       <c r="J183">
-        <f>E183-F183+H183-D183</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K183" s="2"/>
@@ -5108,21 +5074,27 @@
         <v>8.1</v>
       </c>
       <c r="B184" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="D184" s="1">
         <v>126</v>
       </c>
       <c r="E184" s="1">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="F184" s="1"/>
       <c r="G184" s="1"/>
-      <c r="H184" s="1"/>
+      <c r="H184" s="1">
+        <v>19</v>
+      </c>
       <c r="I184" s="1"/>
+      <c r="J184">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
       <c r="K184" s="2"/>
       <c r="L184" s="1"/>
       <c r="O184" s="2"/>
@@ -5139,7 +5111,7 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C186" s="2" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="D186" s="1">
         <f>D178</f>
@@ -5147,18 +5119,18 @@
       </c>
       <c r="E186">
         <f>SUM(D173:D177,D179)</f>
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="F186">
         <f>D186-E186</f>
-        <v>0</v>
+        <v>-6</v>
       </c>
       <c r="K186" s="2"/>
       <c r="L186" s="1"/>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C187" s="2" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="D187" s="1">
         <v>369</v>
@@ -5223,7 +5195,7 @@
         <v>319</v>
       </c>
       <c r="J191">
-        <f t="shared" ref="J191:J203" si="7">E191-F191+H191-D191</f>
+        <f t="shared" ref="J191:J203" si="8">E191-F191+H191-D191</f>
         <v>0</v>
       </c>
       <c r="K191" s="2"/>
@@ -5253,7 +5225,7 @@
         <v>74</v>
       </c>
       <c r="J192">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K192" s="2"/>
@@ -5283,7 +5255,7 @@
         <v>4</v>
       </c>
       <c r="J193">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K193" s="2"/>
@@ -5313,7 +5285,7 @@
         <v>32</v>
       </c>
       <c r="J194">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K194" s="2"/>
@@ -5337,7 +5309,7 @@
         <v>2997</v>
       </c>
       <c r="J195">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K195" s="2"/>
@@ -5367,7 +5339,7 @@
         <v>259</v>
       </c>
       <c r="J196">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K196" s="2"/>
@@ -5397,7 +5369,7 @@
         <v>197</v>
       </c>
       <c r="J197">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K197" s="2"/>
@@ -5421,7 +5393,7 @@
         <v>4071</v>
       </c>
       <c r="J198">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K198" s="2"/>
@@ -5445,7 +5417,7 @@
         <v>1323</v>
       </c>
       <c r="J199">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K199" s="2"/>
@@ -5475,7 +5447,7 @@
         <v>47</v>
       </c>
       <c r="J200">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K200" s="2"/>
@@ -5505,7 +5477,7 @@
         <v>408</v>
       </c>
       <c r="J201">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K201" s="2"/>
@@ -5532,7 +5504,7 @@
         <v>571</v>
       </c>
       <c r="J202">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K202" s="2"/>
@@ -5559,7 +5531,7 @@
         <v>1616</v>
       </c>
       <c r="J203">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="K203" s="2"/>
@@ -5624,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="B209" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
@@ -5646,7 +5618,7 @@
       </c>
       <c r="I209" s="1"/>
       <c r="J209">
-        <f t="shared" ref="J209:J225" si="8">E209-F209+H209-D209</f>
+        <f t="shared" ref="J209:J225" si="9">E209-F209+H209-D209</f>
         <v>0</v>
       </c>
       <c r="K209" s="2"/>
@@ -5658,7 +5630,7 @@
         <v>2</v>
       </c>
       <c r="B210" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>1</v>
@@ -5678,7 +5650,7 @@
       <c r="H210" s="1"/>
       <c r="I210" s="1"/>
       <c r="J210">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K210" s="2"/>
@@ -5690,7 +5662,7 @@
         <v>3</v>
       </c>
       <c r="B211" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>0</v>
@@ -5708,7 +5680,7 @@
         <v>106</v>
       </c>
       <c r="J211">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K211" s="2"/>
@@ -5720,7 +5692,7 @@
         <v>4</v>
       </c>
       <c r="B212" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>5</v>
@@ -5732,7 +5704,7 @@
         <v>1013</v>
       </c>
       <c r="J212">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K212" s="2"/>
@@ -5744,7 +5716,7 @@
         <v>5</v>
       </c>
       <c r="B213" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>17</v>
@@ -5760,7 +5732,7 @@
       </c>
       <c r="I213" s="1"/>
       <c r="J213">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K213" s="2"/>
@@ -5772,7 +5744,7 @@
         <v>6</v>
       </c>
       <c r="B214" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>24</v>
@@ -5790,7 +5762,7 @@
         <v>85</v>
       </c>
       <c r="J214">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K214" s="2"/>
@@ -5802,7 +5774,7 @@
         <v>7</v>
       </c>
       <c r="B215" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>13</v>
@@ -5820,7 +5792,7 @@
         <v>172</v>
       </c>
       <c r="J215">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K215" s="2"/>
@@ -5832,7 +5804,7 @@
         <v>8</v>
       </c>
       <c r="B216" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>14</v>
@@ -5854,7 +5826,7 @@
       </c>
       <c r="I216" s="1"/>
       <c r="J216">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K216" s="2"/>
@@ -5866,7 +5838,7 @@
         <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
@@ -5888,7 +5860,7 @@
       </c>
       <c r="I217" s="1"/>
       <c r="J217">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K217" s="2"/>
@@ -5900,7 +5872,7 @@
         <v>10</v>
       </c>
       <c r="B218" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>6</v>
@@ -5918,7 +5890,7 @@
         <v>21</v>
       </c>
       <c r="J218">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K218" s="2"/>
@@ -5930,10 +5902,10 @@
         <v>11</v>
       </c>
       <c r="B219" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D219" s="1">
         <v>35</v>
@@ -5948,7 +5920,7 @@
         <v>35</v>
       </c>
       <c r="J219">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K219" s="2"/>
@@ -5960,10 +5932,10 @@
         <v>12</v>
       </c>
       <c r="B220" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="D220" s="1">
         <v>6</v>
@@ -5978,7 +5950,7 @@
         <v>6</v>
       </c>
       <c r="J220">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K220" s="2"/>
@@ -5990,10 +5962,10 @@
         <v>13</v>
       </c>
       <c r="B221" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>112</v>
+        <v>95</v>
       </c>
       <c r="D221" s="1">
         <v>1</v>
@@ -6008,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="J221">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K221" s="2"/>
@@ -6020,10 +5992,10 @@
         <v>14</v>
       </c>
       <c r="B222" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="D222" s="1">
         <v>2</v>
@@ -6038,7 +6010,7 @@
         <v>2</v>
       </c>
       <c r="J222">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K222" s="2"/>
@@ -6050,10 +6022,10 @@
         <v>15</v>
       </c>
       <c r="B223" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>114</v>
+        <v>97</v>
       </c>
       <c r="D223" s="1">
         <v>1</v>
@@ -6068,7 +6040,7 @@
         <v>1</v>
       </c>
       <c r="J223">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K223" s="2"/>
@@ -6080,7 +6052,7 @@
         <v>16</v>
       </c>
       <c r="B224" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>18</v>
@@ -6092,7 +6064,7 @@
         <v>133</v>
       </c>
       <c r="J224">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K224" s="2"/>
@@ -6104,7 +6076,7 @@
         <v>17</v>
       </c>
       <c r="B225" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>19</v>
@@ -6116,7 +6088,7 @@
         <v>133</v>
       </c>
       <c r="J225">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="K225" s="2"/>
@@ -6146,7 +6118,7 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C228" s="2" t="s">
-        <v>116</v>
+        <v>99</v>
       </c>
       <c r="D228">
         <v>1343</v>
@@ -6158,12 +6130,12 @@
         <v>62</v>
       </c>
       <c r="K228" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C229" s="2" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="D229">
         <v>1343</v>
@@ -6177,7 +6149,7 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C231" s="2" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
       <c r="D231" s="1"/>
     </row>
@@ -6207,10 +6179,10 @@
         <v>1</v>
       </c>
       <c r="B234" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="E234" s="1">
         <v>17</v>
@@ -6219,7 +6191,7 @@
         <v>17</v>
       </c>
       <c r="J234">
-        <f t="shared" ref="J234:J254" si="9">E234-F234+H234-D234</f>
+        <f t="shared" ref="J234:J254" si="10">E234-F234+H234-D234</f>
         <v>0</v>
       </c>
       <c r="K234" s="2"/>
@@ -6230,10 +6202,10 @@
         <v>2</v>
       </c>
       <c r="B235" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="E235" s="1">
         <v>14</v>
@@ -6242,7 +6214,7 @@
         <v>14</v>
       </c>
       <c r="J235">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K235" s="2"/>
@@ -6253,10 +6225,10 @@
         <v>3</v>
       </c>
       <c r="B236" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="E236" s="1">
         <v>11</v>
@@ -6265,7 +6237,7 @@
         <v>11</v>
       </c>
       <c r="J236">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K236" s="2"/>
@@ -6276,10 +6248,10 @@
         <v>4</v>
       </c>
       <c r="B237" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E237" s="1">
         <v>5</v>
@@ -6288,7 +6260,7 @@
         <v>5</v>
       </c>
       <c r="J237">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K237" s="2"/>
@@ -6299,10 +6271,10 @@
         <v>5</v>
       </c>
       <c r="B238" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E238" s="1">
         <v>1</v>
@@ -6311,7 +6283,7 @@
         <v>1</v>
       </c>
       <c r="J238">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K238" s="2"/>
@@ -6322,7 +6294,7 @@
         <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>39</v>
@@ -6334,7 +6306,7 @@
         <v>11</v>
       </c>
       <c r="J239">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K239" s="2"/>
@@ -6345,7 +6317,7 @@
         <v>7</v>
       </c>
       <c r="B240" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>23</v>
@@ -6357,7 +6329,7 @@
         <v>11</v>
       </c>
       <c r="J240">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K240" s="2"/>
@@ -6368,7 +6340,7 @@
         <v>8</v>
       </c>
       <c r="B241" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>35</v>
@@ -6380,7 +6352,7 @@
         <v>9</v>
       </c>
       <c r="J241">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K241" s="2"/>
@@ -6391,7 +6363,7 @@
         <v>9</v>
       </c>
       <c r="B242" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>33</v>
@@ -6403,7 +6375,7 @@
         <v>12</v>
       </c>
       <c r="J242">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K242" s="2"/>
@@ -6414,7 +6386,7 @@
         <v>10</v>
       </c>
       <c r="B243" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>28</v>
@@ -6426,7 +6398,7 @@
         <v>5</v>
       </c>
       <c r="J243">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K243" s="2"/>
@@ -6437,7 +6409,7 @@
         <v>11</v>
       </c>
       <c r="B244" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>2</v>
@@ -6455,7 +6427,7 @@
         <v>11</v>
       </c>
       <c r="J244">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K244" s="2"/>
@@ -6465,7 +6437,7 @@
         <v>12</v>
       </c>
       <c r="B245" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>0</v>
@@ -6483,7 +6455,7 @@
         <v>9</v>
       </c>
       <c r="J245">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K245" s="2"/>
@@ -6494,7 +6466,7 @@
         <v>13</v>
       </c>
       <c r="B246" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>5</v>
@@ -6506,7 +6478,7 @@
         <v>916</v>
       </c>
       <c r="J246">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K246" s="2"/>
@@ -6517,7 +6489,7 @@
         <v>14</v>
       </c>
       <c r="B247" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>4</v>
@@ -6529,7 +6501,7 @@
         <v>916</v>
       </c>
       <c r="J247">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K247" s="2"/>
@@ -6540,7 +6512,7 @@
         <v>15</v>
       </c>
       <c r="B248" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>24</v>
@@ -6558,7 +6530,7 @@
         <v>74</v>
       </c>
       <c r="J248">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K248" s="2"/>
@@ -6569,7 +6541,7 @@
         <v>16</v>
       </c>
       <c r="B249" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>14</v>
@@ -6587,7 +6559,7 @@
         <v>16</v>
       </c>
       <c r="J249">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K249" s="2"/>
@@ -6598,7 +6570,7 @@
         <v>17</v>
       </c>
       <c r="B250" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>8</v>
@@ -6610,7 +6582,7 @@
         <v>660</v>
       </c>
       <c r="J250">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K250" s="2"/>
@@ -6621,7 +6593,7 @@
         <v>18</v>
       </c>
       <c r="B251" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>54</v>
@@ -6633,7 +6605,7 @@
         <v>140</v>
       </c>
       <c r="J251">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K251" s="2"/>
@@ -6644,7 +6616,7 @@
         <v>19</v>
       </c>
       <c r="B252" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>6</v>
@@ -6662,7 +6634,7 @@
         <v>17</v>
       </c>
       <c r="J252">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K252" s="2"/>
@@ -6673,10 +6645,10 @@
         <v>20</v>
       </c>
       <c r="B253" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>123</v>
+        <v>106</v>
       </c>
       <c r="D253" s="1">
         <v>409</v>
@@ -6685,7 +6657,7 @@
         <v>409</v>
       </c>
       <c r="J253">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K253" s="2"/>
@@ -6696,7 +6668,7 @@
         <v>21</v>
       </c>
       <c r="B254" t="s">
-        <v>122</v>
+        <v>105</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>7</v>
@@ -6708,7 +6680,7 @@
         <v>260</v>
       </c>
       <c r="J254">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="K254" s="2"/>
@@ -6721,7 +6693,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C256" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D256">
         <v>916</v>
@@ -6737,7 +6709,7 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C257" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D257">
         <v>916</v>
@@ -6777,7 +6749,7 @@
         <v>7</v>
       </c>
       <c r="B260" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>80</v>
@@ -6789,7 +6761,7 @@
         <v>5218</v>
       </c>
       <c r="J260">
-        <f>E260-F260+H260-D260</f>
+        <f t="shared" ref="J260:J276" si="11">E260-F260+H260-D260</f>
         <v>0</v>
       </c>
       <c r="K260" s="2"/>
@@ -6801,7 +6773,7 @@
         <v>3</v>
       </c>
       <c r="B261" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>1</v>
@@ -6813,7 +6785,7 @@
         <v>974</v>
       </c>
       <c r="J261">
-        <f>E261-F261+H261-D261</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K261" s="2"/>
@@ -6825,7 +6797,7 @@
         <v>2</v>
       </c>
       <c r="B262" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>12</v>
@@ -6839,7 +6811,7 @@
       </c>
       <c r="G262" s="1"/>
       <c r="J262">
-        <f>E262-F262+H262-D262</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K262" s="2"/>
@@ -6851,7 +6823,7 @@
         <v>10</v>
       </c>
       <c r="B263" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>13</v>
@@ -6869,7 +6841,7 @@
         <v>3390</v>
       </c>
       <c r="J263">
-        <f>E263-F263+H263-D263</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K263" s="2"/>
@@ -6881,7 +6853,7 @@
         <v>4</v>
       </c>
       <c r="B264" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>81</v>
@@ -6893,7 +6865,7 @@
         <v>72</v>
       </c>
       <c r="J264">
-        <f>E264-F264+H264-D264</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K264" s="2"/>
@@ -6905,10 +6877,10 @@
         <v>1</v>
       </c>
       <c r="B265" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D265" s="1">
         <v>312</v>
@@ -6917,7 +6889,7 @@
         <v>312</v>
       </c>
       <c r="J265">
-        <f>E265-F265+H265-D265</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K265" s="2"/>
@@ -6929,7 +6901,7 @@
         <v>8</v>
       </c>
       <c r="B266" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>4</v>
@@ -6941,7 +6913,7 @@
         <v>5218</v>
       </c>
       <c r="J266">
-        <f>E266-F266+H266-D266</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K266" s="2"/>
@@ -6953,7 +6925,7 @@
         <v>5</v>
       </c>
       <c r="B267" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>5</v>
@@ -6965,7 +6937,7 @@
         <v>4748</v>
       </c>
       <c r="J267">
-        <f>E267-F267+H267-D267</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K267" s="2"/>
@@ -6977,10 +6949,10 @@
         <v>6</v>
       </c>
       <c r="B268" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="D268" s="1">
         <v>470</v>
@@ -6992,7 +6964,7 @@
         <v>470</v>
       </c>
       <c r="J268">
-        <f>E268-F268+H268-D268</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K268" s="2"/>
@@ -7004,7 +6976,7 @@
         <v>9</v>
       </c>
       <c r="B269" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>24</v>
@@ -7022,7 +6994,7 @@
         <v>812</v>
       </c>
       <c r="J269">
-        <f>E269-F269+H269-D269</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K269" s="2"/>
@@ -7034,7 +7006,7 @@
         <v>14</v>
       </c>
       <c r="B270" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>54</v>
@@ -7046,7 +7018,7 @@
         <v>122</v>
       </c>
       <c r="J270">
-        <f>E270-F270+H270-D270</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K270" s="2"/>
@@ -7058,7 +7030,7 @@
         <v>11</v>
       </c>
       <c r="B271" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>14</v>
@@ -7076,7 +7048,7 @@
         <v>242</v>
       </c>
       <c r="J271">
-        <f>E271-F271+H271-D271</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K271" s="2"/>
@@ -7088,7 +7060,7 @@
         <v>13</v>
       </c>
       <c r="B272" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>6</v>
@@ -7102,7 +7074,7 @@
       </c>
       <c r="G272" s="1"/>
       <c r="J272">
-        <f>E272-F272+H272-D272</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K272" s="2"/>
@@ -7114,7 +7086,7 @@
         <v>12</v>
       </c>
       <c r="B273" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
@@ -7132,7 +7104,7 @@
         <v>68</v>
       </c>
       <c r="J273">
-        <f>E273-F273+H273-D273</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K273" s="2"/>
@@ -7144,7 +7116,7 @@
         <v>16</v>
       </c>
       <c r="B274" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>18</v>
@@ -7156,7 +7128,7 @@
         <v>174</v>
       </c>
       <c r="J274">
-        <f>E274-F274+H274-D274</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K274" s="2"/>
@@ -7168,7 +7140,7 @@
         <v>15</v>
       </c>
       <c r="B275" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>38</v>
@@ -7180,7 +7152,7 @@
         <v>72</v>
       </c>
       <c r="J275">
-        <f>E275-F275+H275-D275</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K275" s="2"/>
@@ -7192,7 +7164,7 @@
         <v>17</v>
       </c>
       <c r="B276" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>19</v>
@@ -7204,7 +7176,7 @@
         <v>584</v>
       </c>
       <c r="J276">
-        <f>E276-F276+H276-D276</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="K276" s="2"/>
@@ -7228,12 +7200,12 @@
         <v>584</v>
       </c>
       <c r="J278" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C279" s="2" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="D279">
         <v>5218</v>
@@ -7248,12 +7220,12 @@
         <v>62</v>
       </c>
       <c r="K279" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C280" s="2" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="D280">
         <v>5218</v>
@@ -7290,7 +7262,7 @@
         <v>3</v>
       </c>
       <c r="B283" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>80</v>
@@ -7306,7 +7278,7 @@
       </c>
       <c r="I283" s="1"/>
       <c r="J283">
-        <f t="shared" ref="J283:J294" si="10">E283-F283+H283-D283</f>
+        <f t="shared" ref="J283:J294" si="12">E283-F283+H283-D283</f>
         <v>0</v>
       </c>
       <c r="K283" s="2"/>
@@ -7317,7 +7289,7 @@
         <v>4</v>
       </c>
       <c r="B284" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>0</v>
@@ -7335,7 +7307,7 @@
         <v>58</v>
       </c>
       <c r="J284">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K284" s="2"/>
@@ -7346,7 +7318,7 @@
         <v>6</v>
       </c>
       <c r="B285" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>4</v>
@@ -7362,7 +7334,7 @@
       </c>
       <c r="I285" s="1"/>
       <c r="J285">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K285" s="2"/>
@@ -7373,7 +7345,7 @@
         <v>5</v>
       </c>
       <c r="B286" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>5</v>
@@ -7389,7 +7361,7 @@
       </c>
       <c r="I286" s="1"/>
       <c r="J286">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K286" s="2"/>
@@ -7400,7 +7372,7 @@
         <v>7</v>
       </c>
       <c r="B287" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>24</v>
@@ -7422,7 +7394,7 @@
       </c>
       <c r="I287" s="1"/>
       <c r="J287">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K287" s="2"/>
@@ -7433,7 +7405,7 @@
         <v>10</v>
       </c>
       <c r="B288" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>54</v>
@@ -7447,7 +7419,7 @@
       <c r="H288" s="1"/>
       <c r="I288" s="1"/>
       <c r="J288">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K288" s="2"/>
@@ -7458,7 +7430,7 @@
         <v>9</v>
       </c>
       <c r="B289" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>6</v>
@@ -7478,7 +7450,7 @@
       <c r="H289" s="1"/>
       <c r="I289" s="1"/>
       <c r="J289">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K289" s="2"/>
@@ -7489,7 +7461,7 @@
         <v>8</v>
       </c>
       <c r="B290" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
@@ -7511,7 +7483,7 @@
       </c>
       <c r="I290" s="1"/>
       <c r="J290">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K290" s="2"/>
@@ -7522,7 +7494,7 @@
         <v>1</v>
       </c>
       <c r="B291" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>45</v>
@@ -7540,7 +7512,7 @@
         <v>9</v>
       </c>
       <c r="J291">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K291" s="2"/>
@@ -7551,7 +7523,7 @@
         <v>2</v>
       </c>
       <c r="B292" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>48</v>
@@ -7568,7 +7540,7 @@
       </c>
       <c r="I292" s="1"/>
       <c r="J292">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K292" s="2"/>
@@ -7579,7 +7551,7 @@
         <v>11</v>
       </c>
       <c r="B293" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>18</v>
@@ -7591,7 +7563,7 @@
         <v>275</v>
       </c>
       <c r="J293">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K293" s="2"/>
@@ -7602,7 +7574,7 @@
         <v>12</v>
       </c>
       <c r="B294" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>19</v>
@@ -7614,7 +7586,7 @@
         <v>275</v>
       </c>
       <c r="J294">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K294" s="2"/>
@@ -7627,7 +7599,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C296" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="D296">
         <v>1067</v>
@@ -7641,7 +7613,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C297" s="2" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="D297" s="1">
         <v>1067</v>
@@ -7655,7 +7627,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C298" s="2" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="D298" s="1">
         <v>48</v>
@@ -7701,13 +7673,13 @@
         <v>80</v>
       </c>
       <c r="D301" s="1">
-        <v>3926</v>
+        <v>1963</v>
       </c>
       <c r="E301" s="1">
-        <v>3926</v>
+        <v>1963</v>
       </c>
       <c r="J301">
-        <f>E301-F301+H301-D301</f>
+        <f t="shared" ref="J301:J312" si="13">E301-F301+H301-D301</f>
         <v>0</v>
       </c>
     </row>
@@ -7722,13 +7694,13 @@
         <v>0</v>
       </c>
       <c r="E302" s="1">
-        <v>870</v>
+        <v>435</v>
       </c>
       <c r="F302" s="1">
-        <v>870</v>
+        <v>435</v>
       </c>
       <c r="J302">
-        <f>E302-F302+H302-D302</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K302" s="2"/>
@@ -7745,31 +7717,25 @@
         <v>13</v>
       </c>
       <c r="D303" s="1">
-        <v>3012</v>
+        <v>1429</v>
       </c>
       <c r="E303" s="1">
-        <v>3744</v>
+        <v>1913</v>
       </c>
       <c r="F303" s="1">
-        <v>884</v>
+        <v>484</v>
       </c>
       <c r="G303" s="1">
-        <v>2616</v>
-      </c>
-      <c r="H303" s="1">
-        <v>152</v>
-      </c>
+        <v>1242</v>
+      </c>
+      <c r="H303" s="1"/>
       <c r="I303" s="1"/>
       <c r="J303">
-        <f>E303-F303+H303-D303</f>
-        <v>0</v>
-      </c>
-      <c r="K303" t="s">
-        <v>101</v>
-      </c>
-      <c r="L303" s="3" t="s">
-        <v>71</v>
-      </c>
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K303" s="2"/>
+      <c r="L303" s="1"/>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A304">
@@ -7782,19 +7748,19 @@
         <v>81</v>
       </c>
       <c r="D304" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="E304" s="1">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="J304">
-        <f>E304-F304+H304-D304</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K304" s="2"/>
       <c r="L304" s="1"/>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>3</v>
       </c>
@@ -7805,17 +7771,19 @@
         <v>4</v>
       </c>
       <c r="D305" s="1">
-        <v>3926</v>
+        <v>1963</v>
       </c>
       <c r="E305" s="1">
-        <v>3926</v>
+        <v>1963</v>
       </c>
       <c r="J305">
-        <f>E305-F305+H305-D305</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K305" s="2"/>
+      <c r="L305" s="1"/>
+    </row>
+    <row r="306" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>2</v>
       </c>
@@ -7826,19 +7794,19 @@
         <v>5</v>
       </c>
       <c r="D306" s="1">
-        <v>3926</v>
+        <v>1963</v>
       </c>
       <c r="E306" s="1">
-        <v>3926</v>
+        <v>1963</v>
       </c>
       <c r="J306">
-        <f>E306-F306+H306-D306</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K306" s="2"/>
       <c r="L306" s="1"/>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>5</v>
       </c>
@@ -7849,25 +7817,25 @@
         <v>24</v>
       </c>
       <c r="D307" s="1">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="E307" s="1">
-        <v>1482</v>
+        <v>741</v>
       </c>
       <c r="F307" s="1">
-        <v>1424</v>
+        <v>712</v>
       </c>
       <c r="G307" s="1">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="J307">
-        <f>E307-F307+H307-D307</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K307" s="2"/>
       <c r="L307" s="1"/>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>6</v>
       </c>
@@ -7878,22 +7846,19 @@
         <v>54</v>
       </c>
       <c r="D308" s="1">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="E308" s="1">
-        <v>34</v>
-      </c>
-      <c r="H308">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="J308">
-        <f>E308-F308+H308-D308</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K308" s="2"/>
       <c r="L308" s="1"/>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>8</v>
       </c>
@@ -7905,19 +7870,19 @@
       </c>
       <c r="D309" s="1"/>
       <c r="E309" s="1">
-        <v>856</v>
+        <v>458</v>
       </c>
       <c r="F309" s="1">
-        <v>856</v>
+        <v>458</v>
       </c>
       <c r="J309">
-        <f>E309-F309+H309-D309</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K309" s="2"/>
       <c r="L309" s="1"/>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>9</v>
       </c>
@@ -7934,13 +7899,13 @@
         <v>210</v>
       </c>
       <c r="J310">
-        <f>E310-F310+H310-D310</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K310" s="2"/>
       <c r="L310" s="1"/>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>10</v>
       </c>
@@ -7951,17 +7916,19 @@
         <v>38</v>
       </c>
       <c r="D311" s="1">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="E311" s="1">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="J311">
-        <f>E311-F311+H311-D311</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K311" s="2"/>
+      <c r="L311" s="1"/>
+    </row>
+    <row r="312" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>11</v>
       </c>
@@ -7972,404 +7939,182 @@
         <v>19</v>
       </c>
       <c r="D312" s="1">
-        <v>974</v>
+        <v>487</v>
       </c>
       <c r="E312" s="1">
-        <v>974</v>
+        <v>487</v>
       </c>
       <c r="J312">
-        <f>E312-F312+H312-D312</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K312" s="2"/>
+      <c r="L312" s="1"/>
+    </row>
+    <row r="313" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K313" s="2"/>
+      <c r="L313" s="1"/>
+    </row>
+    <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C314" s="2" t="s">
         <v>82</v>
       </c>
       <c r="D314" s="1">
-        <v>3926</v>
+        <v>1963</v>
       </c>
       <c r="E314" s="1">
-        <v>3926</v>
+        <v>1963</v>
       </c>
       <c r="J314" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K314" s="2"/>
+      <c r="L314" s="1"/>
+    </row>
+    <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C315" s="2" t="s">
         <v>83</v>
       </c>
       <c r="D315" s="1">
-        <v>974</v>
+        <v>487</v>
       </c>
       <c r="E315" s="1">
-        <v>493</v>
+        <v>510</v>
       </c>
       <c r="J315" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.25">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C316" s="2" t="s">
         <v>84</v>
       </c>
       <c r="D316" s="1">
-        <v>3926</v>
+        <v>1963</v>
       </c>
       <c r="E316" s="1">
-        <v>3896</v>
-      </c>
-      <c r="K316" t="s">
-        <v>100</v>
-      </c>
-      <c r="L316" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C318" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="D318" t="s">
-        <v>97</v>
-      </c>
-      <c r="E318" t="s">
-        <v>98</v>
-      </c>
-      <c r="F318" t="s">
-        <v>99</v>
-      </c>
+        <v>1963</v>
+      </c>
+      <c r="J316" t="s">
+        <v>62</v>
+      </c>
+      <c r="K316" s="2"/>
+      <c r="L316" s="1"/>
+    </row>
+    <row r="318" spans="1:12" x14ac:dyDescent="0.25">
       <c r="K318" s="2"/>
       <c r="L318" s="1"/>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C319" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D319" s="1">
-        <v>186</v>
-      </c>
-      <c r="E319" s="1">
-        <v>236</v>
-      </c>
-      <c r="F319">
-        <f t="shared" ref="F319:F329" si="11">D319-E319</f>
-        <v>-50</v>
-      </c>
-      <c r="J319" s="3"/>
-      <c r="K319" s="2"/>
-      <c r="L319" s="1"/>
-      <c r="M319"/>
-    </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C320" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="D320" s="1">
-        <v>136</v>
-      </c>
-      <c r="E320" s="1">
-        <v>168</v>
-      </c>
-      <c r="F320">
-        <f t="shared" si="11"/>
-        <v>-32</v>
-      </c>
-      <c r="J320" s="3"/>
-      <c r="K320" s="2"/>
-      <c r="L320" s="1"/>
-      <c r="M320"/>
-    </row>
-    <row r="321" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C321" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D321" s="1">
-        <v>238</v>
-      </c>
-      <c r="E321" s="1">
-        <v>264</v>
-      </c>
-      <c r="F321">
-        <f t="shared" si="11"/>
-        <v>-26</v>
-      </c>
-      <c r="J321" s="3"/>
-      <c r="K321" s="2"/>
-      <c r="L321" s="1"/>
-      <c r="M321"/>
-    </row>
-    <row r="322" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C322" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D322" s="5">
-        <v>106</v>
-      </c>
-      <c r="E322" s="1">
-        <v>116</v>
-      </c>
-      <c r="F322">
-        <f t="shared" si="11"/>
-        <v>-10</v>
-      </c>
-      <c r="H322">
-        <f>E322/2</f>
-        <v>58</v>
-      </c>
-      <c r="J322" s="3"/>
-      <c r="K322" s="2"/>
-      <c r="L322" s="1"/>
-      <c r="M322"/>
-    </row>
-    <row r="323" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C323" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="D323" s="1">
-        <v>40</v>
-      </c>
-      <c r="E323" s="1">
-        <v>46</v>
-      </c>
-      <c r="F323">
-        <f t="shared" si="11"/>
-        <v>-6</v>
-      </c>
-      <c r="J323" s="3"/>
-      <c r="K323" s="2"/>
-      <c r="L323" s="1"/>
-      <c r="M323"/>
-    </row>
-    <row r="324" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C324" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D324" s="1">
-        <v>296</v>
-      </c>
-      <c r="E324" s="1">
-        <v>300</v>
-      </c>
-      <c r="F324">
-        <f t="shared" si="11"/>
-        <v>-4</v>
-      </c>
-      <c r="J324" s="3"/>
-      <c r="K324" s="2"/>
-      <c r="L324" s="1"/>
-      <c r="M324"/>
-    </row>
-    <row r="325" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C325" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="D325" s="1">
-        <v>166</v>
-      </c>
-      <c r="E325" s="1">
-        <v>170</v>
-      </c>
-      <c r="F325">
-        <f t="shared" si="11"/>
-        <v>-4</v>
-      </c>
-      <c r="J325" s="3"/>
-      <c r="K325" s="2"/>
-      <c r="L325" s="1"/>
-      <c r="M325"/>
-    </row>
-    <row r="326" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C326" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D326" s="1">
-        <v>94</v>
-      </c>
-      <c r="E326" s="1">
-        <v>96</v>
-      </c>
-      <c r="F326">
-        <f t="shared" si="11"/>
-        <v>-2</v>
-      </c>
-      <c r="J326" s="3"/>
-      <c r="K326" s="2"/>
-      <c r="L326" s="1"/>
-      <c r="M326"/>
-    </row>
-    <row r="327" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C327" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D327" s="1">
-        <v>186</v>
-      </c>
-      <c r="E327" s="1">
-        <v>188</v>
-      </c>
-      <c r="F327">
-        <f t="shared" si="11"/>
-        <v>-2</v>
-      </c>
-      <c r="J327" s="3"/>
-      <c r="K327" s="2"/>
-      <c r="L327" s="1"/>
-      <c r="M327"/>
-    </row>
-    <row r="328" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C328" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D328" s="1">
-        <v>30</v>
-      </c>
-      <c r="E328" s="1">
-        <v>32</v>
-      </c>
-      <c r="F328">
-        <f t="shared" si="11"/>
-        <v>-2</v>
-      </c>
-      <c r="J328" s="3"/>
-      <c r="K328" s="2"/>
-      <c r="L328" s="1"/>
-      <c r="M328"/>
-    </row>
-    <row r="329" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C329" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D329" s="1">
-        <v>86</v>
-      </c>
-      <c r="E329" s="1">
-        <v>88</v>
-      </c>
-      <c r="F329">
-        <f t="shared" si="11"/>
-        <v>-2</v>
-      </c>
-      <c r="J329" s="3"/>
-      <c r="K329" s="2"/>
-      <c r="L329" s="1"/>
-      <c r="M329"/>
-    </row>
-    <row r="330" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="K330" s="2"/>
-      <c r="L330" s="1"/>
-    </row>
-    <row r="331" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C319" s="2"/>
+    </row>
+    <row r="320" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C320" s="2"/>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C321" s="2"/>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C322" s="2"/>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C323" s="2"/>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C324" s="2"/>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C325" s="2"/>
+    </row>
+    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C326" s="2"/>
+    </row>
+    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C327" s="2"/>
+    </row>
+    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C328" s="2"/>
+    </row>
+    <row r="329" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C329" s="2"/>
+    </row>
+    <row r="330" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C330" s="2"/>
+    </row>
+    <row r="331" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C331" s="2"/>
     </row>
-    <row r="332" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="332" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C332" s="2"/>
     </row>
-    <row r="333" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="333" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C333" s="2"/>
     </row>
-    <row r="334" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="334" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C334" s="2"/>
     </row>
-    <row r="335" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="335" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C335" s="2"/>
     </row>
-    <row r="336" spans="3:13" x14ac:dyDescent="0.25">
+    <row r="336" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C336" s="2"/>
     </row>
-    <row r="337" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C337" s="2"/>
     </row>
-    <row r="338" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C338" s="2"/>
     </row>
-    <row r="339" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C339" s="2"/>
     </row>
-    <row r="340" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C340" s="2"/>
     </row>
-    <row r="341" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C341" s="2"/>
     </row>
-    <row r="342" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C342" s="2"/>
     </row>
-    <row r="343" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C343" s="2"/>
     </row>
-    <row r="344" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C344" s="2"/>
     </row>
-    <row r="345" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C345" s="2"/>
     </row>
-    <row r="346" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C346" s="2"/>
     </row>
-    <row r="347" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C347" s="2"/>
     </row>
-    <row r="348" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C348" s="2"/>
     </row>
-    <row r="349" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C349" s="2"/>
     </row>
-    <row r="350" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C350" s="2"/>
     </row>
-    <row r="351" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C351" s="2"/>
-    </row>
-    <row r="352" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="D351" s="1"/>
+    </row>
+    <row r="352" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C352" s="2"/>
     </row>
     <row r="353" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C353" s="2"/>
-    </row>
-    <row r="354" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C354" s="2"/>
-    </row>
-    <row r="355" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C355" s="2"/>
-    </row>
-    <row r="356" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C356" s="2"/>
-    </row>
-    <row r="357" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C357" s="2"/>
-    </row>
-    <row r="358" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C358" s="2"/>
-    </row>
-    <row r="359" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C359" s="2"/>
-    </row>
-    <row r="360" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C360" s="2"/>
-    </row>
-    <row r="361" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C361" s="2"/>
-    </row>
-    <row r="362" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C362" s="2"/>
-    </row>
-    <row r="363" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C363" s="2"/>
-      <c r="D363" s="1"/>
-    </row>
-    <row r="364" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C364" s="2"/>
-    </row>
-    <row r="365" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C365" s="2"/>
-      <c r="E365" s="1"/>
+      <c r="E353" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="K318:L330">
-    <sortCondition ref="K318:K330"/>
+  <sortState ref="K48:L54">
+    <sortCondition ref="K48:K54"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/Error_summary.xlsx
+++ b/docs/Error_summary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="135">
   <si>
     <t>bud_big</t>
   </si>
@@ -239,9 +239,6 @@
     <t>Lizzy error explanation</t>
   </si>
   <si>
-    <t>x</t>
-  </si>
-  <si>
     <t>Konrad to fix</t>
   </si>
   <si>
@@ -426,9 +423,6 @@
   </si>
   <si>
     <t>flower_calyx_aborting</t>
-  </si>
-  <si>
-    <t>"2756" correct for "To" and "1676" correct as number passing onwards, so not sure how "3668" has been calculated; there should be 1080 as fin dev</t>
   </si>
   <si>
     <t>OK</t>
@@ -488,12 +482,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -776,8 +772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -813,10 +809,10 @@
         <v>69</v>
       </c>
       <c r="L1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>72</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>73</v>
       </c>
       <c r="N1" t="s">
         <v>70</v>
@@ -1485,12 +1481,12 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C34" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D34">
         <v>388</v>
@@ -1504,7 +1500,7 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D35">
         <v>50</v>
@@ -1518,7 +1514,7 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D36" s="1">
         <v>36874</v>
@@ -1532,7 +1528,7 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C37" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D37" s="1">
         <v>36874</v>
@@ -1726,7 +1722,7 @@
         <v>3</v>
       </c>
       <c r="D44" s="1">
-        <v>3668</v>
+        <v>1080</v>
       </c>
       <c r="E44" s="1">
         <v>2756</v>
@@ -1735,18 +1731,14 @@
         <v>1676</v>
       </c>
       <c r="G44" s="1">
-        <v>3668</v>
+        <v>1080</v>
       </c>
       <c r="J44">
         <f t="shared" si="1"/>
-        <v>-2588</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>71</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="1"/>
       <c r="M44" s="2"/>
       <c r="N44" s="1"/>
       <c r="O44" s="2"/>
@@ -1832,20 +1824,20 @@
         <v>5</v>
       </c>
       <c r="D47" s="1">
-        <v>7648</v>
+        <v>3368</v>
       </c>
       <c r="E47" s="1">
         <v>5044</v>
       </c>
       <c r="F47" s="1">
-        <v>1644</v>
+        <v>1676</v>
       </c>
       <c r="G47" s="1">
-        <v>7228</v>
+        <v>2980</v>
       </c>
       <c r="J47">
         <f t="shared" si="1"/>
-        <v>-4248</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="1"/>
@@ -1996,7 +1988,7 @@
         <v>15</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D52" s="1">
         <v>1676</v>
@@ -2205,17 +2197,22 @@
       <c r="L60" s="1"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
+      <c r="B61" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="C61" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="D61" s="5">
-        <v>3834</v>
-      </c>
-      <c r="E61" s="8">
+      <c r="D61" s="8">
         <v>2756</v>
       </c>
+      <c r="E61" s="5">
+        <v>2756</v>
+      </c>
       <c r="G61" s="1"/>
+      <c r="J61" t="s">
+        <v>66</v>
+      </c>
       <c r="K61" s="2"/>
       <c r="L61" s="1"/>
     </row>
@@ -2712,28 +2709,25 @@
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B84" t="s">
         <v>11</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D84" s="1">
-        <v>2943</v>
+        <v>2203</v>
       </c>
       <c r="E84" s="1">
-        <v>3376</v>
+        <v>6781</v>
       </c>
       <c r="F84" s="1">
-        <v>8741</v>
+        <v>4578</v>
       </c>
       <c r="G84" s="1">
-        <v>72</v>
-      </c>
-      <c r="H84" s="1">
-        <v>8308</v>
+        <v>1861</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84">
@@ -2784,51 +2778,60 @@
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B86" t="s">
         <v>11</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D86" s="1">
-        <v>2203</v>
+        <v>2950</v>
       </c>
       <c r="E86" s="1">
-        <v>6781</v>
+        <v>3736</v>
       </c>
       <c r="F86" s="1">
-        <v>4578</v>
+        <v>8741</v>
       </c>
       <c r="G86" s="1">
-        <v>1861</v>
+        <v>79</v>
+      </c>
+      <c r="H86" s="1">
+        <v>7955</v>
       </c>
       <c r="J86">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K86" s="2"/>
-      <c r="L86" s="4"/>
+      <c r="L86" s="1"/>
       <c r="M86" s="4"/>
       <c r="O86" s="2"/>
       <c r="P86" s="1"/>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B87" t="s">
         <v>11</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" s="1">
-        <v>4619</v>
+        <v>1546</v>
       </c>
       <c r="E87" s="1">
-        <v>4619</v>
+        <v>3620</v>
+      </c>
+      <c r="F87" s="1">
+        <v>2074</v>
+      </c>
+      <c r="G87" s="1">
+        <v>1546</v>
       </c>
       <c r="J87">
         <f t="shared" si="3"/>
@@ -2874,25 +2877,19 @@
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B89" t="s">
         <v>11</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D89" s="1">
-        <v>1546</v>
+        <v>4619</v>
       </c>
       <c r="E89" s="1">
-        <v>3620</v>
-      </c>
-      <c r="F89" s="1">
-        <v>2074</v>
-      </c>
-      <c r="G89" s="1">
-        <v>1546</v>
+        <v>4619</v>
       </c>
       <c r="J89">
         <f t="shared" si="3"/>
@@ -2906,25 +2903,25 @@
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
         <v>11</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D90" s="1">
-        <v>598</v>
+        <v>329</v>
       </c>
       <c r="E90" s="1">
-        <v>1806</v>
+        <v>1783</v>
       </c>
       <c r="F90" s="1">
-        <v>1208</v>
+        <v>1454</v>
       </c>
       <c r="G90" s="1">
-        <v>598</v>
+        <v>329</v>
       </c>
       <c r="J90">
         <f t="shared" si="3"/>
@@ -2938,25 +2935,19 @@
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
         <v>11</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D91" s="1">
-        <v>329</v>
+        <v>1673</v>
       </c>
       <c r="E91" s="1">
-        <v>1783</v>
-      </c>
-      <c r="F91" s="1">
-        <v>1454</v>
-      </c>
-      <c r="G91" s="1">
-        <v>329</v>
+        <v>1673</v>
       </c>
       <c r="J91">
         <f t="shared" si="3"/>
@@ -2970,19 +2961,25 @@
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B92" t="s">
         <v>11</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D92" s="1">
-        <v>1673</v>
+        <v>598</v>
       </c>
       <c r="E92" s="1">
-        <v>1673</v>
+        <v>1806</v>
+      </c>
+      <c r="F92" s="1">
+        <v>1208</v>
+      </c>
+      <c r="G92" s="1">
+        <v>598</v>
       </c>
       <c r="J92">
         <f t="shared" si="3"/>
@@ -3014,6 +3011,7 @@
       <c r="J94" t="s">
         <v>62</v>
       </c>
+      <c r="K94" s="2"/>
       <c r="L94" s="1"/>
       <c r="M94" s="4"/>
     </row>
@@ -3038,7 +3036,7 @@
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>0</v>
@@ -3064,7 +3062,7 @@
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>1</v>
@@ -3090,7 +3088,7 @@
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>12</v>
@@ -3116,7 +3114,7 @@
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C100" t="s">
         <v>2</v>
@@ -3145,7 +3143,7 @@
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>13</v>
@@ -3171,7 +3169,7 @@
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>5</v>
@@ -3191,7 +3189,7 @@
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>24</v>
@@ -3217,7 +3215,7 @@
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>14</v>
@@ -3243,7 +3241,7 @@
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>6</v>
@@ -3269,10 +3267,10 @@
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D106" s="1">
         <v>2</v>
@@ -3295,10 +3293,10 @@
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D107" s="1">
         <v>2</v>
@@ -3321,7 +3319,7 @@
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>8</v>
@@ -3347,10 +3345,10 @@
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D109" s="1">
         <v>32</v>
@@ -3373,7 +3371,7 @@
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>48</v>
@@ -3393,7 +3391,7 @@
     </row>
     <row r="111" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
@@ -3413,7 +3411,7 @@
     </row>
     <row r="112" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>18</v>
@@ -3433,7 +3431,7 @@
     </row>
     <row r="113" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>38</v>
@@ -3453,7 +3451,7 @@
     </row>
     <row r="114" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>19</v>
@@ -3483,7 +3481,7 @@
     </row>
     <row r="117" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C117" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D117">
         <v>92</v>
@@ -3498,7 +3496,7 @@
     </row>
     <row r="118" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C118" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D118">
         <v>136</v>
@@ -3513,7 +3511,7 @@
     </row>
     <row r="119" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C119" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D119" s="1">
         <v>4216</v>
@@ -3553,7 +3551,7 @@
     </row>
     <row r="123" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>0</v>
@@ -3587,7 +3585,7 @@
     </row>
     <row r="124" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>27</v>
@@ -3614,7 +3612,7 @@
     </row>
     <row r="125" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>1</v>
@@ -3645,7 +3643,7 @@
     </row>
     <row r="126" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>12</v>
@@ -3672,7 +3670,7 @@
     </row>
     <row r="127" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>2</v>
@@ -3703,7 +3701,7 @@
     </row>
     <row r="128" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>13</v>
@@ -3734,7 +3732,7 @@
     </row>
     <row r="129" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>5</v>
@@ -3759,7 +3757,7 @@
     </row>
     <row r="130" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>24</v>
@@ -3786,7 +3784,7 @@
     </row>
     <row r="131" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>14</v>
@@ -3813,7 +3811,7 @@
     </row>
     <row r="132" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>6</v>
@@ -3840,10 +3838,10 @@
     </row>
     <row r="133" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D133" s="1">
         <v>22</v>
@@ -3867,10 +3865,10 @@
     </row>
     <row r="134" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D134" s="1">
         <v>2</v>
@@ -3894,10 +3892,10 @@
     </row>
     <row r="135" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1">
@@ -3917,7 +3915,7 @@
     </row>
     <row r="136" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>8</v>
@@ -3944,10 +3942,10 @@
     </row>
     <row r="137" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D137" s="1">
         <v>206</v>
@@ -3969,12 +3967,12 @@
       <c r="L137" s="1"/>
       <c r="M137" s="1"/>
       <c r="P137" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="138" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>48</v>
@@ -4005,7 +4003,7 @@
     </row>
     <row r="139" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>50</v>
@@ -4026,7 +4024,7 @@
     </row>
     <row r="140" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>17</v>
@@ -4047,7 +4045,7 @@
     </row>
     <row r="141" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>18</v>
@@ -4068,7 +4066,7 @@
     </row>
     <row r="142" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>38</v>
@@ -4088,7 +4086,7 @@
     </row>
     <row r="143" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>19</v>
@@ -4113,7 +4111,7 @@
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C145" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D145">
         <v>2752</v>
@@ -4129,7 +4127,7 @@
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C146" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D146">
         <v>206</v>
@@ -4145,7 +4143,7 @@
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C147" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D147">
         <v>150</v>
@@ -4186,7 +4184,7 @@
         <v>1</v>
       </c>
       <c r="B150" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>47</v>
@@ -4215,10 +4213,10 @@
         <v>2</v>
       </c>
       <c r="B151" t="s">
+        <v>112</v>
+      </c>
+      <c r="C151" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>114</v>
       </c>
       <c r="D151" s="1">
         <v>2902</v>
@@ -4244,7 +4242,7 @@
         <v>3</v>
       </c>
       <c r="B152" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>45</v>
@@ -4273,10 +4271,10 @@
         <v>4</v>
       </c>
       <c r="B153" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D153" s="1">
         <v>190594</v>
@@ -4296,10 +4294,10 @@
         <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D154" s="1">
         <v>85696</v>
@@ -4325,7 +4323,7 @@
         <v>6</v>
       </c>
       <c r="B155" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>5</v>
@@ -4348,7 +4346,7 @@
         <v>7</v>
       </c>
       <c r="B156" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>24</v>
@@ -4378,7 +4376,7 @@
         <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>13</v>
@@ -4407,7 +4405,7 @@
         <v>9</v>
       </c>
       <c r="B158" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>14</v>
@@ -4432,7 +4430,7 @@
         <v>10</v>
       </c>
       <c r="B159" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
@@ -4456,7 +4454,7 @@
         <v>11</v>
       </c>
       <c r="B160" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>6</v>
@@ -4485,7 +4483,7 @@
         <v>12</v>
       </c>
       <c r="B161" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>54</v>
@@ -4509,7 +4507,7 @@
         <v>13</v>
       </c>
       <c r="B162" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>19</v>
@@ -4536,10 +4534,10 @@
         <v>14</v>
       </c>
       <c r="B163" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D163" s="1">
         <v>148</v>
@@ -4566,7 +4564,7 @@
         <v>15</v>
       </c>
       <c r="B164" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>38</v>
@@ -4590,7 +4588,7 @@
         <v>16</v>
       </c>
       <c r="B165" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>18</v>
@@ -4616,7 +4614,7 @@
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C167" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D167">
         <v>380</v>
@@ -4630,7 +4628,7 @@
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C168" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D168" s="1">
         <v>31930</v>
@@ -4639,8 +4637,8 @@
         <f>32162-102-130</f>
         <v>31930</v>
       </c>
-      <c r="J168" s="6" t="s">
-        <v>128</v>
+      <c r="J168" s="5" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.25">
@@ -4668,7 +4666,7 @@
         <v>2</v>
       </c>
       <c r="B171" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>0</v>
@@ -4699,7 +4697,7 @@
         <v>1</v>
       </c>
       <c r="B172" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>12</v>
@@ -4734,7 +4732,7 @@
         <v>7</v>
       </c>
       <c r="B173" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>55</v>
@@ -4763,7 +4761,7 @@
         <v>6</v>
       </c>
       <c r="B174" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>3</v>
@@ -4796,10 +4794,10 @@
         <v>6.1</v>
       </c>
       <c r="B175" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D175" s="1">
         <v>178</v>
@@ -4825,7 +4823,7 @@
         <v>4</v>
       </c>
       <c r="B176" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>4</v>
@@ -4858,10 +4856,10 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="B177" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D177" s="1">
         <v>80</v>
@@ -4889,7 +4887,7 @@
         <v>3</v>
       </c>
       <c r="B178" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>5</v>
@@ -4918,7 +4916,7 @@
         <v>5</v>
       </c>
       <c r="B179" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>54</v>
@@ -4936,8 +4934,8 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="K179" s="7" t="s">
-        <v>131</v>
+      <c r="K179" s="6" t="s">
+        <v>130</v>
       </c>
       <c r="L179" s="1"/>
       <c r="O179" s="2"/>
@@ -4948,7 +4946,7 @@
         <v>9</v>
       </c>
       <c r="B180" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>6</v>
@@ -4981,10 +4979,10 @@
         <v>9.1</v>
       </c>
       <c r="B181" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D181" s="1">
         <v>95</v>
@@ -5012,7 +5010,7 @@
         <v>10</v>
       </c>
       <c r="B182" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>7</v>
@@ -5041,7 +5039,7 @@
         <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>8</v>
@@ -5074,10 +5072,10 @@
         <v>8.1</v>
       </c>
       <c r="B184" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D184" s="1">
         <v>126</v>
@@ -5111,7 +5109,7 @@
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C186" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D186" s="1">
         <f>D178</f>
@@ -5130,7 +5128,7 @@
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C187" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D187" s="1">
         <v>369</v>
@@ -5596,7 +5594,7 @@
         <v>1</v>
       </c>
       <c r="B209" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>12</v>
@@ -5630,7 +5628,7 @@
         <v>2</v>
       </c>
       <c r="B210" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>1</v>
@@ -5662,7 +5660,7 @@
         <v>3</v>
       </c>
       <c r="B211" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>0</v>
@@ -5692,7 +5690,7 @@
         <v>4</v>
       </c>
       <c r="B212" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>5</v>
@@ -5716,7 +5714,7 @@
         <v>5</v>
       </c>
       <c r="B213" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>17</v>
@@ -5744,7 +5742,7 @@
         <v>6</v>
       </c>
       <c r="B214" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>24</v>
@@ -5774,7 +5772,7 @@
         <v>7</v>
       </c>
       <c r="B215" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>13</v>
@@ -5804,7 +5802,7 @@
         <v>8</v>
       </c>
       <c r="B216" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>14</v>
@@ -5838,7 +5836,7 @@
         <v>9</v>
       </c>
       <c r="B217" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
@@ -5872,7 +5870,7 @@
         <v>10</v>
       </c>
       <c r="B218" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>6</v>
@@ -5902,10 +5900,10 @@
         <v>11</v>
       </c>
       <c r="B219" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D219" s="1">
         <v>35</v>
@@ -5932,10 +5930,10 @@
         <v>12</v>
       </c>
       <c r="B220" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D220" s="1">
         <v>6</v>
@@ -5962,10 +5960,10 @@
         <v>13</v>
       </c>
       <c r="B221" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D221" s="1">
         <v>1</v>
@@ -5992,10 +5990,10 @@
         <v>14</v>
       </c>
       <c r="B222" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D222" s="1">
         <v>2</v>
@@ -6022,10 +6020,10 @@
         <v>15</v>
       </c>
       <c r="B223" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D223" s="1">
         <v>1</v>
@@ -6052,7 +6050,7 @@
         <v>16</v>
       </c>
       <c r="B224" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>18</v>
@@ -6076,7 +6074,7 @@
         <v>17</v>
       </c>
       <c r="B225" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>19</v>
@@ -6118,7 +6116,7 @@
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C228" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D228">
         <v>1343</v>
@@ -6130,12 +6128,12 @@
         <v>62</v>
       </c>
       <c r="K228" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C229" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D229">
         <v>1343</v>
@@ -6149,7 +6147,7 @@
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C231" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D231" s="1"/>
     </row>
@@ -6179,10 +6177,10 @@
         <v>1</v>
       </c>
       <c r="B234" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E234" s="1">
         <v>17</v>
@@ -6202,10 +6200,10 @@
         <v>2</v>
       </c>
       <c r="B235" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E235" s="1">
         <v>14</v>
@@ -6225,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="B236" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E236" s="1">
         <v>11</v>
@@ -6248,10 +6246,10 @@
         <v>4</v>
       </c>
       <c r="B237" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E237" s="1">
         <v>5</v>
@@ -6271,10 +6269,10 @@
         <v>5</v>
       </c>
       <c r="B238" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E238" s="1">
         <v>1</v>
@@ -6294,7 +6292,7 @@
         <v>6</v>
       </c>
       <c r="B239" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>39</v>
@@ -6317,7 +6315,7 @@
         <v>7</v>
       </c>
       <c r="B240" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>23</v>
@@ -6340,7 +6338,7 @@
         <v>8</v>
       </c>
       <c r="B241" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>35</v>
@@ -6363,7 +6361,7 @@
         <v>9</v>
       </c>
       <c r="B242" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>33</v>
@@ -6386,7 +6384,7 @@
         <v>10</v>
       </c>
       <c r="B243" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>28</v>
@@ -6409,7 +6407,7 @@
         <v>11</v>
       </c>
       <c r="B244" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>2</v>
@@ -6437,7 +6435,7 @@
         <v>12</v>
       </c>
       <c r="B245" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>0</v>
@@ -6466,7 +6464,7 @@
         <v>13</v>
       </c>
       <c r="B246" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>5</v>
@@ -6489,7 +6487,7 @@
         <v>14</v>
       </c>
       <c r="B247" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>4</v>
@@ -6512,7 +6510,7 @@
         <v>15</v>
       </c>
       <c r="B248" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>24</v>
@@ -6541,7 +6539,7 @@
         <v>16</v>
       </c>
       <c r="B249" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>14</v>
@@ -6570,7 +6568,7 @@
         <v>17</v>
       </c>
       <c r="B250" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>8</v>
@@ -6593,7 +6591,7 @@
         <v>18</v>
       </c>
       <c r="B251" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>54</v>
@@ -6616,7 +6614,7 @@
         <v>19</v>
       </c>
       <c r="B252" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>6</v>
@@ -6645,10 +6643,10 @@
         <v>20</v>
       </c>
       <c r="B253" t="s">
+        <v>104</v>
+      </c>
+      <c r="C253" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D253" s="1">
         <v>409</v>
@@ -6668,7 +6666,7 @@
         <v>21</v>
       </c>
       <c r="B254" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>7</v>
@@ -6693,7 +6691,7 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C256" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D256">
         <v>916</v>
@@ -6709,7 +6707,7 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C257" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D257">
         <v>916</v>
@@ -6749,10 +6747,10 @@
         <v>7</v>
       </c>
       <c r="B260" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D260" s="1">
         <v>5218</v>
@@ -6773,7 +6771,7 @@
         <v>3</v>
       </c>
       <c r="B261" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>1</v>
@@ -6797,7 +6795,7 @@
         <v>2</v>
       </c>
       <c r="B262" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>12</v>
@@ -6823,7 +6821,7 @@
         <v>10</v>
       </c>
       <c r="B263" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>13</v>
@@ -6853,10 +6851,10 @@
         <v>4</v>
       </c>
       <c r="B264" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D264" s="1">
         <v>72</v>
@@ -6877,10 +6875,10 @@
         <v>1</v>
       </c>
       <c r="B265" t="s">
+        <v>89</v>
+      </c>
+      <c r="C265" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D265" s="1">
         <v>312</v>
@@ -6901,7 +6899,7 @@
         <v>8</v>
       </c>
       <c r="B266" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>4</v>
@@ -6925,7 +6923,7 @@
         <v>5</v>
       </c>
       <c r="B267" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>5</v>
@@ -6949,10 +6947,10 @@
         <v>6</v>
       </c>
       <c r="B268" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D268" s="1">
         <v>470</v>
@@ -6976,7 +6974,7 @@
         <v>9</v>
       </c>
       <c r="B269" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>24</v>
@@ -7006,7 +7004,7 @@
         <v>14</v>
       </c>
       <c r="B270" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>54</v>
@@ -7030,7 +7028,7 @@
         <v>11</v>
       </c>
       <c r="B271" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>14</v>
@@ -7060,7 +7058,7 @@
         <v>13</v>
       </c>
       <c r="B272" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>6</v>
@@ -7086,7 +7084,7 @@
         <v>12</v>
       </c>
       <c r="B273" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>8</v>
@@ -7116,7 +7114,7 @@
         <v>16</v>
       </c>
       <c r="B274" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>18</v>
@@ -7140,7 +7138,7 @@
         <v>15</v>
       </c>
       <c r="B275" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>38</v>
@@ -7164,7 +7162,7 @@
         <v>17</v>
       </c>
       <c r="B276" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>19</v>
@@ -7200,12 +7198,12 @@
         <v>584</v>
       </c>
       <c r="J278" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C279" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D279">
         <v>5218</v>
@@ -7220,12 +7218,12 @@
         <v>62</v>
       </c>
       <c r="K279" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C280" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D280">
         <v>5218</v>
@@ -7262,10 +7260,10 @@
         <v>3</v>
       </c>
       <c r="B283" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C283" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D283" s="1">
         <v>48</v>
@@ -7289,7 +7287,7 @@
         <v>4</v>
       </c>
       <c r="B284" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>0</v>
@@ -7318,7 +7316,7 @@
         <v>6</v>
       </c>
       <c r="B285" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>4</v>
@@ -7345,7 +7343,7 @@
         <v>5</v>
       </c>
       <c r="B286" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>5</v>
@@ -7372,7 +7370,7 @@
         <v>7</v>
       </c>
       <c r="B287" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>24</v>
@@ -7405,7 +7403,7 @@
         <v>10</v>
       </c>
       <c r="B288" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>54</v>
@@ -7430,7 +7428,7 @@
         <v>9</v>
       </c>
       <c r="B289" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>6</v>
@@ -7461,7 +7459,7 @@
         <v>8</v>
       </c>
       <c r="B290" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
@@ -7494,7 +7492,7 @@
         <v>1</v>
       </c>
       <c r="B291" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>45</v>
@@ -7523,7 +7521,7 @@
         <v>2</v>
       </c>
       <c r="B292" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>48</v>
@@ -7551,7 +7549,7 @@
         <v>11</v>
       </c>
       <c r="B293" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>18</v>
@@ -7574,7 +7572,7 @@
         <v>12</v>
       </c>
       <c r="B294" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>19</v>
@@ -7599,7 +7597,7 @@
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C296" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D296">
         <v>1067</v>
@@ -7613,7 +7611,7 @@
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C297" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D297" s="1">
         <v>1067</v>
@@ -7627,7 +7625,7 @@
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C298" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D298" s="1">
         <v>48</v>
@@ -7667,10 +7665,10 @@
         <v>4</v>
       </c>
       <c r="B301" t="s">
+        <v>78</v>
+      </c>
+      <c r="C301" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C301" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="D301" s="1">
         <v>1963</v>
@@ -7688,7 +7686,7 @@
         <v>1</v>
       </c>
       <c r="B302" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>0</v>
@@ -7711,7 +7709,7 @@
         <v>7</v>
       </c>
       <c r="B303" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>13</v>
@@ -7742,10 +7740,10 @@
         <v>0</v>
       </c>
       <c r="B304" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D304" s="1">
         <v>9</v>
@@ -7765,7 +7763,7 @@
         <v>3</v>
       </c>
       <c r="B305" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>4</v>
@@ -7788,7 +7786,7 @@
         <v>2</v>
       </c>
       <c r="B306" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>5</v>
@@ -7811,7 +7809,7 @@
         <v>5</v>
       </c>
       <c r="B307" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>24</v>
@@ -7840,7 +7838,7 @@
         <v>6</v>
       </c>
       <c r="B308" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>54</v>
@@ -7863,7 +7861,7 @@
         <v>8</v>
       </c>
       <c r="B309" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>6</v>
@@ -7887,7 +7885,7 @@
         <v>9</v>
       </c>
       <c r="B310" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>18</v>
@@ -7910,7 +7908,7 @@
         <v>10</v>
       </c>
       <c r="B311" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>38</v>
@@ -7933,7 +7931,7 @@
         <v>11</v>
       </c>
       <c r="B312" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>19</v>
@@ -7957,7 +7955,7 @@
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C314" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D314" s="1">
         <v>1963</v>
@@ -7973,7 +7971,7 @@
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C315" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D315" s="1">
         <v>487</v>
@@ -7982,12 +7980,12 @@
         <v>510</v>
       </c>
       <c r="J315" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C316" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D316" s="1">
         <v>1963</v>
@@ -8113,8 +8111,8 @@
       <c r="E353" s="1"/>
     </row>
   </sheetData>
-  <sortState ref="K48:L54">
-    <sortCondition ref="K48:K54"/>
+  <sortState ref="K85:L94">
+    <sortCondition ref="K85:K94"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
